--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="110">
   <si>
     <t>﻿tts_sysno</t>
   </si>
@@ -91,316 +91,235 @@
     <t>c_modified_date</t>
   </si>
   <si>
-    <t>廣六書通考: 四卷</t>
-  </si>
-  <si>
-    <t>浙東紀遊草: 一卷</t>
-  </si>
-  <si>
-    <t>清承堂印譜: 八卷</t>
-  </si>
-  <si>
-    <t>和溪文集</t>
-  </si>
-  <si>
-    <t>發蒙近語</t>
-  </si>
-  <si>
-    <t>大學古本註釋</t>
-  </si>
-  <si>
-    <t>宗譜家規</t>
-  </si>
-  <si>
-    <t>萬松遺稿</t>
-  </si>
-  <si>
-    <t>畫豳盧詩稿</t>
-  </si>
-  <si>
-    <t>華黍莊集</t>
-  </si>
-  <si>
-    <t>秋水集</t>
-  </si>
-  <si>
-    <t>柳洲詩</t>
-  </si>
-  <si>
-    <t>分千詩鈔</t>
-  </si>
-  <si>
-    <t>月珮詞</t>
-  </si>
-  <si>
-    <t>先儒粹言: 二卷</t>
-  </si>
-  <si>
-    <t>淮南倡和集</t>
-  </si>
-  <si>
-    <t>娛老吟: 二卷</t>
-  </si>
-  <si>
-    <t>水村詩稿</t>
-  </si>
-  <si>
-    <t>稽古日鈔: 八卷</t>
-  </si>
-  <si>
-    <t>集古詩鈔</t>
-  </si>
-  <si>
-    <t>唾餘集</t>
-  </si>
-  <si>
-    <t>自娛草</t>
-  </si>
-  <si>
-    <t>詠物詩</t>
-  </si>
-  <si>
-    <t>仕優稿</t>
-  </si>
-  <si>
-    <t>奏議: 三卷</t>
-  </si>
-  <si>
-    <t>詩文: 二卷</t>
-  </si>
-  <si>
-    <t>冰潭集</t>
-  </si>
-  <si>
-    <t>竹坡小稿</t>
-  </si>
-  <si>
-    <t>代思集</t>
-  </si>
-  <si>
-    <t>石公吟稿</t>
-  </si>
-  <si>
-    <t>雲巢詩鈔</t>
-  </si>
-  <si>
-    <t>靈芬館詩集: 三十卷</t>
-  </si>
-  <si>
-    <t>雜著文集: 十四卷</t>
-  </si>
-  <si>
-    <t>金石例補: 二卷</t>
-  </si>
-  <si>
-    <t>江行日記: 一卷</t>
-  </si>
-  <si>
-    <t>樗園消夏錄: 三卷</t>
-  </si>
-  <si>
-    <t>爨餘叢話: 六卷</t>
-  </si>
-  <si>
-    <t>唐文粹遺補: 二十六卷</t>
-  </si>
-  <si>
-    <t>詩話: 十八卷</t>
-  </si>
-  <si>
-    <t>山礬書屋詩初集: 十卷</t>
-  </si>
-  <si>
-    <t>山礬書屋詩二集: 九卷</t>
-  </si>
-  <si>
-    <t>文竹山房詩: 四卷</t>
-  </si>
-  <si>
-    <t>榆莊詩草</t>
-  </si>
-  <si>
-    <t>改吟齋詩鈔: 四卷</t>
-  </si>
-  <si>
-    <t>三國志考證: 八卷</t>
-  </si>
-  <si>
-    <t>小遂初堂詩稿: 八卷</t>
-  </si>
-  <si>
-    <t>古柏軒詩集</t>
-  </si>
-  <si>
-    <t>清止閣集</t>
-  </si>
-  <si>
-    <t>水村琴趣</t>
-  </si>
-  <si>
-    <t>倚晴閣詩鈔</t>
-  </si>
-  <si>
-    <t>桃穀集</t>
-  </si>
-  <si>
-    <t>聞蛩集</t>
-  </si>
-  <si>
-    <t>guang liu shu tong kao</t>
-  </si>
-  <si>
-    <t>zhe dong ji you cao</t>
-  </si>
-  <si>
-    <t>qing cheng tang yin pu</t>
-  </si>
-  <si>
-    <t>he xi wen ji</t>
-  </si>
-  <si>
-    <t>fa meng jin yu</t>
-  </si>
-  <si>
-    <t>da xue gu ben zhu shi</t>
-  </si>
-  <si>
-    <t>zong pu jia gui</t>
-  </si>
-  <si>
-    <t>wan song yi gao</t>
-  </si>
-  <si>
-    <t>hua bin lu shi gao</t>
-  </si>
-  <si>
-    <t>hua shu zhuang ji</t>
-  </si>
-  <si>
-    <t>qiu shui ji</t>
-  </si>
-  <si>
-    <t>liu zhou shi</t>
-  </si>
-  <si>
-    <t>fen qian shi chao</t>
-  </si>
-  <si>
-    <t>yue pei ci</t>
-  </si>
-  <si>
-    <t>xian ru cui yan</t>
-  </si>
-  <si>
-    <t>huai nan chang he ji</t>
-  </si>
-  <si>
-    <t>yu lao yin</t>
-  </si>
-  <si>
-    <t>shui cun shi gao</t>
-  </si>
-  <si>
-    <t>ji gu ri chao</t>
-  </si>
-  <si>
-    <t>ji gu shi chao</t>
-  </si>
-  <si>
-    <t>tuo yu ji</t>
-  </si>
-  <si>
-    <t>zi yu cao</t>
-  </si>
-  <si>
-    <t>yong wu shi</t>
-  </si>
-  <si>
-    <t>shi you gao</t>
+    <t>北山言行錄</t>
+  </si>
+  <si>
+    <t>春秋粹旨</t>
+  </si>
+  <si>
+    <t>紫柏老人集</t>
+  </si>
+  <si>
+    <t>退茹集</t>
+  </si>
+  <si>
+    <t>績谿志</t>
+  </si>
+  <si>
+    <t>書經會要</t>
+  </si>
+  <si>
+    <t>文稿: 四卷</t>
+  </si>
+  <si>
+    <t>碧溪稿</t>
+  </si>
+  <si>
+    <t>歸養錄</t>
+  </si>
+  <si>
+    <t>餘慶集</t>
+  </si>
+  <si>
+    <t>全歸錄</t>
+  </si>
+  <si>
+    <t>擬聲音經緯書</t>
+  </si>
+  <si>
+    <t>竹巖遺編: 二十卷</t>
+  </si>
+  <si>
+    <t>詩文集: 十卷</t>
+  </si>
+  <si>
+    <t>奏議: 一卷</t>
+  </si>
+  <si>
+    <t>廣西志</t>
+  </si>
+  <si>
+    <t>大理府志</t>
+  </si>
+  <si>
+    <t>易講草</t>
+  </si>
+  <si>
+    <t>經世續卦</t>
+  </si>
+  <si>
+    <t>偉谿稿</t>
+  </si>
+  <si>
+    <t>竹巖遺編</t>
+  </si>
+  <si>
+    <t>質齋集</t>
+  </si>
+  <si>
+    <t>鏡山集</t>
+  </si>
+  <si>
+    <t>風木哀情集</t>
+  </si>
+  <si>
+    <t>征苗錄</t>
+  </si>
+  <si>
+    <t>迂樵雜著: 四卷</t>
+  </si>
+  <si>
+    <t>杜詩訂註: 十卷</t>
+  </si>
+  <si>
+    <t>經書錄疑</t>
+  </si>
+  <si>
+    <t>牧民政條</t>
+  </si>
+  <si>
+    <t>北山稿</t>
+  </si>
+  <si>
+    <t>蓮峯集: 二卷</t>
+  </si>
+  <si>
+    <t>春秋傳義</t>
+  </si>
+  <si>
+    <t>四書語錄</t>
+  </si>
+  <si>
+    <t>五經雜義</t>
+  </si>
+  <si>
+    <t>呂濱子集</t>
+  </si>
+  <si>
+    <t>周易傳義</t>
+  </si>
+  <si>
+    <t>方塘集</t>
+  </si>
+  <si>
+    <t>仁山遺稿</t>
+  </si>
+  <si>
+    <t>宗祠考</t>
+  </si>
+  <si>
+    <t>bei shan yan xing lu</t>
+  </si>
+  <si>
+    <t>chun qiu cui zhi</t>
+  </si>
+  <si>
+    <t>zi bai lao ren ji</t>
+  </si>
+  <si>
+    <t>tui ru ji</t>
+  </si>
+  <si>
+    <t>ji xi zhi</t>
+  </si>
+  <si>
+    <t>shu jing hui yao</t>
+  </si>
+  <si>
+    <t>wen gao</t>
+  </si>
+  <si>
+    <t>bi xi gao</t>
+  </si>
+  <si>
+    <t>gui yang lu</t>
+  </si>
+  <si>
+    <t>yu qing ji</t>
+  </si>
+  <si>
+    <t>quan gui lu</t>
+  </si>
+  <si>
+    <t>ni sheng yin jing wei shu</t>
+  </si>
+  <si>
+    <t>zhu yan yi bian</t>
+  </si>
+  <si>
+    <t>shi wen ji</t>
   </si>
   <si>
     <t>zou yi</t>
   </si>
   <si>
-    <t>shi wen</t>
-  </si>
-  <si>
-    <t>bing tan ji</t>
-  </si>
-  <si>
-    <t>zhu po xiao gao</t>
-  </si>
-  <si>
-    <t>dai si ji</t>
-  </si>
-  <si>
-    <t>shi gong yin gao</t>
-  </si>
-  <si>
-    <t>yun chao shi chao</t>
-  </si>
-  <si>
-    <t>ling fen guan shi ji</t>
-  </si>
-  <si>
-    <t>za zhu wen ji</t>
-  </si>
-  <si>
-    <t>jin shi li bu</t>
-  </si>
-  <si>
-    <t>jiang xing ri ji</t>
-  </si>
-  <si>
-    <t>chu yuan xiao xia lu</t>
-  </si>
-  <si>
-    <t>cuan yu cong hua</t>
-  </si>
-  <si>
-    <t>tang wen cui yi bu</t>
-  </si>
-  <si>
-    <t>shi hua</t>
-  </si>
-  <si>
-    <t>shan fan shu wu shi chu ji</t>
-  </si>
-  <si>
-    <t>shan fan shu wu shi er ji</t>
-  </si>
-  <si>
-    <t>wen zhu shan fang shi</t>
-  </si>
-  <si>
-    <t>yu zhuang shi cao</t>
-  </si>
-  <si>
-    <t>gai yin zhai shi chao</t>
-  </si>
-  <si>
-    <t>san guo zhi kao zheng</t>
-  </si>
-  <si>
-    <t>xiao sui chu tang shi gao</t>
-  </si>
-  <si>
-    <t>gu bai xuan shi ji</t>
-  </si>
-  <si>
-    <t>qing zhi ge ji</t>
-  </si>
-  <si>
-    <t>shui cun qin qu</t>
-  </si>
-  <si>
-    <t>yi qing ge shi chao</t>
-  </si>
-  <si>
-    <t>tao gu ji</t>
-  </si>
-  <si>
-    <t>wen qiong ji</t>
+    <t>guang xi zhi</t>
+  </si>
+  <si>
+    <t>da li fu zhi</t>
+  </si>
+  <si>
+    <t>yi jiang cao</t>
+  </si>
+  <si>
+    <t>jing shi xu gua</t>
+  </si>
+  <si>
+    <t>wei xi gao</t>
+  </si>
+  <si>
+    <t>zhi zhai ji</t>
+  </si>
+  <si>
+    <t>jing shan ji</t>
+  </si>
+  <si>
+    <t>feng mu ai qing ji</t>
+  </si>
+  <si>
+    <t>zheng miao lu</t>
+  </si>
+  <si>
+    <t>yu qiao za zhu</t>
+  </si>
+  <si>
+    <t>du shi ding zhu</t>
+  </si>
+  <si>
+    <t>jing shu lu yi</t>
+  </si>
+  <si>
+    <t>mu min zheng tiao</t>
+  </si>
+  <si>
+    <t>bei shan gao</t>
+  </si>
+  <si>
+    <t>lian feng ji</t>
+  </si>
+  <si>
+    <t>chun qiu chuan yi</t>
+  </si>
+  <si>
+    <t>si shu yu lu</t>
+  </si>
+  <si>
+    <t>wu jing za yi</t>
+  </si>
+  <si>
+    <t>lv bin zi ji</t>
+  </si>
+  <si>
+    <t>zhou yi chuan yi</t>
+  </si>
+  <si>
+    <t>fang tang ji</t>
+  </si>
+  <si>
+    <t>ren shan yi gao</t>
+  </si>
+  <si>
+    <t>zong ci kao</t>
   </si>
   <si>
     <t>01</t>
@@ -412,22 +331,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>57941</t>
+  </si>
+  <si>
     <t>65006</t>
   </si>
   <si>
-    <t>57941</t>
-  </si>
-  <si>
     <t>load</t>
   </si>
   <si>
-    <t>20230818</t>
+    <t>20230825</t>
   </si>
 </sst>
 </file>
@@ -785,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,1510 +786,1133 @@
     </row>
     <row r="2" spans="1:25">
       <c r="B2">
-        <v>65135</v>
+        <v>65136</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="N2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="B3">
-        <v>65136</v>
+        <v>65137</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="B4">
-        <v>65137</v>
+        <v>65138</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="N4" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O4" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="V4" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W4" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="B5">
-        <v>65138</v>
+        <v>65139</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O5" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="V5" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W5" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="B6">
-        <v>65139</v>
+        <v>65140</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="V6" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W6" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="B7">
-        <v>65140</v>
+        <v>65141</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="N7" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="V7" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W7" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="B8">
-        <v>65141</v>
+        <v>65142</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="N8" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="V8" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W8" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="B9">
-        <v>65142</v>
+        <v>65143</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="V9" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W9" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="B10">
-        <v>65143</v>
+        <v>65144</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N10" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V10" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W10" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="B11">
-        <v>65144</v>
+        <v>65145</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V11" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="B12">
-        <v>65145</v>
+        <v>65146</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O12" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V12" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="B13">
-        <v>65146</v>
+        <v>65147</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V13" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="B14">
-        <v>65147</v>
+        <v>65148</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O14" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V14" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W14" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="B15">
-        <v>65148</v>
+        <v>65149</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O15" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V15" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W15" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="B16">
-        <v>65149</v>
+        <v>65150</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V16" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W16" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:23">
       <c r="B17">
-        <v>65150</v>
+        <v>65151</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N17" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V17" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W17" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:23">
       <c r="B18">
-        <v>65151</v>
+        <v>65152</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="N18" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V18" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W18" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:23">
       <c r="B19">
-        <v>65152</v>
+        <v>65153</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="N19" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O19" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V19" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W19" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:23">
       <c r="B20">
-        <v>65153</v>
+        <v>65154</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="N20" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V20" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W20" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:23">
       <c r="B21">
-        <v>65154</v>
+        <v>65155</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="N21" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O21" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V21" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W21" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:23">
       <c r="B22">
-        <v>65155</v>
+        <v>65156</v>
       </c>
       <c r="C22" t="s">
         <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N22" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V22" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W22" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:23">
       <c r="B23">
-        <v>65156</v>
+        <v>65157</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="N23" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O23" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V23" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W23" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:23">
       <c r="B24">
-        <v>65157</v>
+        <v>65158</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="N24" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O24" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V24" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W24" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:23">
       <c r="B25">
-        <v>65158</v>
+        <v>65159</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="N25" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O25" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="V25" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W25" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:23">
       <c r="B26">
-        <v>65159</v>
+        <v>65160</v>
       </c>
       <c r="C26" t="s">
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K26" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="N26" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O26" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="V26" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W26" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:23">
       <c r="B27">
-        <v>65160</v>
+        <v>65161</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N27" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O27" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="V27" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W27" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:23">
       <c r="B28">
-        <v>65161</v>
+        <v>65162</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O28" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="V28" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W28" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:23">
       <c r="B29">
-        <v>65162</v>
+        <v>65163</v>
       </c>
       <c r="C29" t="s">
         <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N29" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O29" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="V29" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W29" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:23">
       <c r="B30">
-        <v>65163</v>
+        <v>65164</v>
       </c>
       <c r="C30" t="s">
         <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N30" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O30" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="V30" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W30" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="2:23">
       <c r="B31">
-        <v>65164</v>
+        <v>65165</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="N31" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O31" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V31" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W31" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:23">
       <c r="B32">
-        <v>65165</v>
+        <v>65166</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="N32" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O32" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V32" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W32" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:23">
       <c r="B33">
-        <v>65166</v>
+        <v>65167</v>
       </c>
       <c r="C33" t="s">
         <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N33" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O33" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V33" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W33" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:23">
       <c r="B34">
-        <v>65167</v>
+        <v>65168</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N34" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O34" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V34" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W34" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:23">
       <c r="B35">
-        <v>65168</v>
+        <v>65169</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="N35" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O35" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V35" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W35" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:23">
       <c r="B36">
-        <v>65169</v>
+        <v>65170</v>
       </c>
       <c r="C36" t="s">
         <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="N36" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O36" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V36" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W36" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:23">
       <c r="B37">
-        <v>65170</v>
+        <v>65171</v>
       </c>
       <c r="C37" t="s">
         <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="N37" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O37" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V37" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W37" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:23">
       <c r="B38">
-        <v>65171</v>
+        <v>65172</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="N38" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O38" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V38" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W38" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="2:23">
       <c r="B39">
-        <v>65172</v>
+        <v>65173</v>
       </c>
       <c r="C39" t="s">
         <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K39" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="N39" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O39" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V39" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W39" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="2:23">
       <c r="B40">
-        <v>65173</v>
+        <v>65174</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K40" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="N40" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O40" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V40" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="W40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23">
-      <c r="B41">
-        <v>65174</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" t="s">
-        <v>129</v>
-      </c>
-      <c r="K41" t="s">
-        <v>131</v>
-      </c>
-      <c r="N41" t="s">
-        <v>132</v>
-      </c>
-      <c r="O41" t="s">
-        <v>134</v>
-      </c>
-      <c r="V41" t="s">
-        <v>136</v>
-      </c>
-      <c r="W41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23">
-      <c r="B42">
-        <v>65175</v>
-      </c>
-      <c r="C42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" t="s">
-        <v>129</v>
-      </c>
-      <c r="K42" t="s">
-        <v>131</v>
-      </c>
-      <c r="N42" t="s">
-        <v>132</v>
-      </c>
-      <c r="O42" t="s">
-        <v>134</v>
-      </c>
-      <c r="V42" t="s">
-        <v>136</v>
-      </c>
-      <c r="W42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23">
-      <c r="B43">
-        <v>65176</v>
-      </c>
-      <c r="C43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" t="s">
-        <v>129</v>
-      </c>
-      <c r="K43" t="s">
-        <v>130</v>
-      </c>
-      <c r="N43" t="s">
-        <v>132</v>
-      </c>
-      <c r="O43" t="s">
-        <v>134</v>
-      </c>
-      <c r="V43" t="s">
-        <v>136</v>
-      </c>
-      <c r="W43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23">
-      <c r="B44">
-        <v>65177</v>
-      </c>
-      <c r="C44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" t="s">
-        <v>129</v>
-      </c>
-      <c r="K44" t="s">
-        <v>131</v>
-      </c>
-      <c r="N44" t="s">
-        <v>132</v>
-      </c>
-      <c r="O44" t="s">
-        <v>134</v>
-      </c>
-      <c r="V44" t="s">
-        <v>136</v>
-      </c>
-      <c r="W44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23">
-      <c r="B45">
-        <v>65178</v>
-      </c>
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" t="s">
-        <v>129</v>
-      </c>
-      <c r="K45" t="s">
-        <v>130</v>
-      </c>
-      <c r="N45" t="s">
-        <v>132</v>
-      </c>
-      <c r="O45" t="s">
-        <v>134</v>
-      </c>
-      <c r="V45" t="s">
-        <v>136</v>
-      </c>
-      <c r="W45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23">
-      <c r="B46">
-        <v>65179</v>
-      </c>
-      <c r="C46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" t="s">
-        <v>129</v>
-      </c>
-      <c r="K46" t="s">
-        <v>130</v>
-      </c>
-      <c r="N46" t="s">
-        <v>132</v>
-      </c>
-      <c r="O46" t="s">
-        <v>134</v>
-      </c>
-      <c r="V46" t="s">
-        <v>136</v>
-      </c>
-      <c r="W46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23">
-      <c r="B47">
-        <v>65180</v>
-      </c>
-      <c r="C47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" t="s">
-        <v>129</v>
-      </c>
-      <c r="K47" t="s">
-        <v>131</v>
-      </c>
-      <c r="N47" t="s">
-        <v>132</v>
-      </c>
-      <c r="O47" t="s">
-        <v>134</v>
-      </c>
-      <c r="V47" t="s">
-        <v>136</v>
-      </c>
-      <c r="W47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23">
-      <c r="B48">
-        <v>65181</v>
-      </c>
-      <c r="C48" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" t="s">
-        <v>129</v>
-      </c>
-      <c r="K48" t="s">
-        <v>131</v>
-      </c>
-      <c r="N48" t="s">
-        <v>133</v>
-      </c>
-      <c r="O48" t="s">
-        <v>134</v>
-      </c>
-      <c r="V48" t="s">
-        <v>136</v>
-      </c>
-      <c r="W48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23">
-      <c r="B49">
-        <v>65182</v>
-      </c>
-      <c r="C49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" t="s">
-        <v>129</v>
-      </c>
-      <c r="K49" t="s">
-        <v>131</v>
-      </c>
-      <c r="N49" t="s">
-        <v>132</v>
-      </c>
-      <c r="O49" t="s">
-        <v>134</v>
-      </c>
-      <c r="V49" t="s">
-        <v>136</v>
-      </c>
-      <c r="W49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23">
-      <c r="B50">
-        <v>65183</v>
-      </c>
-      <c r="C50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" t="s">
-        <v>129</v>
-      </c>
-      <c r="K50" t="s">
-        <v>130</v>
-      </c>
-      <c r="N50" t="s">
-        <v>132</v>
-      </c>
-      <c r="O50" t="s">
-        <v>134</v>
-      </c>
-      <c r="V50" t="s">
-        <v>136</v>
-      </c>
-      <c r="W50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23">
-      <c r="B51">
-        <v>65184</v>
-      </c>
-      <c r="C51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" t="s">
-        <v>129</v>
-      </c>
-      <c r="K51" t="s">
-        <v>130</v>
-      </c>
-      <c r="N51" t="s">
-        <v>132</v>
-      </c>
-      <c r="O51" t="s">
-        <v>134</v>
-      </c>
-      <c r="V51" t="s">
-        <v>136</v>
-      </c>
-      <c r="W51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23">
-      <c r="B52">
-        <v>65185</v>
-      </c>
-      <c r="C52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" t="s">
-        <v>129</v>
-      </c>
-      <c r="K52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N52" t="s">
-        <v>133</v>
-      </c>
-      <c r="O52" t="s">
-        <v>135</v>
-      </c>
-      <c r="V52" t="s">
-        <v>136</v>
-      </c>
-      <c r="W52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23">
-      <c r="B53">
-        <v>65186</v>
-      </c>
-      <c r="C53" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" t="s">
-        <v>129</v>
-      </c>
-      <c r="K53" t="s">
-        <v>131</v>
-      </c>
-      <c r="N53" t="s">
-        <v>133</v>
-      </c>
-      <c r="O53" t="s">
-        <v>135</v>
-      </c>
-      <c r="V53" t="s">
-        <v>136</v>
-      </c>
-      <c r="W53" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>﻿tts_sysno</t>
   </si>
@@ -91,91 +91,28 @@
     <t>c_modified_date</t>
   </si>
   <si>
-    <t>守齋文集</t>
-  </si>
-  <si>
-    <t>蓄德錄</t>
-  </si>
-  <si>
-    <t>留都小稿</t>
-  </si>
-  <si>
-    <t>中都行稿</t>
-  </si>
-  <si>
-    <t>嶺南類稿</t>
-  </si>
-  <si>
-    <t>石泉稿</t>
-  </si>
-  <si>
-    <t>應言集</t>
-  </si>
-  <si>
-    <t>蘿山詩集</t>
-  </si>
-  <si>
-    <t>滇南雜錄</t>
-  </si>
-  <si>
-    <t>亦愚集</t>
-  </si>
-  <si>
-    <t>南隱錄</t>
-  </si>
-  <si>
-    <t>shou zhai wen ji</t>
-  </si>
-  <si>
-    <t>xu de lu</t>
-  </si>
-  <si>
-    <t>liu dou xiao gao</t>
-  </si>
-  <si>
-    <t>zhong dou xing gao</t>
-  </si>
-  <si>
-    <t>ling nan lei gao</t>
-  </si>
-  <si>
-    <t>shi quan gao</t>
-  </si>
-  <si>
-    <t>ying yan ji</t>
-  </si>
-  <si>
-    <t>luo shan shi ji</t>
-  </si>
-  <si>
-    <t>dian nan za lu</t>
-  </si>
-  <si>
-    <t>yi yu ji</t>
-  </si>
-  <si>
-    <t>nan yin lu</t>
+    <t>盧氏文獻</t>
+  </si>
+  <si>
+    <t>lu shi wen xian</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>57941</t>
+    <t>38440</t>
   </si>
   <si>
     <t>load</t>
   </si>
   <si>
-    <t>20230915</t>
+    <t>20231006</t>
   </si>
 </sst>
 </file>
@@ -533,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,321 +555,31 @@
     </row>
     <row r="2" spans="1:25">
       <c r="B2">
-        <v>65178</v>
+        <v>65191</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="B3">
-        <v>65179</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="B4">
-        <v>65180</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="V4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="B5">
-        <v>65181</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="B6">
-        <v>65182</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="B7">
-        <v>65183</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
-        <v>51</v>
-      </c>
-      <c r="V7" t="s">
-        <v>52</v>
-      </c>
-      <c r="W7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="B8">
-        <v>65184</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="B9">
-        <v>65185</v>
-      </c>
-      <c r="C9" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" t="s">
-        <v>51</v>
-      </c>
-      <c r="V9" t="s">
-        <v>52</v>
-      </c>
-      <c r="W9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="B10">
-        <v>65186</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" t="s">
-        <v>51</v>
-      </c>
-      <c r="V10" t="s">
-        <v>52</v>
-      </c>
-      <c r="W10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="B11">
-        <v>65187</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" t="s">
-        <v>51</v>
-      </c>
-      <c r="V11" t="s">
-        <v>52</v>
-      </c>
-      <c r="W11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="B12">
-        <v>65188</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" t="s">
-        <v>51</v>
-      </c>
-      <c r="V12" t="s">
-        <v>52</v>
-      </c>
-      <c r="W12" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -91,28 +91,28 @@
     <t>c_modified_date</t>
   </si>
   <si>
-    <t>盧氏文獻</t>
-  </si>
-  <si>
-    <t>lu shi wen xian</t>
+    <t>白雲集</t>
+  </si>
+  <si>
+    <t>bai yun ji</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>0</t>
+    <t>1</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>38440</t>
+    <t>65192</t>
   </si>
   <si>
     <t>load</t>
   </si>
   <si>
-    <t>20231006</t>
+    <t>20231118</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
     </row>
     <row r="2" spans="1:25">
       <c r="B2">
-        <v>65191</v>
+        <v>65195</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
   <si>
     <t>﻿tts_sysno</t>
   </si>
@@ -91,10 +91,142 @@
     <t>c_modified_date</t>
   </si>
   <si>
-    <t>白雲集</t>
-  </si>
-  <si>
-    <t>bai yun ji</t>
+    <t>問古節烈集</t>
+  </si>
+  <si>
+    <t>蘭臺疏稿</t>
+  </si>
+  <si>
+    <t>尚書約解秘旨</t>
+  </si>
+  <si>
+    <t>西清集: 二十一卷</t>
+  </si>
+  <si>
+    <t>管涔集: 五卷</t>
+  </si>
+  <si>
+    <t>疏草: 二十卷</t>
+  </si>
+  <si>
+    <t>楚邊圖說</t>
+  </si>
+  <si>
+    <t>全唐詩話: 六卷</t>
+  </si>
+  <si>
+    <t>皇明世說: 十卷</t>
+  </si>
+  <si>
+    <t>寒潯吟</t>
+  </si>
+  <si>
+    <t>星槎草</t>
+  </si>
+  <si>
+    <t>紀遊草</t>
+  </si>
+  <si>
+    <t>雪嘯軒集</t>
+  </si>
+  <si>
+    <t>聞見錄</t>
+  </si>
+  <si>
+    <t>雪巖集</t>
+  </si>
+  <si>
+    <t>鹽政通考</t>
+  </si>
+  <si>
+    <t>淮鹺本論</t>
+  </si>
+  <si>
+    <t>宿影亭集</t>
+  </si>
+  <si>
+    <t>青岑稿</t>
+  </si>
+  <si>
+    <t>聚星堂文稾</t>
+  </si>
+  <si>
+    <t>石川詩鈔</t>
+  </si>
+  <si>
+    <t>臺中疏草</t>
+  </si>
+  <si>
+    <t>適可軒詩</t>
+  </si>
+  <si>
+    <t>wen gu jie lie ji</t>
+  </si>
+  <si>
+    <t>lan tai shu gao</t>
+  </si>
+  <si>
+    <t>shang shu yue jie mi zhi</t>
+  </si>
+  <si>
+    <t>xi qing ji</t>
+  </si>
+  <si>
+    <t>guan cen ji</t>
+  </si>
+  <si>
+    <t>shu cao</t>
+  </si>
+  <si>
+    <t>chu bian tu shuo</t>
+  </si>
+  <si>
+    <t>quan tang shi hua</t>
+  </si>
+  <si>
+    <t>huang ming shi shuo</t>
+  </si>
+  <si>
+    <t>han xun yin</t>
+  </si>
+  <si>
+    <t>xing cha cao</t>
+  </si>
+  <si>
+    <t>ji you cao</t>
+  </si>
+  <si>
+    <t>xue xiao xuan ji</t>
+  </si>
+  <si>
+    <t>wen jian lu</t>
+  </si>
+  <si>
+    <t>xue yan ji</t>
+  </si>
+  <si>
+    <t>yan zheng tong kao</t>
+  </si>
+  <si>
+    <t>huai cuo ben lun</t>
+  </si>
+  <si>
+    <t>su ying ting ji</t>
+  </si>
+  <si>
+    <t>qing cen gao</t>
+  </si>
+  <si>
+    <t>ju xing tang wen gao</t>
+  </si>
+  <si>
+    <t>shi chuan shi chao</t>
+  </si>
+  <si>
+    <t>tai zhong shu cao</t>
+  </si>
+  <si>
+    <t>shi ke xuan shi</t>
   </si>
   <si>
     <t>01</t>
@@ -103,16 +235,22 @@
     <t>1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>65192</t>
   </si>
   <si>
     <t>load</t>
   </si>
   <si>
-    <t>20231118</t>
+    <t>20231208</t>
   </si>
 </sst>
 </file>
@@ -470,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,31 +693,669 @@
     </row>
     <row r="2" spans="1:25">
       <c r="B2">
-        <v>65195</v>
+        <v>65222</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="B3">
+        <v>65223</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="B4">
+        <v>65224</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="B5">
+        <v>65225</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="B6">
+        <v>65226</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="B7">
+        <v>65227</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="V2" t="s">
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="V7" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8">
+        <v>65228</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="W2" t="s">
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="B9">
+        <v>65229</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="B10">
+        <v>65230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="V10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11">
+        <v>65231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V11" t="s">
+        <v>77</v>
+      </c>
+      <c r="W11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="B12">
+        <v>65232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="B13">
+        <v>65233</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="B14">
+        <v>65234</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V14" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="B15">
+        <v>65235</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V15" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="B16">
+        <v>65236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s">
+        <v>77</v>
+      </c>
+      <c r="W16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17">
+        <v>65237</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18">
+        <v>65238</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" t="s">
+        <v>77</v>
+      </c>
+      <c r="W18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19">
+        <v>65239</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" t="s">
+        <v>77</v>
+      </c>
+      <c r="W19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20">
+        <v>65240</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21">
+        <v>65241</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21" t="s">
+        <v>77</v>
+      </c>
+      <c r="W21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22">
+        <v>65242</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="V22" t="s">
+        <v>77</v>
+      </c>
+      <c r="W22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23">
+        <v>65243</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" t="s">
+        <v>76</v>
+      </c>
+      <c r="V23" t="s">
+        <v>77</v>
+      </c>
+      <c r="W23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24">
+        <v>65244</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="V24" t="s">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>﻿tts_sysno</t>
   </si>
@@ -91,28 +91,37 @@
     <t>c_modified_date</t>
   </si>
   <si>
-    <t>依元軒詩集</t>
-  </si>
-  <si>
-    <t>yi yuan xuan shi ji</t>
+    <t>春秋正蒙註</t>
+  </si>
+  <si>
+    <t>詒書堂類稿</t>
+  </si>
+  <si>
+    <t>chun qiu zheng meng zhu</t>
+  </si>
+  <si>
+    <t>yi shu tang lei gao</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>65192</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2067</t>
   </si>
   <si>
     <t>load</t>
   </si>
   <si>
-    <t>20231215</t>
+    <t>20240111</t>
   </si>
 </sst>
 </file>
@@ -470,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,31 +564,60 @@
     </row>
     <row r="2" spans="1:25">
       <c r="B2">
-        <v>65247</v>
+        <v>65255</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="B3">
+        <v>65256</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="W2" t="s">
+      <c r="N3" t="s">
         <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>﻿tts_sysno</t>
   </si>
@@ -91,31 +91,40 @@
     <t>c_modified_date</t>
   </si>
   <si>
-    <t>春秋正蒙註</t>
-  </si>
-  <si>
-    <t>詒書堂類稿</t>
-  </si>
-  <si>
-    <t>chun qiu zheng meng zhu</t>
-  </si>
-  <si>
-    <t>yi shu tang lei gao</t>
+    <t>叩缶集</t>
+  </si>
+  <si>
+    <t>如愚集</t>
+  </si>
+  <si>
+    <t>霅溪唱和集一卷</t>
+  </si>
+  <si>
+    <t>kou fou ji</t>
+  </si>
+  <si>
+    <t>ru yu ji</t>
+  </si>
+  <si>
+    <t>zha xi chang he ji yi juan</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2067</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>38670</t>
   </si>
   <si>
     <t>load</t>
@@ -479,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,60 +573,89 @@
     </row>
     <row r="2" spans="1:25">
       <c r="B2">
-        <v>65255</v>
+        <v>65258</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="B3">
-        <v>65256</v>
+        <v>65259</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="B4">
+        <v>65260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="V3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="N4" t="s">
         <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="126">
   <si>
     <t>﻿tts_sysno</t>
   </si>
@@ -91,22 +91,286 @@
     <t>c_modified_date</t>
   </si>
   <si>
-    <t>叩缶集</t>
-  </si>
-  <si>
-    <t>如愚集</t>
-  </si>
-  <si>
-    <t>霅溪唱和集一卷</t>
-  </si>
-  <si>
-    <t>kou fou ji</t>
-  </si>
-  <si>
-    <t>ru yu ji</t>
-  </si>
-  <si>
-    <t>zha xi chang he ji yi juan</t>
+    <t>宛陵遊草</t>
+  </si>
+  <si>
+    <t>石村詩藁</t>
+  </si>
+  <si>
+    <t>石鼓硯齋文鈔: 二十卷</t>
+  </si>
+  <si>
+    <t>石鼓硯齋詩鈔: 三十二卷</t>
+  </si>
+  <si>
+    <t>直盧集: 八卷</t>
+  </si>
+  <si>
+    <t>石鼓硯齋試帖: 二卷</t>
+  </si>
+  <si>
+    <t>諸史提鉤</t>
+  </si>
+  <si>
+    <t>積石山房詩稿: 一卷</t>
+  </si>
+  <si>
+    <t>宦遊小草: 一卷</t>
+  </si>
+  <si>
+    <t>凝山詩稿: 三卷</t>
+  </si>
+  <si>
+    <t>蜀遊詩草</t>
+  </si>
+  <si>
+    <t>鄂不草堂集</t>
+  </si>
+  <si>
+    <t>通書志疑</t>
+  </si>
+  <si>
+    <t>蔗畦集詩稿</t>
+  </si>
+  <si>
+    <t>楮葉集</t>
+  </si>
+  <si>
+    <t>雲塘書屋抄存詩稿: 十五卷</t>
+  </si>
+  <si>
+    <t>雲塘書屋文集: 十二卷</t>
+  </si>
+  <si>
+    <t>代言存草: 二卷</t>
+  </si>
+  <si>
+    <t>毛詩註疏擥要: 一卷</t>
+  </si>
+  <si>
+    <t>詩解錄: 一卷</t>
+  </si>
+  <si>
+    <t>詩解辨: 一卷</t>
+  </si>
+  <si>
+    <t>廉吏錄: 十卷</t>
+  </si>
+  <si>
+    <t>廉士錄: 二卷</t>
+  </si>
+  <si>
+    <t>唐詩品: 八十五卷</t>
+  </si>
+  <si>
+    <t>賦選: 三十卷</t>
+  </si>
+  <si>
+    <t>如鳥數飛齋漫錄: 十六卷</t>
+  </si>
+  <si>
+    <t>綸閣延輝集</t>
+  </si>
+  <si>
+    <t>話雲軒詠史詩</t>
+  </si>
+  <si>
+    <t>西臺奏議</t>
+  </si>
+  <si>
+    <t>古今體詩</t>
+  </si>
+  <si>
+    <t>養雲山館雜著</t>
+  </si>
+  <si>
+    <t>寸草軒稾</t>
+  </si>
+  <si>
+    <t>草心閣詩</t>
+  </si>
+  <si>
+    <t>味陶軒集</t>
+  </si>
+  <si>
+    <t>易象圖說</t>
+  </si>
+  <si>
+    <t>史記引經徵</t>
+  </si>
+  <si>
+    <t>新安吳氏詩文存</t>
+  </si>
+  <si>
+    <t>吳氏藝文志略</t>
+  </si>
+  <si>
+    <t>文章軌範集</t>
+  </si>
+  <si>
+    <t>評人鑑</t>
+  </si>
+  <si>
+    <t>蜀抱軒文鈔</t>
+  </si>
+  <si>
+    <t>紫雲山房詩詞稾</t>
+  </si>
+  <si>
+    <t>喉科秘鑰</t>
+  </si>
+  <si>
+    <t>白腐辨症</t>
+  </si>
+  <si>
+    <t>活幼珠璣</t>
+  </si>
+  <si>
+    <t>文衡山年譜</t>
+  </si>
+  <si>
+    <t>桃花潭館詩存</t>
+  </si>
+  <si>
+    <t>wan ling you cao</t>
+  </si>
+  <si>
+    <t>shi cun shi gao</t>
+  </si>
+  <si>
+    <t>shi gu yan zhai wen chao</t>
+  </si>
+  <si>
+    <t>shi gu yan zhai shi chao</t>
+  </si>
+  <si>
+    <t>zhi lu ji</t>
+  </si>
+  <si>
+    <t>shi gu yan zhai shi tie</t>
+  </si>
+  <si>
+    <t>zhu shi ti gou</t>
+  </si>
+  <si>
+    <t>ji shi shan fang shi gao</t>
+  </si>
+  <si>
+    <t>huan you xiao cao</t>
+  </si>
+  <si>
+    <t>ning shan shi gao</t>
+  </si>
+  <si>
+    <t>shu you shi cao</t>
+  </si>
+  <si>
+    <t>e bu cao tang ji</t>
+  </si>
+  <si>
+    <t>tong shu zhi yi</t>
+  </si>
+  <si>
+    <t>zhe qi ji shi gao</t>
+  </si>
+  <si>
+    <t>chu ye ji</t>
+  </si>
+  <si>
+    <t>yun tang shu wu chao cun shi gao</t>
+  </si>
+  <si>
+    <t>yun tang shu wu wen ji</t>
+  </si>
+  <si>
+    <t>dai yan cun cao</t>
+  </si>
+  <si>
+    <t>mao shi zhu shu lan yao</t>
+  </si>
+  <si>
+    <t>shi jie lu</t>
+  </si>
+  <si>
+    <t>shi jie bian</t>
+  </si>
+  <si>
+    <t>lian li lu</t>
+  </si>
+  <si>
+    <t>lian shi lu</t>
+  </si>
+  <si>
+    <t>tang shi pin</t>
+  </si>
+  <si>
+    <t>fu xuan</t>
+  </si>
+  <si>
+    <t>ru niao shu fei zhai man lu</t>
+  </si>
+  <si>
+    <t>lun ge yan hui ji</t>
+  </si>
+  <si>
+    <t>hua yun xuan yong shi shi</t>
+  </si>
+  <si>
+    <t>xi tai zou yi</t>
+  </si>
+  <si>
+    <t>gu jin ti shi</t>
+  </si>
+  <si>
+    <t>yang yun shan guan za zhu</t>
+  </si>
+  <si>
+    <t>cun cao xuan gao</t>
+  </si>
+  <si>
+    <t>cao xin ge shi</t>
+  </si>
+  <si>
+    <t>wei tao xuan ji</t>
+  </si>
+  <si>
+    <t>yi xiang tu shuo</t>
+  </si>
+  <si>
+    <t>shi ji yin jing zheng</t>
+  </si>
+  <si>
+    <t>xin an wu shi shi wen cun</t>
+  </si>
+  <si>
+    <t>wu shi yi wen zhi lve</t>
+  </si>
+  <si>
+    <t>wen zhang gui fan ji</t>
+  </si>
+  <si>
+    <t>ping ren jian</t>
+  </si>
+  <si>
+    <t>shu bao xuan wen chao</t>
+  </si>
+  <si>
+    <t>zi yun shan fang shi ci gao</t>
+  </si>
+  <si>
+    <t>hou ke mi yao</t>
+  </si>
+  <si>
+    <t>bai fu bian zheng</t>
+  </si>
+  <si>
+    <t>huo you zhu ji</t>
+  </si>
+  <si>
+    <t>wen heng shan nian pu</t>
+  </si>
+  <si>
+    <t>tao hua tan guan shi cun</t>
   </si>
   <si>
     <t>01</t>
@@ -121,16 +385,13 @@
     <t>20</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>38670</t>
+    <t>65192</t>
   </si>
   <si>
     <t>load</t>
   </si>
   <si>
-    <t>20240111</t>
+    <t>20240224</t>
   </si>
 </sst>
 </file>
@@ -488,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,89 +834,1365 @@
     </row>
     <row r="2" spans="1:25">
       <c r="B2">
-        <v>65258</v>
+        <v>66565</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="B3">
-        <v>65259</v>
+        <v>66566</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="W3" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="B4">
-        <v>65260</v>
+        <v>66567</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V4" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="B5">
+        <v>66568</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" t="s">
+        <v>123</v>
+      </c>
+      <c r="V5" t="s">
+        <v>124</v>
+      </c>
+      <c r="W5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="B6">
+        <v>66569</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" t="s">
+        <v>123</v>
+      </c>
+      <c r="V6" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="B7">
+        <v>66570</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" t="s">
+        <v>123</v>
+      </c>
+      <c r="V7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8">
+        <v>66571</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="K4" t="s">
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" t="s">
+        <v>123</v>
+      </c>
+      <c r="V8" t="s">
+        <v>124</v>
+      </c>
+      <c r="W8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="B9">
+        <v>66572</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" t="s">
+        <v>123</v>
+      </c>
+      <c r="V9" t="s">
+        <v>124</v>
+      </c>
+      <c r="W9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="B10">
+        <v>66573</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="N4" t="s">
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>123</v>
+      </c>
+      <c r="V10" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11">
+        <v>66574</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>123</v>
+      </c>
+      <c r="V11" t="s">
+        <v>124</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="B12">
+        <v>66575</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="O4" t="s">
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>123</v>
+      </c>
+      <c r="V12" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="B13">
+        <v>66576</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="V4" t="s">
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>123</v>
+      </c>
+      <c r="V13" t="s">
+        <v>124</v>
+      </c>
+      <c r="W13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="B14">
+        <v>66577</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="W4" t="s">
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>123</v>
+      </c>
+      <c r="V14" t="s">
+        <v>124</v>
+      </c>
+      <c r="W14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="B15">
+        <v>66578</v>
+      </c>
+      <c r="C15" t="s">
         <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>123</v>
+      </c>
+      <c r="V15" t="s">
+        <v>124</v>
+      </c>
+      <c r="W15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="B16">
+        <v>66579</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" t="s">
+        <v>123</v>
+      </c>
+      <c r="V16" t="s">
+        <v>124</v>
+      </c>
+      <c r="W16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17">
+        <v>66580</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" t="s">
+        <v>123</v>
+      </c>
+      <c r="V17" t="s">
+        <v>124</v>
+      </c>
+      <c r="W17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18">
+        <v>66581</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" t="s">
+        <v>123</v>
+      </c>
+      <c r="V18" t="s">
+        <v>124</v>
+      </c>
+      <c r="W18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19">
+        <v>66582</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19" t="s">
+        <v>123</v>
+      </c>
+      <c r="V19" t="s">
+        <v>124</v>
+      </c>
+      <c r="W19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20">
+        <v>66583</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" t="s">
+        <v>123</v>
+      </c>
+      <c r="V20" t="s">
+        <v>124</v>
+      </c>
+      <c r="W20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21">
+        <v>66584</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" t="s">
+        <v>122</v>
+      </c>
+      <c r="O21" t="s">
+        <v>123</v>
+      </c>
+      <c r="V21" t="s">
+        <v>124</v>
+      </c>
+      <c r="W21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22">
+        <v>66585</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" t="s">
+        <v>123</v>
+      </c>
+      <c r="V22" t="s">
+        <v>124</v>
+      </c>
+      <c r="W22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23">
+        <v>66586</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O23" t="s">
+        <v>123</v>
+      </c>
+      <c r="V23" t="s">
+        <v>124</v>
+      </c>
+      <c r="W23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24">
+        <v>66587</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N24" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" t="s">
+        <v>123</v>
+      </c>
+      <c r="V24" t="s">
+        <v>124</v>
+      </c>
+      <c r="W24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25">
+        <v>66588</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" t="s">
+        <v>121</v>
+      </c>
+      <c r="N25" t="s">
+        <v>122</v>
+      </c>
+      <c r="O25" t="s">
+        <v>123</v>
+      </c>
+      <c r="V25" t="s">
+        <v>124</v>
+      </c>
+      <c r="W25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26">
+        <v>66589</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" t="s">
+        <v>123</v>
+      </c>
+      <c r="V26" t="s">
+        <v>124</v>
+      </c>
+      <c r="W26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27">
+        <v>66590</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K27" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" t="s">
+        <v>122</v>
+      </c>
+      <c r="O27" t="s">
+        <v>123</v>
+      </c>
+      <c r="V27" t="s">
+        <v>124</v>
+      </c>
+      <c r="W27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28">
+        <v>66591</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" t="s">
+        <v>122</v>
+      </c>
+      <c r="O28" t="s">
+        <v>123</v>
+      </c>
+      <c r="V28" t="s">
+        <v>124</v>
+      </c>
+      <c r="W28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="B29">
+        <v>66592</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" t="s">
+        <v>121</v>
+      </c>
+      <c r="N29" t="s">
+        <v>122</v>
+      </c>
+      <c r="O29" t="s">
+        <v>123</v>
+      </c>
+      <c r="V29" t="s">
+        <v>124</v>
+      </c>
+      <c r="W29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23">
+      <c r="B30">
+        <v>66593</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" t="s">
+        <v>122</v>
+      </c>
+      <c r="O30" t="s">
+        <v>123</v>
+      </c>
+      <c r="V30" t="s">
+        <v>124</v>
+      </c>
+      <c r="W30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23">
+      <c r="B31">
+        <v>66594</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+      <c r="K31" t="s">
+        <v>121</v>
+      </c>
+      <c r="N31" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31" t="s">
+        <v>123</v>
+      </c>
+      <c r="V31" t="s">
+        <v>124</v>
+      </c>
+      <c r="W31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="B32">
+        <v>66595</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" t="s">
+        <v>119</v>
+      </c>
+      <c r="K32" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" t="s">
+        <v>123</v>
+      </c>
+      <c r="V32" t="s">
+        <v>124</v>
+      </c>
+      <c r="W32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23">
+      <c r="B33">
+        <v>66596</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
+      </c>
+      <c r="K33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" t="s">
+        <v>122</v>
+      </c>
+      <c r="O33" t="s">
+        <v>123</v>
+      </c>
+      <c r="V33" t="s">
+        <v>124</v>
+      </c>
+      <c r="W33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23">
+      <c r="B34">
+        <v>66597</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" t="s">
+        <v>122</v>
+      </c>
+      <c r="O34" t="s">
+        <v>123</v>
+      </c>
+      <c r="V34" t="s">
+        <v>124</v>
+      </c>
+      <c r="W34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23">
+      <c r="B35">
+        <v>66598</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
+        <v>119</v>
+      </c>
+      <c r="K35" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" t="s">
+        <v>122</v>
+      </c>
+      <c r="O35" t="s">
+        <v>123</v>
+      </c>
+      <c r="V35" t="s">
+        <v>124</v>
+      </c>
+      <c r="W35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="B36">
+        <v>66599</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" t="s">
+        <v>119</v>
+      </c>
+      <c r="K36" t="s">
+        <v>121</v>
+      </c>
+      <c r="N36" t="s">
+        <v>122</v>
+      </c>
+      <c r="O36" t="s">
+        <v>123</v>
+      </c>
+      <c r="V36" t="s">
+        <v>124</v>
+      </c>
+      <c r="W36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23">
+      <c r="B37">
+        <v>66600</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" t="s">
+        <v>121</v>
+      </c>
+      <c r="N37" t="s">
+        <v>122</v>
+      </c>
+      <c r="O37" t="s">
+        <v>123</v>
+      </c>
+      <c r="V37" t="s">
+        <v>124</v>
+      </c>
+      <c r="W37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="B38">
+        <v>66601</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" t="s">
+        <v>121</v>
+      </c>
+      <c r="N38" t="s">
+        <v>122</v>
+      </c>
+      <c r="O38" t="s">
+        <v>123</v>
+      </c>
+      <c r="V38" t="s">
+        <v>124</v>
+      </c>
+      <c r="W38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="B39">
+        <v>66602</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39" t="s">
+        <v>121</v>
+      </c>
+      <c r="N39" t="s">
+        <v>122</v>
+      </c>
+      <c r="O39" t="s">
+        <v>123</v>
+      </c>
+      <c r="V39" t="s">
+        <v>124</v>
+      </c>
+      <c r="W39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23">
+      <c r="B40">
+        <v>66603</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+      <c r="K40" t="s">
+        <v>120</v>
+      </c>
+      <c r="N40" t="s">
+        <v>122</v>
+      </c>
+      <c r="O40" t="s">
+        <v>123</v>
+      </c>
+      <c r="V40" t="s">
+        <v>124</v>
+      </c>
+      <c r="W40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="B41">
+        <v>66604</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K41" t="s">
+        <v>121</v>
+      </c>
+      <c r="N41" t="s">
+        <v>122</v>
+      </c>
+      <c r="O41" t="s">
+        <v>123</v>
+      </c>
+      <c r="V41" t="s">
+        <v>124</v>
+      </c>
+      <c r="W41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="B42">
+        <v>66605</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="K42" t="s">
+        <v>121</v>
+      </c>
+      <c r="N42" t="s">
+        <v>122</v>
+      </c>
+      <c r="O42" t="s">
+        <v>123</v>
+      </c>
+      <c r="V42" t="s">
+        <v>124</v>
+      </c>
+      <c r="W42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="B43">
+        <v>66606</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" t="s">
+        <v>119</v>
+      </c>
+      <c r="K43" t="s">
+        <v>121</v>
+      </c>
+      <c r="N43" t="s">
+        <v>122</v>
+      </c>
+      <c r="O43" t="s">
+        <v>123</v>
+      </c>
+      <c r="V43" t="s">
+        <v>124</v>
+      </c>
+      <c r="W43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="B44">
+        <v>66607</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44" t="s">
+        <v>122</v>
+      </c>
+      <c r="O44" t="s">
+        <v>123</v>
+      </c>
+      <c r="V44" t="s">
+        <v>124</v>
+      </c>
+      <c r="W44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23">
+      <c r="B45">
+        <v>66608</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" t="s">
+        <v>122</v>
+      </c>
+      <c r="O45" t="s">
+        <v>123</v>
+      </c>
+      <c r="V45" t="s">
+        <v>124</v>
+      </c>
+      <c r="W45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="B46">
+        <v>66609</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K46" t="s">
+        <v>121</v>
+      </c>
+      <c r="N46" t="s">
+        <v>122</v>
+      </c>
+      <c r="O46" t="s">
+        <v>123</v>
+      </c>
+      <c r="V46" t="s">
+        <v>124</v>
+      </c>
+      <c r="W46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23">
+      <c r="B47">
+        <v>66610</v>
+      </c>
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
+      <c r="K47" t="s">
+        <v>121</v>
+      </c>
+      <c r="N47" t="s">
+        <v>122</v>
+      </c>
+      <c r="O47" t="s">
+        <v>123</v>
+      </c>
+      <c r="V47" t="s">
+        <v>124</v>
+      </c>
+      <c r="W47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="B48">
+        <v>66611</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" t="s">
+        <v>121</v>
+      </c>
+      <c r="N48" t="s">
+        <v>122</v>
+      </c>
+      <c r="O48" t="s">
+        <v>123</v>
+      </c>
+      <c r="V48" t="s">
+        <v>124</v>
+      </c>
+      <c r="W48" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
-  <si>
-    <t>﻿tts_sysno</t>
-  </si>
-  <si>
-    <t>c_textid</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="83">
+  <si>
+    <t>﻿c_textid</t>
   </si>
   <si>
     <t>c_title_chn</t>
@@ -91,16 +88,160 @@
     <t>c_modified_date</t>
   </si>
   <si>
-    <t>抱山吟</t>
-  </si>
-  <si>
-    <t>碧雨山房詩抄</t>
-  </si>
-  <si>
-    <t>bao shan yin</t>
-  </si>
-  <si>
-    <t>bi yu shan fang shi chao</t>
+    <t>易贅</t>
+  </si>
+  <si>
+    <t>葛巾子內外集</t>
+  </si>
+  <si>
+    <t>鴻逸堂稿</t>
+  </si>
+  <si>
+    <t>河務心書</t>
+  </si>
+  <si>
+    <t>新安女行錄: 二十卷</t>
+  </si>
+  <si>
+    <t>傷寒問答</t>
+  </si>
+  <si>
+    <t>慈幼筏</t>
+  </si>
+  <si>
+    <t>孝經類解</t>
+  </si>
+  <si>
+    <t>桂留堂集</t>
+  </si>
+  <si>
+    <t>笠蔭樓詩集</t>
+  </si>
+  <si>
+    <t>宦遊集</t>
+  </si>
+  <si>
+    <t>黃山遊記</t>
+  </si>
+  <si>
+    <t>學庸廣義</t>
+  </si>
+  <si>
+    <t>讀經疑義</t>
+  </si>
+  <si>
+    <t>卣堂集</t>
+  </si>
+  <si>
+    <t>潛山集</t>
+  </si>
+  <si>
+    <t>修吉堂詩文集</t>
+  </si>
+  <si>
+    <t>律呂攷說篆</t>
+  </si>
+  <si>
+    <t>禹貢彙註</t>
+  </si>
+  <si>
+    <t>四書說義</t>
+  </si>
+  <si>
+    <t>讀經筆記</t>
+  </si>
+  <si>
+    <t>離騷補註</t>
+  </si>
+  <si>
+    <t>文矩時藝</t>
+  </si>
+  <si>
+    <t>古文蔚華堂稿</t>
+  </si>
+  <si>
+    <t>漪嵐草閣詩</t>
+  </si>
+  <si>
+    <t>蒼崖小集</t>
+  </si>
+  <si>
+    <t>yi zhui</t>
+  </si>
+  <si>
+    <t>ge jin zi nei wai ji</t>
+  </si>
+  <si>
+    <t>hong yi tang gao</t>
+  </si>
+  <si>
+    <t>he wu xin shu</t>
+  </si>
+  <si>
+    <t>xin an nv xing lu</t>
+  </si>
+  <si>
+    <t>shang han wen da</t>
+  </si>
+  <si>
+    <t>ci you fa</t>
+  </si>
+  <si>
+    <t>xiao jing lei jie</t>
+  </si>
+  <si>
+    <t>gui liu tang ji</t>
+  </si>
+  <si>
+    <t>li yin lou shi ji</t>
+  </si>
+  <si>
+    <t>huan you ji</t>
+  </si>
+  <si>
+    <t>huang shan you ji</t>
+  </si>
+  <si>
+    <t>xue yong guang yi</t>
+  </si>
+  <si>
+    <t>du jing yi yi</t>
+  </si>
+  <si>
+    <t>you tang ji</t>
+  </si>
+  <si>
+    <t>qian shan ji</t>
+  </si>
+  <si>
+    <t>xiu ji tang shi wen ji</t>
+  </si>
+  <si>
+    <t>lv lv kao shuo zhuan</t>
+  </si>
+  <si>
+    <t>yu gong hui zhu</t>
+  </si>
+  <si>
+    <t>si shu shuo yi</t>
+  </si>
+  <si>
+    <t>du jing bi ji</t>
+  </si>
+  <si>
+    <t>li sao bu zhu</t>
+  </si>
+  <si>
+    <t>wen ju shi yi</t>
+  </si>
+  <si>
+    <t>gu wen wei hua tang gao</t>
+  </si>
+  <si>
+    <t>yi lan cao ge shi</t>
+  </si>
+  <si>
+    <t>cang ya xiao ji</t>
   </si>
   <si>
     <t>01</t>
@@ -109,6 +250,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -118,7 +262,7 @@
     <t>load</t>
   </si>
   <si>
-    <t>20240322</t>
+    <t>20240329</t>
   </si>
 </sst>
 </file>
@@ -476,13 +620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,66 +699,759 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2">
+        <v>66678</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="B2">
-        <v>66673</v>
-      </c>
       <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>66679</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>66680</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>66681</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>66682</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>66683</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>66684</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>66685</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>66686</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="V2" t="s">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>66687</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="W2" t="s">
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>66688</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="B3">
-        <v>66674</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" t="s">
-        <v>34</v>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T12" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
+        <v>66689</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>66690</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" t="s">
+        <v>81</v>
+      </c>
+      <c r="U14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>66691</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" t="s">
+        <v>81</v>
+      </c>
+      <c r="U15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>66692</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="T16" t="s">
+        <v>81</v>
+      </c>
+      <c r="U16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <v>66693</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="T17" t="s">
+        <v>81</v>
+      </c>
+      <c r="U17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18">
+        <v>66694</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" t="s">
+        <v>80</v>
+      </c>
+      <c r="T18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19">
+        <v>66695</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+      <c r="T19" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20">
+        <v>66696</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s">
+        <v>81</v>
+      </c>
+      <c r="U20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21">
+        <v>66697</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="T21" t="s">
+        <v>81</v>
+      </c>
+      <c r="U21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22">
+        <v>66698</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" t="s">
+        <v>80</v>
+      </c>
+      <c r="T22" t="s">
+        <v>81</v>
+      </c>
+      <c r="U22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23">
+        <v>66699</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" t="s">
+        <v>81</v>
+      </c>
+      <c r="U23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24">
+        <v>66700</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
+      </c>
+      <c r="T24" t="s">
+        <v>81</v>
+      </c>
+      <c r="U24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25">
+        <v>66701</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="T25" t="s">
+        <v>81</v>
+      </c>
+      <c r="U25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26">
+        <v>66702</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+      <c r="T26" t="s">
+        <v>81</v>
+      </c>
+      <c r="U26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27">
+        <v>66703</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+      <c r="T27" t="s">
+        <v>81</v>
+      </c>
+      <c r="U27" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>﻿c_textid</t>
   </si>
@@ -88,25 +88,28 @@
     <t>c_modified_date</t>
   </si>
   <si>
-    <t>新安文獻志</t>
-  </si>
-  <si>
-    <t>xin an wen xian zhi</t>
+    <t>怡怡堂詩文集</t>
+  </si>
+  <si>
+    <t>yi yi tang shi wen ji</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>65192</t>
   </si>
   <si>
     <t>load</t>
   </si>
   <si>
-    <t>20240420</t>
+    <t>20240503</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>66765</v>
+        <v>66767</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -564,13 +567,13 @@
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,141 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>﻿c_textid</t>
-  </si>
-  <si>
-    <t>c_title_chn</t>
-  </si>
-  <si>
-    <t>c_title</t>
-  </si>
-  <si>
-    <t>c_title_trans</t>
-  </si>
-  <si>
-    <t>c_text_type_id</t>
-  </si>
-  <si>
-    <t>c_text_year</t>
-  </si>
-  <si>
-    <t>c_text_nh_code</t>
-  </si>
-  <si>
-    <t>c_text_nh_year</t>
-  </si>
-  <si>
-    <t>c_text_range_code</t>
-  </si>
-  <si>
-    <t>c_bibl_cat_code</t>
-  </si>
-  <si>
-    <t>c_extant</t>
-  </si>
-  <si>
-    <t>c_text_country</t>
-  </si>
-  <si>
-    <t>c_text_dy</t>
-  </si>
-  <si>
-    <t>c_source</t>
-  </si>
-  <si>
-    <t>c_pages</t>
-  </si>
-  <si>
-    <t>c_secondary_source_author</t>
-  </si>
-  <si>
-    <t>c_url_api</t>
-  </si>
-  <si>
-    <t>c_url_homepage</t>
-  </si>
-  <si>
-    <t>c_notes</t>
-  </si>
-  <si>
-    <t>c_title_alt_chn</t>
-  </si>
-  <si>
-    <t>c_created_by</t>
-  </si>
-  <si>
-    <t>c_created_date</t>
-  </si>
-  <si>
-    <t>c_modified_by</t>
-  </si>
-  <si>
-    <t>c_modified_date</t>
-  </si>
-  <si>
-    <t>怡怡堂詩文集</t>
-  </si>
-  <si>
-    <t>yi yi tang shi wen ji</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>65192</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>20240503</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,117 +420,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>﻿c_textid</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>c_title_chn</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c_title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c_title_trans</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>c_text_type_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>c_text_year</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>c_text_nh_code</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>c_text_nh_year</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>c_text_range_code</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>c_bibl_cat_code</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>c_extant</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>c_text_country</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>c_text_dy</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>c_source</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>c_pages</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>c_secondary_source_author</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>c_url_api</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>c_url_homepage</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>c_notes</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>c_title_alt_chn</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>c_created_by</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>c_created_date</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>c_modified_by</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>c_modified_date</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2">
-        <v>66767</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66998</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>鷺門判牘: 一卷</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>lu men pan du</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>20240531</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66998</v>
+        <v>67004</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>鷺門判牘: 一卷</t>
+          <t>遺安堂詩集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lu men pan du</t>
+          <t>yi an tang shi ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>38881</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,12 +608,72 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20240531</t>
+          <t>20240607</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>67005</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>奏疏: 二卷</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>zou shu</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>38881</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>20240607</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67004</v>
+        <v>67009</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>遺安堂詩集</t>
+          <t>四鎮三關志校注</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>yi an tang shi ji</t>
+          <t>si zhen san guan zhi jiao zhu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,19 +581,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>38881</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20240607</t>
+          <t>20240703</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67005</v>
+        <v>67010</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>奏疏: 二卷</t>
+          <t>林居漫錄</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>zou shu</t>
+          <t>lin ju man lu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>38881</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,12 +668,252 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20240607</t>
+          <t>20240703</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>67011</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>彈園雜志</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>dan yuan za zhi</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>20240703</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>67012</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>縉山草堂制藝試帖</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jin shan cao tang zhi yi shi tie</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>38440</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>20240703</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>67013</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>師卜卦: 一卷</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>shi bu gua</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>67007</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>20240703</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>67014</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>竹林集</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>zhu lin ji</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>67007</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>20240703</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67131</v>
+        <v>67149</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南遊集</t>
+          <t>兩間集: 二卷</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nan you ji</t>
+          <t>liang jian ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -588,12 +588,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,12 +608,672 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20240726</t>
+          <t>20240816</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>67150</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>西疇詩抄: 四卷</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>xi chou shi chao</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>20240816</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>67151</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>新安竹枝詞: 一卷</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>xin an zhu zhi ci</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>20240816</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>67152</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>瓶城詩集</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ping cheng shi ji</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>20240816</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>67153</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>黃山紀遊</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>huang shan ji you</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>20240816</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>67154</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>農里禮要</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>nong li li yao</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>20240816</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>67155</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>拾餘集</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>shi yu ji</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>20240816</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>67156</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>率真草堂文集</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>shuai zhen cao tang wen ji</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>20240816</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>67157</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>借園詩草</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>jie yuan shi cao</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>20240816</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>67158</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>隨月讀書樓詩集</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sui yue du shu lou shi ji</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>20240816</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>67159</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>黃海遊錄</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>huang hai you lu</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20240816</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>67160</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>何山集</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>he shan ji</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>67007</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20240816</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67149</v>
+        <v>67171</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>兩間集: 二卷</t>
+          <t>秘冊彙函</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>liang jian ji</t>
+          <t>mi ce hui han</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,19 +581,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>67007</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20240816</t>
+          <t>20240830</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67150</v>
+        <v>67172</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>西疇詩抄: 四卷</t>
+          <t>雙清集</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>xi chou shi chao</t>
+          <t>shuang qing ji</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,19 +641,19 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20240816</t>
+          <t>20240830</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67151</v>
+        <v>67173</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>新安竹枝詞: 一卷</t>
+          <t>律解辯疑</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>xin an zhu zhi ci</t>
+          <t>lv jie bian yi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -708,12 +708,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,552 +728,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20240816</t>
+          <t>20240830</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>67152</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>瓶城詩集</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ping cheng shi ji</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>20240816</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>67153</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>黃山紀遊</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>huang shan ji you</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>20240816</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>67154</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>農里禮要</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>nong li li yao</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>20240816</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>67155</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>拾餘集</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>shi yu ji</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>20240816</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>67156</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>率真草堂文集</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>shuai zhen cao tang wen ji</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>20240816</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>67157</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>借園詩草</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>jie yuan shi cao</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>20240816</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>67158</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>隨月讀書樓詩集</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sui yue du shu lou shi ji</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>20240816</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>67159</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>黃海遊錄</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>huang hai you lu</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>20240816</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>67160</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>何山集</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>he shan ji</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>67007</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>20240816</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67171</v>
+        <v>67177</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>秘冊彙函</t>
+          <t>遺安集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mi ce hui han</t>
+          <t>yi an ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,132 +608,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20240830</t>
+          <t>20240913</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>67172</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>雙清集</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>shuang qing ji</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2067</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>20240830</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>67173</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>律解辯疑</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>lv jie bian yi</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2067</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>20240830</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67177</v>
+        <v>67180</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>遺安集</t>
+          <t>續上海志</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>yi an ji</t>
+          <t>xu shang hai zhi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,19 +581,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,12 +608,1092 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20240913</t>
+          <t>20240920</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>67181</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>日躔曆指: 一卷</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ri chan li zhi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2186</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>67182</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>測天約說: 二卷</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ce tian yue shuo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2186</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>67183</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>大測: 二卷</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>da ce</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2186</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>67184</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>日躔表: 二卷</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ri chan biao</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2186</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>67185</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>割圜八線表: 六卷</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ge huan ba xian biao</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2186</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>67186</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>黃道升度: 七卷</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>huang dao sheng du</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2186</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>67187</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>黃赤距度表: 一卷</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>huang chi ju du biao</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2186</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>67188</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>通率表: 一卷</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>tong lv biao</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2186</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>67189</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>農書暦指</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>nong shu li zhi</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>67190</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>漕河議</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>cao he yi</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>67191</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>兵事巵言</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bing shi zhi yan</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>67192</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>學一齋集</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>xue yi zhai ji</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>67007</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>67193</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>宗一聖論</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>zong yi sheng lun</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>67007</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>67194</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>詩經正義: 二十七卷</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>shi jing zheng yi</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>67195</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>兩浙長蘆事宜</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>liang zhe zhang lu shi yi</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>67196</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>北關考</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bei guan kao</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>67197</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>丈量尺</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>zhang liang chi</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>67198</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>王程集: 二卷</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>wang cheng ji</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>67007</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67180</v>
+        <v>67201</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>續上海志</t>
+          <t>總艸: 一卷</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>xu shang hai zhi</t>
+          <t>zong cao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -588,12 +588,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>67007</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20240920</t>
+          <t>20240927</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67181</v>
+        <v>67202</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>日躔曆指: 一卷</t>
+          <t>廣陵懷古: 一卷</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ri chan li zhi</t>
+          <t>guang ling huai gu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>67007</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20240920</t>
+          <t>20240927</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67182</v>
+        <v>67203</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>測天約說: 二卷</t>
+          <t>四書述說</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ce tian yue shuo</t>
+          <t>si shu shu shuo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20240920</t>
+          <t>20240927</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67183</v>
+        <v>67204</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>大測: 二卷</t>
+          <t>天眞師說</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>da ce</t>
+          <t>tian zhen shi shuo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20240920</t>
+          <t>20240927</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67184</v>
+        <v>67205</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>日躔表: 二卷</t>
+          <t>性鑑蒙求</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ri chan biao</t>
+          <t>xing jian meng qiu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20240920</t>
+          <t>20240927</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67185</v>
+        <v>67206</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>割圜八線表: 六卷</t>
+          <t>吹劍稿: 二卷</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ge huan ba xian biao</t>
+          <t>chui jian gao</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,7 +881,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>67007</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20240920</t>
+          <t>20240927</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67186</v>
+        <v>67207</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>黃道升度: 七卷</t>
+          <t>覺非齋詩</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>huang dao sheng du</t>
+          <t>jue fei zhai shi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>67007</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20240920</t>
+          <t>20240927</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67187</v>
+        <v>67208</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>黃赤距度表: 一卷</t>
+          <t>胐明章</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>huang chi ju du biao</t>
+          <t>fei ming zhang</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>67007</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20240920</t>
+          <t>20240927</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67188</v>
+        <v>67209</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>通率表: 一卷</t>
+          <t>性理集要</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>tong lv biao</t>
+          <t>xing li ji yao</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,612 +1088,12 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20240920</t>
+          <t>20240927</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>67189</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>農書暦指</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>nong shu li zhi</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2067</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>20240920</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>67190</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>漕河議</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>cao he yi</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2067</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>20240920</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>67191</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>兵事巵言</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>bing shi zhi yan</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2067</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>20240920</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>67192</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>學一齋集</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>xue yi zhai ji</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>67007</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>20240920</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>67193</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>宗一聖論</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>zong yi sheng lun</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>67007</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>20240920</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>67194</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>詩經正義: 二十七卷</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>shi jing zheng yi</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>20240920</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>67195</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>兩浙長蘆事宜</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>liang zhe zhang lu shi yi</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>20240920</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>67196</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>北關考</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>bei guan kao</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>20240920</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>67197</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>丈量尺</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>zhang liang chi</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>20240920</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>67198</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>王程集: 二卷</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>wang cheng ji</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>67007</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>20240920</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67201</v>
+        <v>67212</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>總艸: 一卷</t>
+          <t>頖宮禮樂全書: 十六卷</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>zong cao</t>
+          <t>pan gong li le quan shu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -588,12 +588,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20240927</t>
+          <t>20241004</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67202</v>
+        <v>67213</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>廣陵懷古: 一卷</t>
+          <t>三嶽游</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>guang ling huai gu</t>
+          <t>san yue you</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20240927</t>
+          <t>20241004</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67203</v>
+        <v>67214</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>四書述說</t>
+          <t>二分明月樓集</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>si shu shu shuo</t>
+          <t>er fen ming yue lou ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,19 +701,19 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20240927</t>
+          <t>20241004</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67204</v>
+        <v>67215</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>天眞師說</t>
+          <t>聖濟總錄</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>tian zhen shi shuo</t>
+          <t>sheng ji zong lu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -768,12 +768,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20240927</t>
+          <t>20241004</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67205</v>
+        <v>67216</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>性鑑蒙求</t>
+          <t>葉氏指南</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>xing jian meng qiu</t>
+          <t>ye shi zhi nan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -828,12 +828,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20240927</t>
+          <t>20241004</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67206</v>
+        <v>67217</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>吹劍稿: 二卷</t>
+          <t>和淘詩: 三卷</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>chui jian gao</t>
+          <t>he tao shi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,19 +881,19 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20240927</t>
+          <t>20241004</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67207</v>
+        <v>67218</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>覺非齋詩</t>
+          <t>叢桂山房詩稾</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>jue fei zhai shi</t>
+          <t>cong gui shan fang shi gao</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -948,12 +948,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20240927</t>
+          <t>20241004</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67208</v>
+        <v>67219</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>胐明章</t>
+          <t>問夜草: 七卷</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>fei ming zhang</t>
+          <t>wen ye cao</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1028,72 +1028,12 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20240927</t>
+          <t>20241004</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>67209</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>性理集要</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>xing li ji yao</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>20240927</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67212</v>
+        <v>67223</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>頖宮禮樂全書: 十六卷</t>
+          <t>喉痧闡義</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pan gong li le quan shu</t>
+          <t>hou sha chan yi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20241004</t>
+          <t>20241018</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67213</v>
+        <v>67224</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>三嶽游</t>
+          <t>鶴靜堂集</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>san yue you</t>
+          <t>he jing tang ji</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,19 +641,19 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20241004</t>
+          <t>20241018</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67214</v>
+        <v>67225</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>二分明月樓集</t>
+          <t>芝石山堂稿</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>er fen ming yue lou ji</t>
+          <t>zhi shi shan tang gao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>35194</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20241004</t>
+          <t>20241018</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67215</v>
+        <v>67226</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>聖濟總錄</t>
+          <t>環山堂集</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sheng ji zong lu</t>
+          <t>huan shan tang ji</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,7 +761,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>35194</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20241004</t>
+          <t>20241018</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67216</v>
+        <v>67227</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>葉氏指南</t>
+          <t>濟時三策</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ye shi zhi nan</t>
+          <t>ji shi san ce</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -828,7 +828,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20241004</t>
+          <t>20241018</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67217</v>
+        <v>67228</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>和淘詩: 三卷</t>
+          <t>正心論</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>he tao shi</t>
+          <t>zheng xin lun</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -888,7 +888,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20241004</t>
+          <t>20241018</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67218</v>
+        <v>67229</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>叢桂山房詩稾</t>
+          <t>北園小草</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cong gui shan fang shi gao</t>
+          <t>bei yuan xiao cao</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,14 +941,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20241004</t>
+          <t>20241018</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67219</v>
+        <v>67230</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>問夜草: 七卷</t>
+          <t>春秋講意</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>wen ye cao</t>
+          <t>chun qiu jiang yi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,12 +1028,3192 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20241004</t>
+          <t>20241018</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>67231</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>新安志補</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>xin an zhi bu</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>67232</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>可筠稾</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ke yun gao</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>67233</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>節烈遺事</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>jie lie yi shi</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>67234</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>篤志集</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>du zhi ji</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>67235</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>存性齋集</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>cun xing zhai ji</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>67236</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>燕居漫稾</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>yan ju man gao</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>67237</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>歷代諸臣傳贊</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>li dai zhu chen chuan zan</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>67238</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>尚書講義</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>shang shu jiang yi</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>67239</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>教賴園集</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>jiao lai yuan ji</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>67240</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>六書正義</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>liu shu zheng yi</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>67241</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>六書總要</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>liu shu zong yao</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>67242</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>六書泝原</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>liu shu su yuan</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>67243</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>諧聲指南</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>xie sheng zhi nan</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>67244</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>切韻樞紐</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>qie yun shu niu</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>67245</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>嵩陽集</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>song yang ji</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>67246</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>東越傳宗</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>dong yue chuan zong</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>67247</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>詩音辨略</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>shi yin bian lve</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>67248</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>字母銓略</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>zi mu quan lve</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>67249</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>六經流別</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>liu jing liu bie</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>67250</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>國朝典故</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>guo chao dian gu</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>67251</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>孝經大義</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>xiao jing da yi</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>67252</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>讀史歌略</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>du shi ge lve</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>67253</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>疑同集</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>yi tong ji</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>67254</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>剖疑錄</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>pou yi lu</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>67255</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>異字鏡</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>yi zi jing</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>67256</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>自怡別錄</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>zi yi bie lu</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>67257</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>華影集</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>hua ying ji</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>67258</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>臥遊錄</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>wo you lu</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>67259</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>夢覺篇</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>meng jue pian</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>67260</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>煑字齋集</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>zhu zi zhai ji</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>67261</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>飛霞閣集</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>fei xia ge ji</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>67262</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>春秋通解</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>chun qiu tong jie</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>67263</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>史鑑會要</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>shi jian hui yao</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>67264</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>通鑑外紀</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>tong jian wai ji</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>67265</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>性理便覽</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>xing li bian lan</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>67266</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>讀易鈔</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>du yi chao</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>67267</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>春秋傳略</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>chun qiu chuan lve</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>67268</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>四書備忘錄</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>si shu bei wang lu</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>67269</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>蛟峯文集</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>jiao feng wen ji</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>67270</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>河間六書</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>he jian liu shu</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>67271</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>自怡集</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>zi yi ji</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>67272</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>擬古樂府</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ni gu le fu</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>67273</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>易證</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>yi zheng</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>67274</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>孟子合論</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>meng zi he lun</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>67275</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>心趣四篇</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>xin qu si pian</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>67276</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>心說四篇</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>xin shuo si pian</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>67277</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>原天原命</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>yuan tian yuan ming</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>67278</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>緣督經</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>yuan du jing</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>67279</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>周易集解</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>zhou yi ji jie</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>67280</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>下菰集</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>xia gu ji</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>67007</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>67281</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>鑾江集</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>luan jiang ji</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>67007</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>67282</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>居東集</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ju dong ji</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>67007</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>67283</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>李湘州文集</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>li xiang zhou wen ji</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>67007</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>20241018</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X62"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67223</v>
+        <v>67288</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>喉痧闡義</t>
+          <t>四易通義</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hou sha chan yi</t>
+          <t>si yi tong yi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -588,7 +588,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67224</v>
+        <v>67289</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>鶴靜堂集</t>
+          <t>朱彝尊經義考</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>he jing tang ji</t>
+          <t>zhu yi zun jing yi kao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,19 +641,19 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67225</v>
+        <v>67290</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>芝石山堂稿</t>
+          <t>春秋宗旨</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>zhi shi shan tang gao</t>
+          <t>chun qiu zong zhi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,7 +701,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>35194</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67226</v>
+        <v>67291</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>環山堂集</t>
+          <t>四書說約</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>huan shan tang ji</t>
+          <t>si shu shuo yue</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,7 +761,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>35194</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67227</v>
+        <v>67292</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>濟時三策</t>
+          <t>不慍日錄</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ji shi san ce</t>
+          <t>bu yun ri lu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -828,7 +828,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67228</v>
+        <v>67293</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>正心論</t>
+          <t>聖學宗傳</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>zheng xin lun</t>
+          <t>sheng xue zong chuan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -888,7 +888,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67229</v>
+        <v>67294</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>北園小草</t>
+          <t>警悟語</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>bei yuan xiao cao</t>
+          <t>jing wu yu</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,14 +941,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67230</v>
+        <v>67295</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>春秋講意</t>
+          <t>晚學堂集</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>chun qiu jiang yi</t>
+          <t>wan xue tang ji</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,14 +1001,14 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67231</v>
+        <v>67296</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>新安志補</t>
+          <t>才名志</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>xin an zhi bu</t>
+          <t>cai ming zhi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1068,12 +1068,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>38685</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67232</v>
+        <v>67297</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>可筠稾</t>
+          <t>春秋無賢臣論</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ke yun gao</t>
+          <t>chun qiu wu xian chen lun</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1128,12 +1128,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>38685</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67233</v>
+        <v>67298</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>節烈遺事</t>
+          <t>易解</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>jie lie yi shi</t>
+          <t>yi jie</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1188,7 +1188,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67234</v>
+        <v>67299</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>篤志集</t>
+          <t>放眉閣詩</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>du zhi ji</t>
+          <t>fang mei ge shi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1241,14 +1241,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67235</v>
+        <v>67300</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>存性齋集</t>
+          <t>草草集</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>cun xing zhai ji</t>
+          <t>cao cao ji</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1308,7 +1308,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67236</v>
+        <v>67301</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>燕居漫稾</t>
+          <t>有韻語</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>yan ju man gao</t>
+          <t>you yun yu</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1368,7 +1368,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67237</v>
+        <v>67302</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>歷代諸臣傳贊</t>
+          <t>江上集</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>li dai zhu chen chuan zan</t>
+          <t>jiang shang ji</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,14 +1421,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67238</v>
+        <v>67303</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>尚書講義</t>
+          <t>紅螺詞</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>shang shu jiang yi</t>
+          <t>hong luo ci</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67239</v>
+        <v>67304</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>教賴園集</t>
+          <t>紅樓合選</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>jiao lai yuan ji</t>
+          <t>hong lou he xuan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1541,14 +1541,14 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67240</v>
+        <v>67305</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>六書正義</t>
+          <t>焦桐引</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>liu shu zheng yi</t>
+          <t>jiao tong yin</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1608,7 +1608,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67241</v>
+        <v>67306</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>六書總要</t>
+          <t>木癭詩鈔</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>liu shu zong yao</t>
+          <t>mu ying shi chao</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1668,7 +1668,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67242</v>
+        <v>67307</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>六書泝原</t>
+          <t>印齋近體詩</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>liu shu su yuan</t>
+          <t>yin zhai jin ti shi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1728,7 +1728,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>67243</v>
+        <v>67308</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>諧聲指南</t>
+          <t>古歙鄉音集</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>xie sheng zhi nan</t>
+          <t>gu she xiang yin ji</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1781,14 +1781,14 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67244</v>
+        <v>67309</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>切韻樞紐</t>
+          <t>至一堂集</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>qie yun shu niu</t>
+          <t>zhi yi tang ji</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1841,14 +1841,14 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67245</v>
+        <v>67310</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>嵩陽集</t>
+          <t>豹其堂文集</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>song yang ji</t>
+          <t>bao qi tang wen ji</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1908,7 +1908,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>67246</v>
+        <v>67311</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>東越傳宗</t>
+          <t>引異集</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>dong yue chuan zong</t>
+          <t>yin yi ji</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1961,14 +1961,14 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>67247</v>
+        <v>67312</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>詩音辨略</t>
+          <t>鶴關文賸</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>shi yin bian lve</t>
+          <t>he guan wen sheng</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2028,7 +2028,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>67248</v>
+        <v>67313</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>字母銓略</t>
+          <t>離騷致幽集</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>zi mu quan lve</t>
+          <t>li sao zhi you ji</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2081,14 +2081,14 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>67249</v>
+        <v>67314</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>六經流別</t>
+          <t>左傳史記莊子別解</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>liu jing liu bie</t>
+          <t>zuo chuan shi ji zhuang zi bie jie</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2148,7 +2148,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>67250</v>
+        <v>67315</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>國朝典故</t>
+          <t>碧岑詩鈔</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>guo chao dian gu</t>
+          <t>bi cen shi chao</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2208,7 +2208,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>67251</v>
+        <v>67316</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>孝經大義</t>
+          <t>閩遊艸</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>xiao jing da yi</t>
+          <t>min you cao</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2268,7 +2268,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>67252</v>
+        <v>67317</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>讀史歌略</t>
+          <t>程朱闕里志: 十卷</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>du shi ge lve</t>
+          <t>cheng zhu que li zhi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2328,7 +2328,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>67253</v>
+        <v>67318</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>疑同集</t>
+          <t>鐵漢詩</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>yi tong ji</t>
+          <t>tie han shi</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2381,14 +2381,14 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>67254</v>
+        <v>67319</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>剖疑錄</t>
+          <t>竹塢詩文集</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>pou yi lu</t>
+          <t>zhu wu shi wen ji</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2441,14 +2441,14 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>67255</v>
+        <v>67320</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>異字鏡</t>
+          <t>堥敦說</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>yi zi jing</t>
+          <t>mao dun shuo</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>67256</v>
+        <v>67321</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>自怡別錄</t>
+          <t>牧民瑣言</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>zi yi bie lu</t>
+          <t>mu min suo yan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2568,7 +2568,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>67257</v>
+        <v>67322</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>華影集</t>
+          <t>明史略: 七十卷</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>hua ying ji</t>
+          <t>ming shi lve</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2621,14 +2621,14 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>67258</v>
+        <v>67323</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>臥遊錄</t>
+          <t>金陵識古錄</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>wo you lu</t>
+          <t>jin ling shi gu lu</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2688,7 +2688,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>67259</v>
+        <v>67324</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>夢覺篇</t>
+          <t>史學例議</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>meng jue pian</t>
+          <t>shi xue li yi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2748,7 +2748,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>67260</v>
+        <v>67325</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>煑字齋集</t>
+          <t>三友清唫</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>zhu zi zhai ji</t>
+          <t>san you qing jin</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2801,14 +2801,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>67261</v>
+        <v>67326</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>飛霞閣集</t>
+          <t>陳氏禮書詳節: 十卷</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>fei xia ge ji</t>
+          <t>chen shi li shu xiang jie</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2861,14 +2861,14 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>67262</v>
+        <v>67327</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>春秋通解</t>
+          <t>自怡集: 四卷</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>chun qiu tong jie</t>
+          <t>zi yi ji</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2921,14 +2921,14 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67263</v>
+        <v>67328</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>史鑑會要</t>
+          <t>詩經言志: 二十六卷</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>shi jian hui yao</t>
+          <t>shi jing yan zhi</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2988,7 +2988,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>67264</v>
+        <v>67329</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>通鑑外紀</t>
+          <t>毛詩周韻誦法: 十卷</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>tong jian wai ji</t>
+          <t>mao shi zhou yun song fa</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -3048,7 +3048,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>67265</v>
+        <v>67330</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>性理便覽</t>
+          <t>水經註釋地: 四十卷</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>xing li bian lan</t>
+          <t>shui jing zhu shi di</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -3108,7 +3108,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67266</v>
+        <v>67331</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>讀易鈔</t>
+          <t>水道直指</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>du yi chao</t>
+          <t>shui dao zhi zhi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -3168,7 +3168,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>67267</v>
+        <v>67332</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>春秋傳略</t>
+          <t>補水經註: 二卷</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>chun qiu chuan lve</t>
+          <t>bu shui jing zhu</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -3228,7 +3228,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>67268</v>
+        <v>67333</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>四書備忘錄</t>
+          <t>鳳湖古文</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>si shu bei wang lu</t>
+          <t>feng hu gu wen</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>67269</v>
+        <v>67334</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>蛟峯文集</t>
+          <t>朱子學梯</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>jiao feng wen ji</t>
+          <t>zhu zi xue ti</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3341,14 +3341,14 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67270</v>
+        <v>67335</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>河間六書</t>
+          <t>閨門淺訓</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>he jian liu shu</t>
+          <t>gui men qian xun</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3408,7 +3408,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>67271</v>
+        <v>67336</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>自怡集</t>
+          <t>羣經蠡管</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>zi yi ji</t>
+          <t>qun jing li guan</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3461,14 +3461,14 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>67272</v>
+        <v>67337</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>擬古樂府</t>
+          <t>小學衍義補</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ni gu le fu</t>
+          <t>xiao xue yan yi bu</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>67273</v>
+        <v>67338</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>易證</t>
+          <t>漁仙文稾</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>yi zheng</t>
+          <t>yu xian wen gao</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3588,7 +3588,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>67274</v>
+        <v>67339</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>孟子合論</t>
+          <t>延綠堂詩鈔</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>meng zi he lun</t>
+          <t>yan lv tang shi chao</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3648,7 +3648,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>67275</v>
+        <v>67340</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>心趣四篇</t>
+          <t>讀史纂要: 二十卷</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>xin qu si pian</t>
+          <t>du shi zuan yao</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3708,7 +3708,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>67276</v>
+        <v>67341</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>心說四篇</t>
+          <t>通鑑提要: 十六卷</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>xin shuo si pian</t>
+          <t>tong jian ti yao</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3768,7 +3768,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>67277</v>
+        <v>67342</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>原天原命</t>
+          <t>默菴偶吟: 二卷</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>yuan tian yuan ming</t>
+          <t>mo an ou yin</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3828,7 +3828,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -3857,16 +3857,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>67278</v>
+        <v>67343</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>緣督經</t>
+          <t>松籟閣集</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>yuan du jing</t>
+          <t>song lai ge ji</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3881,14 +3881,14 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -3917,16 +3917,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>67279</v>
+        <v>67344</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>周易集解</t>
+          <t>關中金石記</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>zhou yi ji jie</t>
+          <t>guan zhong jin shi ji</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3948,7 +3948,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
@@ -3977,16 +3977,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>67280</v>
+        <v>67345</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>下菰集</t>
+          <t>秦漢瓦當文字: 一卷</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>xia gu ji</t>
+          <t>qin han wa dang wen zi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -4001,19 +4001,19 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -4037,16 +4037,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67281</v>
+        <v>67346</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>鑾江集</t>
+          <t>秦漢瓦當文字續: 一卷</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>luan jiang ji</t>
+          <t>qin han wa dang wen zi xu</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -4061,19 +4061,19 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -4097,16 +4097,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>67282</v>
+        <v>67347</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>居東集</t>
+          <t>退思初稿續稿</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ju dong ji</t>
+          <t>tui si chu gao xu gao</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -4128,12 +4128,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
@@ -4157,16 +4157,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>67283</v>
+        <v>67348</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>李湘州文集</t>
+          <t>名學類通</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>li xiang zhou wen ji</t>
+          <t>ming xue lei tong</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -4181,19 +4181,19 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4208,12 +4208,432 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>20241018</t>
+          <t>20241025</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>67349</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>可齋經進文存</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ke zhai jing jin wen cun</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>20241025</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>67350</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>可齋經進詩集</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ke zhai jing jin shi ji</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>20241025</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>67351</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>省餘筆</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>sheng yu bi</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>20241025</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>67352</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>課業餘錄</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ke ye yu lu</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>20241025</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67353</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>鄭氏詩譜</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>zheng shi shi pu</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>20241025</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67354</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>虞氏易變表稿</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>yu shi yi bian biao gao</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>20241025</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67355</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>費隱與知錄</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>fei yin yu zhi lu</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>20241025</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:X104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67288</v>
+        <v>67357</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>四易通義</t>
+          <t>安洲鄉學記</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>si yi tong yi</t>
+          <t>an zhou xiang xue ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -588,12 +588,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>38685</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67289</v>
+        <v>67358</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>朱彝尊經義考</t>
+          <t>省方盛典</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>zhu yi zun jing yi kao</t>
+          <t>sheng fang sheng dian</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -648,12 +648,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67290</v>
+        <v>67359</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>春秋宗旨</t>
+          <t>雪江集</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>chun qiu zong zhi</t>
+          <t>xue jiang ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,19 +701,19 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67291</v>
+        <v>67360</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>四書說約</t>
+          <t>六一山房詩前集: 十卷</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>si shu shuo yue</t>
+          <t>liu yi shan fang shi qian ji</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,7 +761,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67292</v>
+        <v>67361</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>不慍日錄</t>
+          <t>木犀山館詩</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bu yun ri lu</t>
+          <t>mu xi shan guan shi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67293</v>
+        <v>67362</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>聖學宗傳</t>
+          <t>乘方公式級數開方割圓匯通天學雜俎</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sheng xue zong chuan</t>
+          <t>cheng fang gong shi ji shu kai fang ge yuan hui tong tian xue za zu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67294</v>
+        <v>67363</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>警悟語</t>
+          <t>瞿園詩文集</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>jing wu yu</t>
+          <t>qu yuan shi wen ji</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67295</v>
+        <v>67364</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>晚學堂集</t>
+          <t>深雪堂叢稿</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>wan xue tang ji</t>
+          <t>shen xue tang cong gao</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67296</v>
+        <v>67365</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>才名志</t>
+          <t>論語析疑</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cai ming zhi</t>
+          <t>lun yu xi yi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1068,12 +1068,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>38685</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67297</v>
+        <v>67366</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>春秋無賢臣論</t>
+          <t>大學析疑</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>chun qiu wu xian chen lun</t>
+          <t>da xue xi yi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1128,12 +1128,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>38685</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67298</v>
+        <v>67367</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>易解</t>
+          <t>中庸析疑</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>yi jie</t>
+          <t>zhong yong xi yi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67299</v>
+        <v>67368</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>放眉閣詩</t>
+          <t>老子大義</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>fang mei ge shi</t>
+          <t>lao zi da yi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67300</v>
+        <v>67369</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>草草集</t>
+          <t>易問聖言通訓</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>cao cao ji</t>
+          <t>yi wen sheng yan tong xun</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1301,7 +1301,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67301</v>
+        <v>67370</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>有韻語</t>
+          <t>宗言內外篇</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>you yun yu</t>
+          <t>zong yan nei wai pian</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67302</v>
+        <v>67371</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>江上集</t>
+          <t>匡謬錄續錄外錄後錄別錄餘錄</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>jiang shang ji</t>
+          <t>kuang miu lu   xu lu   wai lu   hou lu   bie lu   yu lu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67303</v>
+        <v>67372</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>紅螺詞</t>
+          <t>讀習指要</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>hong luo ci</t>
+          <t>du xi zhi yao</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67304</v>
+        <v>67373</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>紅樓合選</t>
+          <t>居業巵言</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>hong lou he xuan</t>
+          <t>ju ye zhi yan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67305</v>
+        <v>67374</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>焦桐引</t>
+          <t>居業餘談</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>jiao tong yin</t>
+          <t>ju ye yu tan</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67306</v>
+        <v>67375</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>木癭詩鈔</t>
+          <t>讀書日錄</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>mu ying shi chao</t>
+          <t>du shu ri lu</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67307</v>
+        <v>67376</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>印齋近體詩</t>
+          <t>陽明學案</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>yin zhai jin ti shi</t>
+          <t>yang ming xue an</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>67308</v>
+        <v>67377</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>古歙鄉音集</t>
+          <t>文史廣義述事新編</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gu she xiang yin ji</t>
+          <t>wen shi guang yi shu shi xin bian</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67309</v>
+        <v>67378</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>至一堂集</t>
+          <t>聶許新編</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>zhi yi tang ji</t>
+          <t>nie xu xin bian</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1841,7 +1841,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67310</v>
+        <v>67379</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>豹其堂文集</t>
+          <t>蘧齋筆談</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>bao qi tang wen ji</t>
+          <t>qu zhai bi tan</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1901,7 +1901,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>67311</v>
+        <v>67380</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>引異集</t>
+          <t>經世芻言叩鳴叢說</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>yin yi ji</t>
+          <t>jing shi chu yan kou ming cong shuo</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1961,7 +1961,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>67312</v>
+        <v>67381</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>鶴關文賸</t>
+          <t>澧水客談天學舉要句股大成堆垜廣義開方古義補代微積淺釋律度量衡倚數割圜八綫大成算式集成</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>he guan wen sheng</t>
+          <t>li shui ke tan tian xue ju yao ju gu da cheng dui duo guang yi kai fang gu yi bu dai wei ji qian shi lv du liang heng yi shu ge huan ba xian da cheng suan shi ji cheng</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>67313</v>
+        <v>67382</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>離騷致幽集</t>
+          <t>中西天算通考學算緒言醫學新論學醫偶得靈蘭外典</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>li sao zhi you ji</t>
+          <t>zhong xi tian suan tong kao xue suan xu yan yi xue xin lun xue yi ou de ling lan wai dian</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>67314</v>
+        <v>67383</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>左傳史記莊子別解</t>
+          <t>蘧齋文存詩存雜著</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>zuo chuan shi ji zhuang zi bie jie</t>
+          <t>qu zhai wen cun   shi cun   za zhu</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>67315</v>
+        <v>67384</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>碧岑詩鈔</t>
+          <t>詩教指歸花間玉屑</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>bi cen shi chao</t>
+          <t>shi jiao zhi gui   hua jian yu xie</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>67316</v>
+        <v>67385</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>閩遊艸</t>
+          <t>丙算書: 九十八卷</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>min you cao</t>
+          <t>bing suan shu</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>67317</v>
+        <v>67386</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>程朱闕里志: 十卷</t>
+          <t>醫書: 二十四卷</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>cheng zhu que li zhi</t>
+          <t>yi shu</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>67318</v>
+        <v>67387</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>鐵漢詩</t>
+          <t>孟子大義</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>tie han shi</t>
+          <t>meng zi da yi</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>67319</v>
+        <v>67388</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>竹塢詩文集</t>
+          <t>孟子析疑</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>zhu wu shi wen ji</t>
+          <t>meng zi xi yi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2441,7 +2441,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>67320</v>
+        <v>67389</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>堥敦說</t>
+          <t>周易陰符大義</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>mao dun shuo</t>
+          <t>zhou yi yin fu da yi</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>67321</v>
+        <v>67390</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>牧民瑣言</t>
+          <t>莊子大義</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>mu min suo yan</t>
+          <t>zhuang zi da yi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>67322</v>
+        <v>67391</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>明史略: 七十卷</t>
+          <t>讀詩劄記</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ming shi lve</t>
+          <t>du shi zha ji</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>67323</v>
+        <v>67392</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>金陵識古錄</t>
+          <t>讀公羊劄記</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>jin ling shi gu lu</t>
+          <t>du gong yang zha ji</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>67324</v>
+        <v>67393</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>史學例議</t>
+          <t>夷務決疑論</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>shi xue li yi</t>
+          <t>yi wu jue yi lun</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>67325</v>
+        <v>67394</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>三友清唫</t>
+          <t>天倪子內外篇</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>san you qing jin</t>
+          <t>tian ni zi nei wai pian</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>67326</v>
+        <v>67395</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>陳氏禮書詳節: 十卷</t>
+          <t>廣疇入傳中西算書提要</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>chen shi li shu xiang jie</t>
+          <t>guang chou ru chuan   zhong xi suan shu ti yao</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>67327</v>
+        <v>67396</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>自怡集: 四卷</t>
+          <t>談算談醫靈蘭內典</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>zi yi ji</t>
+          <t>tan suan   tan yi   ling lan nei dian</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67328</v>
+        <v>67397</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>詩經言志: 二十六卷</t>
+          <t>詩異文疏證</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>shi jing yan zhi</t>
+          <t>shi yi wen shu zheng</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>67329</v>
+        <v>67398</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>毛詩周韻誦法: 十卷</t>
+          <t>遼史注</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>mao shi zhou yun song fa</t>
+          <t>liao shi zhu</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>67330</v>
+        <v>67399</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>水經註釋地: 四十卷</t>
+          <t>再補寰宇訪碑錄</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>shui jing zhu shi di</t>
+          <t>zai bu huan yu fang bei lu</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67331</v>
+        <v>67400</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>水道直指</t>
+          <t>北周疆域志: 四卷</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>shui dao zhi zhi</t>
+          <t>bei zhou jiang yu zhi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>67332</v>
+        <v>67401</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>補水經註: 二卷</t>
+          <t>北齊疆域志: 四卷</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>bu shui jing zhu</t>
+          <t>bei qi jiang yu zhi</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>67333</v>
+        <v>67402</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>鳳湖古文</t>
+          <t>陳疆域志: 二卷</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>feng hu gu wen</t>
+          <t>chen jiang yu zhi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>67334</v>
+        <v>67403</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>朱子學梯</t>
+          <t>寰宇訪碑錄校證: 十二卷</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>zhu zi xue ti</t>
+          <t>huan yu fang bei lu xiao zheng</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67335</v>
+        <v>67404</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>閨門淺訓</t>
+          <t>成華金石記四卷</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gui men qian xun</t>
+          <t>cheng hua jin shi ji si juan</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>67336</v>
+        <v>67405</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>羣經蠡管</t>
+          <t>藝風堂文集</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>qun jing li guan</t>
+          <t>yi feng tang wen ji</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3461,7 +3461,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>67337</v>
+        <v>67406</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>小學衍義補</t>
+          <t>內外編詩集</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>xiao xue yan yi bu</t>
+          <t>nei wai bian shi ji</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3521,7 +3521,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>67338</v>
+        <v>67407</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>漁仙文稾</t>
+          <t>䮚迦山館駢體文存: 二卷</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>yu xian wen gao</t>
+          <t>leng jia shan guan pian ti wen cun</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>67339</v>
+        <v>67408</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>延綠堂詩鈔</t>
+          <t>至堂暫存詩: 九卷</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>yan lv tang shi chao</t>
+          <t>zhi tang zan cun shi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>67340</v>
+        <v>67409</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>讀史纂要: 二十卷</t>
+          <t>曼睩詞: 二卷</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>du shi zuan yao</t>
+          <t>man lu ci</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>67341</v>
+        <v>67410</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>通鑑提要: 十六卷</t>
+          <t>珍髢詞: 二卷</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>tong jian ti yao</t>
+          <t>zhen di ci</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>67342</v>
+        <v>67411</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>默菴偶吟: 二卷</t>
+          <t>周易鄭氏義疏</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>mo an ou yin</t>
+          <t>zhou yi zheng shi yi shu</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -3857,16 +3857,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>67343</v>
+        <v>67412</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>松籟閣集</t>
+          <t>爾雅漢注述</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>song lai ge ji</t>
+          <t>er ya han zhu shu</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3881,7 +3881,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -3917,16 +3917,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>67344</v>
+        <v>67413</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>關中金石記</t>
+          <t>五經異義通箋</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>guan zhong jin shi ji</t>
+          <t>wu jing yi yi tong jian</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
@@ -3977,16 +3977,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>67345</v>
+        <v>67414</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>秦漢瓦當文字: 一卷</t>
+          <t>說文通攷: 十二篇</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>qin han wa dang wen zi</t>
+          <t>shuo wen tong kao</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -4037,16 +4037,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67346</v>
+        <v>67415</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>秦漢瓦當文字續: 一卷</t>
+          <t>淮南參政: 二十四卷附校勘記: 四卷</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>qin han wa dang wen zi xu</t>
+          <t>huai nan can zheng</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -4097,16 +4097,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>67347</v>
+        <v>67416</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>退思初稿續稿</t>
+          <t>淮南許高二注異同攷: 二卷</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>tui si chu gao xu gao</t>
+          <t>huai nan xu gao er zhu yi tong kao</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -4121,7 +4121,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
@@ -4157,16 +4157,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>67348</v>
+        <v>67417</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>名學類通</t>
+          <t>漢孳室內外文編</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ming xue lei tong</t>
+          <t>han zi shi nei wai wen bian</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -4217,16 +4217,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>67349</v>
+        <v>67418</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>可齋經進文存</t>
+          <t>潠廬詩存</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ke zhai jing jin wen cun</t>
+          <t>xun lu shi cun</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -4277,16 +4277,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>67350</v>
+        <v>67419</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>可齋經進詩集</t>
+          <t>學庸敘解</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ke zhai jing jin shi ji</t>
+          <t>xue yong xu jie</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -4301,7 +4301,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -4337,16 +4337,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>67351</v>
+        <v>67420</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>省餘筆</t>
+          <t>四書合璧聯珠</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sheng yu bi</t>
+          <t>si shu he bi lian zhu</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>67352</v>
+        <v>67421</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>課業餘錄</t>
+          <t>五經精義提要</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ke ye yu lu</t>
+          <t>wu jing jing yi ti yao</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
@@ -4457,16 +4457,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>67353</v>
+        <v>67422</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>鄭氏詩譜</t>
+          <t>詩毛傳補證</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>zheng shi shi pu</t>
+          <t>shi mao chuan bu zheng</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
@@ -4517,16 +4517,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67354</v>
+        <v>67423</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>虞氏易變表稿</t>
+          <t>適齋經說</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>yu shi yi bian biao gao</t>
+          <t>shi zhai jing shuo</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -4541,7 +4541,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
@@ -4577,16 +4577,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>67355</v>
+        <v>67424</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>費隱與知錄</t>
+          <t>讀經日記</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>fei yin yu zhi lu</t>
+          <t>du jing ri ji</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4628,12 +4628,2112 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>20241025</t>
+          <t>20241101</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>67425</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>春秋地理補攷</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>chun qiu di li bu kao</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>67426</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>習言考義</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>xi yan kao yi</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>67427</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>稱謂雜攷</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>cheng wei za kao</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>67428</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>文學天性齋文鈔</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>wen xue tian xing zhai wen chao</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>67429</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>詩鈔</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>shi chao</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>67430</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>金波詞</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>jin bo ci</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>67431</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>十三經述聞</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>shi san jing shu wen</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>67432</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>廿四史述聞</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>nian si shi shu wen</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>67433</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>諸子述聞</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>zhu zi shu wen</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>67434</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>小學述聞</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>xiao xue shu wen</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>67435</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>玉函輯佚刊誤補遺</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>yu han ji yi kan wu bu yi</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>67436</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>王肅僞古文尚書證: 二卷</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>wang su wei gu wen shang shu zheng</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>67437</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>班志補都尉攷: 一卷</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ban zhi bu du wei kao</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>67438</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>元史征俄羅斯地名攷: 一卷</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>yuan shi zheng e luo si di ming kao</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>67439</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>明史外國傳辨譌: 一卷</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ming shi wai guo chuan bian e</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>67440</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>寒栢齋駢文: 二卷</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>han bai zhai pian wen</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>67441</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>四書合纂大成: 十二冊</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>si shu he zuan da cheng</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>67442</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>說文解字繫纂: 六百卷</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>shuo wen jie zi xi zuan</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>67443</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>歷代姓氏譜</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>li dai xing shi pu</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>67444</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>經訓補遺</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>jing xun bu yi</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>67445</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>開方說校</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>kai fang shuo xiao</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>67446</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>代數鑰微</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>dai shu yao wei</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>67447</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>積算草</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ji suan cao</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>67448</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>輿地通攷</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>yu di tong kao</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>67449</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>北徼籌防</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>bei jiao chou fang</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>67450</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>東南洋形勢錄要</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>dong nan yang xing shi lu yao</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>67451</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>衛藏說略并圖</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>wei cang shuo lve bing tu</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>67452</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>蠡測類存: 四卷</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>li ce lei cun</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>67453</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>各國學校攷略: 七卷</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ge guo xue xiao kao lve</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>67454</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>歷代戶口攷略: 二卷</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>li dai hu kou kao lve</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>67455</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>錢幣攷: 四卷</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>qian bi kao</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>67456</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>博士攷: 四卷</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>bo shi kao</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>67457</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>尊生類輯: 六卷</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>zun sheng lei ji</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>67458</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>鷃適軒詩稿</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>yan shi xuan shi gao</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>67007</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>67459</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>扣角集</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>kou jiao ji</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>67007</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>20241101</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67461</v>
+        <v>67482</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>易榷: 十二卷</t>
+          <t>三巴游草</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>yi que</t>
+          <t>san ba you cao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>38685</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67462</v>
+        <v>67483</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>榖梁釋例: 四卷</t>
+          <t>遲雲閣詩鈔</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gu liang shi li</t>
+          <t>chi yun ge shi chao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67463</v>
+        <v>67484</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>許氏說音: 十二卷</t>
+          <t>文選集腋</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>xu shi shuo yin</t>
+          <t>wen xuan ji ye</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67464</v>
+        <v>67485</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>說文後解: 十卷</t>
+          <t>韻詩史集</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>shuo wen hou jie</t>
+          <t>yun shi shi ji</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,7 +761,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67465</v>
+        <v>67486</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>宣西通: 三卷</t>
+          <t>清逸錄</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>xuan xi tong</t>
+          <t>qing yi lu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67466</v>
+        <v>67487</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>算牗: 四卷</t>
+          <t>西巖遺稾</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>suan you</t>
+          <t>xi yan yi gao</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -888,7 +888,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67467</v>
+        <v>67488</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>憶雲樓詩稿</t>
+          <t>三邱山人什一艸</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>yi yun lou shi gao</t>
+          <t>san qiu shan ren shen yi cao</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,14 +941,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67468</v>
+        <v>67489</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>泉說: 一卷</t>
+          <t>新都秀運集</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quan shuo</t>
+          <t>xin dou xiu yun ji</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,14 +1001,14 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67469</v>
+        <v>67490</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>續泉說: 一卷</t>
+          <t>龍谷集</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>xu quan shuo</t>
+          <t>long gu ji</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1061,14 +1061,14 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67470</v>
+        <v>67491</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>觀古閣叢稿初二三集</t>
+          <t>月坡雜記</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>guan gu ge cong gao chu er san ji</t>
+          <t>yue po za ji</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,14 +1121,14 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67471</v>
+        <v>67492</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>燕庭遺稿</t>
+          <t>霞城集: 二十四卷</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>yan ting yi gao</t>
+          <t>xia cheng ji</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1188,7 +1188,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67472</v>
+        <v>67493</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>海東金石苑</t>
+          <t>江山人集</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hai dong jin shi yuan</t>
+          <t>jiang shan ren ji</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1241,14 +1241,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67473</v>
+        <v>67494</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>論泉絕句</t>
+          <t>論遏糴書</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>lun quan jue ju</t>
+          <t>lun e di shu</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1308,7 +1308,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67474</v>
+        <v>67495</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>虞夏贖金釋文</t>
+          <t>九邊論</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>yu xia shu jin shi wen</t>
+          <t>jiu bian lun</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1368,7 +1368,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67475</v>
+        <v>67496</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>古泉匯</t>
+          <t>方山集</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gu quan hui</t>
+          <t>fang shan ji</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,14 +1421,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67476</v>
+        <v>67497</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>皇朝諡法考</t>
+          <t>雲遨摘稾</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>huang chao shi fa kao</t>
+          <t>yun ao zhai gao</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67477</v>
+        <v>67498</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>誰園詩鈔</t>
+          <t>鸞嘯集</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>shui yuan shi chao</t>
+          <t>luan xiao ji</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1541,14 +1541,14 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67478</v>
+        <v>67499</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>再生草詩: 四卷</t>
+          <t>巽鹿草堂詩集</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>zai sheng cao shi</t>
+          <t>xun lu cao tang shi ji</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1601,14 +1601,14 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67479</v>
+        <v>67500</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>紅樨館詩: 八卷</t>
+          <t>楚辭註解</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>hong xi guan shi</t>
+          <t>chu ci zhu jie</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1668,7 +1668,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1688,12 +1688,312 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20241108</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>67501</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>汪次公集</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>wang ci gong ji</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>20241115</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>67502</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>小山樓稿</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>xiao shan lou gao</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>20241115</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>67503</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>醉茶亭蜃樓諸詩</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>zui cha ting shen lou zhu shi</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>20241115</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>67504</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>缶音集</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>fou yin ji</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>20241115</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>67505</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>春星堂夢草齋諸刻</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>chun xing tang meng cao zhai zhu ke</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>20241115</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67507</v>
+        <v>67515</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>宋元綱目</t>
+          <t>容𤲅集: 十卷</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>song yuan gang mu</t>
+          <t>rong 𤲅 ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>38685</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20241122</t>
+          <t>20241127</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67508</v>
+        <v>67516</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>龍臯集</t>
+          <t>岸舫詩</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>long gao ji</t>
+          <t>an fang shi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,19 +641,19 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20241122</t>
+          <t>20241127</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67509</v>
+        <v>67517</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>頤齋集</t>
+          <t>阮堂深柳堂諸集</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>yi zhai ji</t>
+          <t>ruan tang shen liu tang zhu ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -708,12 +708,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20241122</t>
+          <t>20241127</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67510</v>
+        <v>67518</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>聖湖詩集</t>
+          <t>坐花閣詩集</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sheng hu shi ji</t>
+          <t>zuo hua ge shi ji</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -768,7 +768,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -788,72 +788,12 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20241122</t>
+          <t>20241127</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>67511</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>培菴集</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>pei an ji</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>20241122</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67515</v>
+        <v>67522</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>容𤲅集: 十卷</t>
+          <t>定舫詩紀</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rong 𤲅 ji</t>
+          <t>ding fang shi ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,19 +581,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>38685</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20241127</t>
+          <t>20241213</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67516</v>
+        <v>67523</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>岸舫詩</t>
+          <t>韻閣詩: 十卷</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>an fang shi</t>
+          <t>yun ge shi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20241127</t>
+          <t>20241213</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67517</v>
+        <v>67524</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>阮堂深柳堂諸集</t>
+          <t>茶園詩: 十卷</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ruan tang shen liu tang zhu ji</t>
+          <t>cha yuan shi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,7 +701,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20241127</t>
+          <t>20241213</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67518</v>
+        <v>67525</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>坐花閣詩集</t>
+          <t>練江詩鈔</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>zuo hua ge shi ji</t>
+          <t>lian jiang shi chao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,7 +761,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -788,12 +788,1872 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20241127</t>
+          <t>20241213</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>67526</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>含翠樓詩文集</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>han cui lou shi wen ji</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>67527</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>稽古堂詩: 六卷</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ji gu tang shi</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>67528</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>自怡草</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>zi yi cao</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>67529</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>歷畊草</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>li geng cao</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>67530</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>小巢湖詩</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>xiao chao hu shi</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>67531</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>秋水晚山樓詩集</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>qiu shui wan shan lou shi ji</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>67532</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>廣陵擪笛詞: 一卷</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>guang ling ye di ci</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>67533</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>菊莊詩集</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ju zhuang shi ji</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>67534</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>琢春詞: 二卷</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>zuo chun ci</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>67535</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>蘭雪編年稿</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>lan xue bian nian gao</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>67536</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>鹿村集</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>lu cun ji</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>67537</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>隨月樓詩鈔</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sui yue lou shi chao</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>67538</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>晴綺軒詩文集</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>qing qi xuan shi wen ji</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>67539</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>重趼集</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>zhong jian ji</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>67540</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>浣雲集</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>huan yun ji</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>67541</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>楊園遺草: 二卷</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>yang yuan yi cao</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>67542</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>吟息軒詩集</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>yin xi xuan shi ji</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>67543</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>漁村賸稿</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>yu cun sheng gao</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>67544</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>梅臯詩草</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>mei gao shi cao</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>67545</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>杜詩心解</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>du shi xin jie</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>67546</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>噓雲稿</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>xu yun gao</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>67547</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>蝸角攄懷稿</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>wo jiao shu huai gao</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>67548</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>安吉堂小草</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>an ji tang xiao cao</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>67549</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>安定吟草</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>an ding yin cao</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>67550</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>石門確史</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>shi men que shi</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>67551</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>滄螺集</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>cang luo ji</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>67552</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>笙山草堂詩集</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>sheng shan cao tang shi ji</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>67553</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>一石山房稾</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>yi shi shan fang gao</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>67554</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>春帆集</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>chun fan ji</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>67555</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>拳石齋詩集</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>quan shi zhai shi ji</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>67556</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>學田集</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>xue tian ji</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67522</v>
+        <v>67558</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>定舫詩紀</t>
+          <t>水香園詩稿</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ding fang shi ji</t>
+          <t>shui xiang yuan shi gao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67523</v>
+        <v>67559</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>韻閣詩: 十卷</t>
+          <t>冶城游草</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>yun ge shi</t>
+          <t>ye cheng you cao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67524</v>
+        <v>67560</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>茶園詩: 十卷</t>
+          <t>滋蘭堂集</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>cha yuan shi</t>
+          <t>zi lan tang ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,7 +701,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67525</v>
+        <v>67561</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>練江詩鈔</t>
+          <t>續黃山志</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>lian jiang shi chao</t>
+          <t>xu huang shan zhi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67526</v>
+        <v>67562</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>含翠樓詩文集</t>
+          <t>七峯草堂詩稿: 十卷</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>han cui lou shi wen ji</t>
+          <t>qi feng cao tang shi gao</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67527</v>
+        <v>67563</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>稽古堂詩: 六卷</t>
+          <t>紅藥書莊詩</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ji gu tang shi</t>
+          <t>hong yao shu zhuang shi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67528</v>
+        <v>67564</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>自怡草</t>
+          <t>半舫齋稾</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>zi yi cao</t>
+          <t>ban fang zhai gao</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67529</v>
+        <v>67565</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>歷畊草</t>
+          <t>用餘堂集</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>li geng cao</t>
+          <t>yong yu tang ji</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67530</v>
+        <v>67566</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>小巢湖詩</t>
+          <t>若菴集</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>xiao chao hu shi</t>
+          <t>ruo an ji</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1061,7 +1061,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67531</v>
+        <v>67567</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>秋水晚山樓詩集</t>
+          <t>儷體文鈔</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>qiu shui wan shan lou shi ji</t>
+          <t>li ti wen chao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67532</v>
+        <v>67568</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>廣陵擪笛詞: 一卷</t>
+          <t>昭明詩選輯注</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>guang ling ye di ci</t>
+          <t>zhao ming shi xuan ji zhu</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67533</v>
+        <v>67569</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>菊莊詩集</t>
+          <t>黃睡漫志</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ju zhuang shi ji</t>
+          <t>huang shui man zhi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1241,7 +1241,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67534</v>
+        <v>67570</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>琢春詞: 二卷</t>
+          <t>悔人草</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>zuo chun ci</t>
+          <t>hui ren cao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1301,7 +1301,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67535</v>
+        <v>67571</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>蘭雪編年稿</t>
+          <t>舍亭病餘錄</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>lan xue bian nian gao</t>
+          <t>she ting bing yu lu</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1361,7 +1361,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67536</v>
+        <v>67572</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>鹿村集</t>
+          <t>汪氏文獻錄</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>lu cun ji</t>
+          <t>wang shi wen xian lu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,14 +1421,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67537</v>
+        <v>67573</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>隨月樓詩鈔</t>
+          <t>新安紀程</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sui yue lou shi chao</t>
+          <t>xin an ji cheng</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67538</v>
+        <v>67574</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>晴綺軒詩文集</t>
+          <t>程槐堂詩文集</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>qing qi xuan shi wen ji</t>
+          <t>cheng huai tang shi wen ji</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1548,7 +1548,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67539</v>
+        <v>67575</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>重趼集</t>
+          <t>牀風雨集</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>zhong jian ji</t>
+          <t>chuang feng yu ji</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67540</v>
+        <v>67576</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>浣雲集</t>
+          <t>粵遊草</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>huan yun ji</t>
+          <t>yue you cao</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67541</v>
+        <v>67577</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>楊園遺草: 二卷</t>
+          <t>且隱軒詩集</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>yang yuan yi cao</t>
+          <t>qie yin xuan shi ji</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>67542</v>
+        <v>67578</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>吟息軒詩集</t>
+          <t>懲窒堂集</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>yin xi xuan shi ji</t>
+          <t>cheng zhi tang ji</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67543</v>
+        <v>67579</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>漁村賸稿</t>
+          <t>拙巢詩集</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>yu cun sheng gao</t>
+          <t>zhuo chao shi ji</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67544</v>
+        <v>67580</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>梅臯詩草</t>
+          <t>藥蒻園稾</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>mei gao shi cao</t>
+          <t>yao ruo yuan gao</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1901,7 +1901,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>67545</v>
+        <v>67581</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>杜詩心解</t>
+          <t>沐青樓集</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>du shi xin jie</t>
+          <t>mu qing lou ji</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1961,7 +1961,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>67546</v>
+        <v>67582</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>噓雲稿</t>
+          <t>箕薹詩鈔</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>xu yun gao</t>
+          <t>ji tai shi chao</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2021,7 +2021,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>67547</v>
+        <v>67583</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>蝸角攄懷稿</t>
+          <t>蜀游草</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>wo jiao shu huai gao</t>
+          <t>shu you cao</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>67548</v>
+        <v>67584</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>安吉堂小草</t>
+          <t>露隱山房詩集</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>an ji tang xiao cao</t>
+          <t>lu yin shan fang shi ji</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>67549</v>
+        <v>67585</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>安定吟草</t>
+          <t>酣隱詩</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>an ding yin cao</t>
+          <t>han yin shi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2201,7 +2201,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>67550</v>
+        <v>67586</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>石門確史</t>
+          <t>宛鳩居詩</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>shi men que shi</t>
+          <t>wan jiu ju shi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>67551</v>
+        <v>67587</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>滄螺集</t>
+          <t>清輝館集</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>cang luo ji</t>
+          <t>qing hui guan ji</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>67552</v>
+        <v>67588</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>笙山草堂詩集</t>
+          <t>梅谷詩鈔</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sheng shan cao tang shi ji</t>
+          <t>mei gu shi chao</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2381,7 +2381,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>67553</v>
+        <v>67589</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>一石山房稾</t>
+          <t>夕秀齋詩鈔</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>yi shi shan fang gao</t>
+          <t>xi xiu zhai shi chao</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>67554</v>
+        <v>67590</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>春帆集</t>
+          <t>重閬齋詩集</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>chun fan ji</t>
+          <t>zhong lang zhai shi ji</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>67555</v>
+        <v>67591</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>拳石齋詩集</t>
+          <t>北溪草堂吟稾</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>quan shi zhai shi ji</t>
+          <t>bei xi cao tang yin gao</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2561,7 +2561,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>67556</v>
+        <v>67592</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>學田集</t>
+          <t>寒綠齋詩集</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>xue tian ji</t>
+          <t>han lv zhai shi ji</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2648,12 +2648,1752 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>20241213</t>
+          <t>20241220</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>67593</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>京口遺音集</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>jing kou yi yin ji</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>67594</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>澡雪吟稾</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>zao xue yin gao</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>67595</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>澄秋閣詩集: 十二卷</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>cheng qiu ge shi ji</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>67596</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>論山詩文集</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>lun shan shi wen ji</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>67597</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>小齊雲山館詩鈔</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>xiao qi yun shan guan shi chao</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>67598</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>花韻山房集</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>hua yun shan fang ji</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>67599</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>白首江上集</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>bai shou jiang shang ji</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>67600</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>晨村集</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>chen cun ji</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>67601</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>櫧山艸堂詩稾</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>zhu shan cao tang shi gao</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>67602</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>寄漚閒舫詩鈔</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ji ou xian fang shi chao</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>67603</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>宜秋閣詩鈔</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>yi qiu ge shi chao</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>67604</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>雙梧集</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>shuang wu ji</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>67605</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>恬齋遺詩</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>tian zhai yi shi</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>67606</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>青棠館詩集</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>qing tang guan shi ji</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>67607</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>秋浦詩鈔</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>qiu pu shi chao</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>67608</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>澹芷詩鈔</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>dan zhi shi chao</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>67609</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>六觀齋詩集</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>liu guan zhai shi ji</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>67610</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>扶雲館詩</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>fu yun guan shi</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>67611</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>玉句草堂詩集</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>yu ju cao tang shi ji</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>67612</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>抱山堂詩選</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>bao shan tang shi xuan</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>67613</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>持雅堂集</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>chi ya tang ji</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>67614</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>味餘樓集</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>wei yu lou ji</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>67615</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>湘雪軒詩</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>xiang xue xuan shi</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>67616</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>富溪眺詠集</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>fu xi tiao yong ji</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>67617</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>聽松樓詩</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ting song lou shi</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>67618</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>雙蟾閣詩</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>shuang chan ge shi</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>67619</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>詅癡集</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ling chi ji</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>67620</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>江湖載酒吟</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>jiang hu zai jiu yin</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>67621</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>憑山草堂集</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ping shan cao tang ji</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>20241220</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X65"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67558</v>
+        <v>67623</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>水香園詩稿</t>
+          <t>碧雲詩集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>shui xiang yuan shi gao</t>
+          <t>bi yun shi ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67559</v>
+        <v>67624</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>冶城游草</t>
+          <t>古松山詩集</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ye cheng you cao</t>
+          <t>gu song shan shi ji</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67560</v>
+        <v>67625</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>滋蘭堂集</t>
+          <t>因樹樓集</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>zi lan tang ji</t>
+          <t>yin shu lou ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67561</v>
+        <v>67626</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>續黃山志</t>
+          <t>小涵吟稿</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>xu huang shan zhi</t>
+          <t>xiao han yin gao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,7 +761,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67562</v>
+        <v>67627</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>七峯草堂詩稿: 十卷</t>
+          <t>壺外集外集</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>qi feng cao tang shi gao</t>
+          <t>hu wai ji wai ji</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67563</v>
+        <v>67628</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>紅藥書莊詩</t>
+          <t>吟古鏡齋詩集</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hong yao shu zhuang shi</t>
+          <t>yin gu jing zhai shi ji</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,7 +881,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67564</v>
+        <v>67629</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>半舫齋稾</t>
+          <t>居易居不易居詩存</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ban fang zhai gao</t>
+          <t>ju yi ju bu yi ju shi cun</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67565</v>
+        <v>67630</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>用餘堂集</t>
+          <t>初桄齋詩集</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>yong yu tang ji</t>
+          <t>chu guang zhai shi ji</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67566</v>
+        <v>67631</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>若菴集</t>
+          <t>潔華館詩集</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ruo an ji</t>
+          <t>jie hua guan shi ji</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67567</v>
+        <v>67632</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>儷體文鈔</t>
+          <t>新安詩存</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>li ti wen chao</t>
+          <t>xin an shi cun</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67568</v>
+        <v>67633</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>昭明詩選輯注</t>
+          <t>蔭園詩鈔</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>zhao ming shi xuan ji zhu</t>
+          <t>yin yuan shi chao</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67569</v>
+        <v>67634</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>黃睡漫志</t>
+          <t>卷勺軒詩</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>huang shui man zhi</t>
+          <t>juan shao xuan shi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67570</v>
+        <v>67635</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>悔人草</t>
+          <t>晚香堂詩</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>hui ren cao</t>
+          <t>wan xiang tang shi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1301,7 +1301,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67571</v>
+        <v>67636</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>舍亭病餘錄</t>
+          <t>言情集</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>she ting bing yu lu</t>
+          <t>yan qing ji</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1361,7 +1361,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67572</v>
+        <v>67637</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>汪氏文獻錄</t>
+          <t>防山書屋詩集</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>wang shi wen xian lu</t>
+          <t>fang shan shu wu shi ji</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,14 +1421,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67573</v>
+        <v>67638</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>新安紀程</t>
+          <t>林下人詩集: 十二卷</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>xin an ji cheng</t>
+          <t>lin xia ren shi ji</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1481,14 +1481,14 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67574</v>
+        <v>67639</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>程槐堂詩文集</t>
+          <t>詩說</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>cheng huai tang shi wen ji</t>
+          <t>shi shuo</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1541,14 +1541,14 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67575</v>
+        <v>67640</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>牀風雨集</t>
+          <t>杜詩評選</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>chuang feng yu ji</t>
+          <t>du shi ping xuan</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67576</v>
+        <v>67641</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>粵遊草</t>
+          <t>盛唐詩選</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>yue you cao</t>
+          <t>sheng tang shi xuan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1661,7 +1661,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67577</v>
+        <v>67642</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>且隱軒詩集</t>
+          <t>保赤心書</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>qie yin xuan shi ji</t>
+          <t>bao chi xin shu</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>67578</v>
+        <v>67643</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>懲窒堂集</t>
+          <t>談兵省身錄</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cheng zhi tang ji</t>
+          <t>tan bing sheng shen lu</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67579</v>
+        <v>67644</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>拙巢詩集</t>
+          <t>禪機語錄</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>zhuo chao shi ji</t>
+          <t>chan ji yu lu</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1841,7 +1841,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67580</v>
+        <v>67645</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>藥蒻園稾</t>
+          <t>酒譜</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>yao ruo yuan gao</t>
+          <t>jiu pu</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>67581</v>
+        <v>67646</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>沐青樓集</t>
+          <t>小南海詩鈔</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>mu qing lou ji</t>
+          <t>xiao nan hai shi chao</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1961,7 +1961,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>67582</v>
+        <v>67647</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>箕薹詩鈔</t>
+          <t>吾好齋詩集</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ji tai shi chao</t>
+          <t>wu hao zhai shi ji</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2021,7 +2021,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>67583</v>
+        <v>67648</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>蜀游草</t>
+          <t>晴韻軒詩稿</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>shu you cao</t>
+          <t>qing yun xuan shi gao</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>67584</v>
+        <v>67649</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>露隱山房詩集</t>
+          <t>澹齋遺稿</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>lu yin shan fang shi ji</t>
+          <t>dan zhai yi gao</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>67585</v>
+        <v>67650</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>酣隱詩</t>
+          <t>病樹菴詩集</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>han yin shi</t>
+          <t>bing shu an shi ji</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2201,7 +2201,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>67586</v>
+        <v>67651</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>宛鳩居詩</t>
+          <t>餘力吟</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>wan jiu ju shi</t>
+          <t>yu li yin</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>67587</v>
+        <v>67652</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>清輝館集</t>
+          <t>山水間詩</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>qing hui guan ji</t>
+          <t>shan shui jian shi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2321,7 +2321,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>67588</v>
+        <v>67653</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>梅谷詩鈔</t>
+          <t>竹窗詞意</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>mei gu shi chao</t>
+          <t>zhu chuang ci yi</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>67589</v>
+        <v>67654</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>夕秀齋詩鈔</t>
+          <t>石壁山房集</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>xi xiu zhai shi chao</t>
+          <t>shi bi shan fang ji</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2441,7 +2441,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>67590</v>
+        <v>67655</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>重閬齋詩集</t>
+          <t>春曉堂集</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>zhong lang zhai shi ji</t>
+          <t>chun xiao tang ji</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>67591</v>
+        <v>67656</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>北溪草堂吟稾</t>
+          <t>鶴凌堂集</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>bei xi cao tang yin gao</t>
+          <t>he ling tang ji</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2561,7 +2561,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>67592</v>
+        <v>67657</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>寒綠齋詩集</t>
+          <t>曙戒軒詩</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>han lv zhai shi ji</t>
+          <t>shu jie xuan shi</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2621,7 +2621,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>67593</v>
+        <v>67658</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>京口遺音集</t>
+          <t>荔生詩草</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>jing kou yi yin ji</t>
+          <t>li sheng shi cao</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>67594</v>
+        <v>67659</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>澡雪吟稾</t>
+          <t>芝客詩鈔</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>zao xue yin gao</t>
+          <t>zhi ke shi chao</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>67595</v>
+        <v>67660</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>澄秋閣詩集: 十二卷</t>
+          <t>四松堂詩草</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>cheng qiu ge shi ji</t>
+          <t>si song tang shi cao</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>67596</v>
+        <v>67661</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>論山詩文集</t>
+          <t>雨窗隨筆</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>lun shan shi wen ji</t>
+          <t>yu chuang sui bi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>67597</v>
+        <v>67662</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>小齊雲山館詩鈔</t>
+          <t>怡雲集</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>xiao qi yun shan guan shi chao</t>
+          <t>yi yun ji</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67598</v>
+        <v>67663</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>花韻山房集</t>
+          <t>得貞草堂詩鈔</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>hua yun shan fang ji</t>
+          <t>de zhen cao tang shi chao</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2981,7 +2981,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>67599</v>
+        <v>67664</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>白首江上集</t>
+          <t>蘆洲遺草</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>bai shou jiang shang ji</t>
+          <t>lu zhou yi cao</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>67600</v>
+        <v>67665</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>晨村集</t>
+          <t>壽頭陀存稾</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>chen cun ji</t>
+          <t>shou tou tuo cun gao</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -3101,7 +3101,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67601</v>
+        <v>67666</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>櫧山艸堂詩稾</t>
+          <t>風山宦游草</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>zhu shan cao tang shi gao</t>
+          <t>feng shan huan you cao</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -3161,7 +3161,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>67602</v>
+        <v>67667</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>寄漚閒舫詩鈔</t>
+          <t>伊人詩草</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ji ou xian fang shi chao</t>
+          <t>yi ren shi cao</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -3221,7 +3221,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>67603</v>
+        <v>67668</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>宜秋閣詩鈔</t>
+          <t>也園草</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>yi qiu ge shi chao</t>
+          <t>ye yuan cao</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3281,7 +3281,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>67604</v>
+        <v>67669</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>雙梧集</t>
+          <t>霜橋行卷</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>shuang wu ji</t>
+          <t>shuang qiao xing juan</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3341,19 +3341,19 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67605</v>
+        <v>67670</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>恬齋遺詩</t>
+          <t>涵齋集</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>tian zhai yi shi</t>
+          <t>han zhai ji</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3401,7 +3401,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>67606</v>
+        <v>67671</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>青棠館詩集</t>
+          <t>漱潤書屋詩草</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>qing tang guan shi ji</t>
+          <t>shu run shu wu shi cao</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>67607</v>
+        <v>67672</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>秋浦詩鈔</t>
+          <t>退密軒草</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>qiu pu shi chao</t>
+          <t>tui mi xuan cao</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3521,7 +3521,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>67608</v>
+        <v>67673</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>澹芷詩鈔</t>
+          <t>粵遊吟草</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>dan zhi shi chao</t>
+          <t>yue you yin cao</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3581,7 +3581,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>67609</v>
+        <v>67674</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>六觀齋詩集</t>
+          <t>暢情書屋詩集</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>liu guan zhai shi ji</t>
+          <t>chang qing shu wu shi ji</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>67610</v>
+        <v>67675</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>扶雲館詩</t>
+          <t>逸齋詩稾</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>fu yun guan shi</t>
+          <t>yi zhai shi gao</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>67611</v>
+        <v>67676</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>玉句草堂詩集</t>
+          <t>葉生小稿</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>yu ju cao tang shi ji</t>
+          <t>ye sheng xiao gao</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>67612</v>
+        <v>67677</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>抱山堂詩選</t>
+          <t>欣所齋詩集</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>bao shan tang shi xuan</t>
+          <t>xin suo zhai shi ji</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3821,7 +3821,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -3857,16 +3857,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>67613</v>
+        <v>67678</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>持雅堂集</t>
+          <t>黃山記游詩</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>chi ya tang ji</t>
+          <t>huang shan ji you shi</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3881,7 +3881,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -3917,16 +3917,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>67614</v>
+        <v>67679</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>味餘樓集</t>
+          <t>檢非齋吟草</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>wei yu lou ji</t>
+          <t>jian fei zhai yin cao</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
@@ -3977,16 +3977,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>67615</v>
+        <v>67680</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>湘雪軒詩</t>
+          <t>十畝園詩稾</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>xiang xue xuan shi</t>
+          <t>shi mu yuan shi gao</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -4037,16 +4037,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67616</v>
+        <v>67681</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>富溪眺詠集</t>
+          <t>白蝠仙館詩集</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>fu xi tiao yong ji</t>
+          <t>bai fu xian guan shi ji</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -4097,16 +4097,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>67617</v>
+        <v>67682</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>聽松樓詩</t>
+          <t>韻松日記</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ting song lou shi</t>
+          <t>yun song ri ji</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
@@ -4157,16 +4157,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>67618</v>
+        <v>67683</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>雙蟾閣詩</t>
+          <t>天原發微辨</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>shuang chan ge shi</t>
+          <t>tian yuan fa wei bian</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -4208,192 +4208,12 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>20241220</t>
+          <t>20250102</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>67619</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>詅癡集</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>ling chi ji</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>20241220</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>67620</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>江湖載酒吟</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>jiang hu zai jiu yin</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>20241220</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>67621</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>憑山草堂集</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>ping shan cao tang ji</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>20241220</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67685</v>
+        <v>67707</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>蘭谷集</t>
+          <t>滌露集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lan gu ji</t>
+          <t>di lu ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67686</v>
+        <v>67708</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南華註詩文</t>
+          <t>軒轅閣詩集</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nan hua zhu shi wen</t>
+          <t>xuan yuan ge shi ji</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67687</v>
+        <v>67709</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>汭沙草</t>
+          <t>川上草</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rui sha cao</t>
+          <t>chuan shang cao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -708,7 +708,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67688</v>
+        <v>67710</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>易解莊通</t>
+          <t>湖上草</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>yi jie zhuang tong</t>
+          <t>hu shang cao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,7 +761,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67689</v>
+        <v>67711</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>硯史</t>
+          <t>岑山詩</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>yan shi</t>
+          <t>cen shan shi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -828,7 +828,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67690</v>
+        <v>67712</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>丹石齋史論</t>
+          <t>宛陵詩</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>dan shi zhai shi lun</t>
+          <t>wan ling shi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67691</v>
+        <v>67713</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>沈史越吟</t>
+          <t>省靜堂集</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>shen shi yue yin</t>
+          <t>sheng jing tang ji</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67692</v>
+        <v>67714</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>苦竹軒詩</t>
+          <t>汰錦詞</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ku zhu xuan shi</t>
+          <t>tai jin ci</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67693</v>
+        <v>67715</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>黔蜀二遊草</t>
+          <t>池上居詩</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>qian shu er you cao</t>
+          <t>chi shang ju shi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1061,14 +1061,14 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67694</v>
+        <v>67716</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>詩禪珮觹</t>
+          <t>三十二蓮峯詩草</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>shi chan pei xi</t>
+          <t>san shi er lian feng shi cao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,14 +1121,14 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67695</v>
+        <v>67717</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>二汪戴經集註</t>
+          <t>蕭然吟</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>er wang dai jing ji zhu</t>
+          <t>xiao ran yin</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67696</v>
+        <v>67718</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>滇南日記</t>
+          <t>悟雪草堂集</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dian nan ri ji</t>
+          <t>wu xue cao tang ji</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1241,14 +1241,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67697</v>
+        <v>67719</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>心遠堂詩</t>
+          <t>古今四略: 四卷</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>xin yuan tang shi</t>
+          <t>gu jin si lve</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67698</v>
+        <v>67720</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>剪蕉初集</t>
+          <t>江村詩草</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>jian jiao chu ji</t>
+          <t>jiang cun shi cao</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67699</v>
+        <v>67721</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蕉園雜志</t>
+          <t>赤岸詩稿</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>jiao yuan za zhi</t>
+          <t>chi an shi gao</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67700</v>
+        <v>67722</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>樗菴集</t>
+          <t>善愁堂集</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>chu an ji</t>
+          <t>shan chou tang ji</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67701</v>
+        <v>67723</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>友林漫言</t>
+          <t>蠖菴集</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>you lin man yan</t>
+          <t>huo an ji</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1541,7 +1541,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67702</v>
+        <v>67724</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>春秋四傳輯言</t>
+          <t>豐溪集</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>chun qiu si chuan ji yan</t>
+          <t>feng xi ji</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67703</v>
+        <v>67725</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>五代史歎</t>
+          <t>曉山詩集</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>wu dai shi tan</t>
+          <t>xiao shan shi ji</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1661,14 +1661,14 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67704</v>
+        <v>67726</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>周禮考工辨</t>
+          <t>香杖軒草</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>zhou li kao gong bian</t>
+          <t>xiang zhang xuan cao</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>67705</v>
+        <v>67727</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>翁山集</t>
+          <t>清話堂詩稿</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>weng shan ji</t>
+          <t>qing hua tang shi gao</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1808,12 +1808,192 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20250110</t>
+          <t>20250117</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>67728</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>光霽軒集</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>guang ji xuan ji</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>20250117</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>67729</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>三審齋文集</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>san shen zhai wen ji</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>20250117</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>67730</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>白雲集</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>bai yun ji</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>20250117</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,12 +561,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>滌露集</t>
+          <t>五垣奏議</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di lu ji</t>
+          <t>wu yuan zou yi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -621,12 +621,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>軒轅閣詩集</t>
+          <t>滌元館稿</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>xuan yuan ge shi ji</t>
+          <t>di yuan guan gao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -681,12 +681,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>川上草</t>
+          <t>尙友集</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>chuan shang cao</t>
+          <t>shang you ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -741,12 +741,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>湖上草</t>
+          <t>星軺草</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hu shang cao</t>
+          <t>xing yao cao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -801,12 +801,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>岑山詩</t>
+          <t>忠勤堂集</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>cen shan shi</t>
+          <t>zhong qin tang ji</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -821,7 +821,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -861,12 +861,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>宛陵詩</t>
+          <t>澄清堂稿</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>wan ling shi</t>
+          <t>cheng qing tang gao</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,7 +881,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -921,12 +921,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>省靜堂集</t>
+          <t>畿省奏疏</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sheng jing tang ji</t>
+          <t>ji sheng zou shu</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -981,12 +981,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>汰錦詞</t>
+          <t>教養錄</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>tai jin ci</t>
+          <t>jiao yang lu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>池上居詩</t>
+          <t>荒政要錄</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>chi shang ju shi</t>
+          <t>huang zheng yao lu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>三十二蓮峯詩草</t>
+          <t>鄉約從先錄</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>san shi er lian feng shi cao</t>
+          <t>xiang yue cong xian lu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>蕭然吟</t>
+          <t>二峯集</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>xiao ran yin</t>
+          <t>er feng ji</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1181,19 +1181,19 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>悟雪草堂集</t>
+          <t>河東奏議</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>wu xue cao tang ji</t>
+          <t>he dong zou yi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1241,19 +1241,19 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>古今四略: 四卷</t>
+          <t>豁冤錄</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gu jin si lve</t>
+          <t>huo yuan lu</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1341,12 +1341,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>江村詩草</t>
+          <t>四書宗旨</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>jiang cun shi cao</t>
+          <t>si shu zong zhi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1361,7 +1361,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>赤岸詩稿</t>
+          <t>書經主意</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>chi an shi gao</t>
+          <t>shu jing zhu yi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>善愁堂集</t>
+          <t>公餘草就</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>shan chou tang ji</t>
+          <t>gong yu cao jiu</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>蠖菴集</t>
+          <t>上計隨筆</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>huo an ji</t>
+          <t>shang ji sui bi</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1541,7 +1541,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>豐溪集</t>
+          <t>善惡報應錄</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>feng xi ji</t>
+          <t>shan e bao ying lu</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>曉山詩集</t>
+          <t>淑艾齋尺牘</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>xiao shan shi ji</t>
+          <t>shu ai zhai chi du</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1661,19 +1661,19 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>香杖軒草</t>
+          <t>惠來志</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>xiang zhang xuan cao</t>
+          <t>hui lai zhi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>清話堂詩稿</t>
+          <t>四書訓兒語錄</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>qing hua tang shi gao</t>
+          <t>si shu xun er yu lu</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>光霽軒集</t>
+          <t>中晚唐詩抄</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>guang ji xuan ji</t>
+          <t>zhong wan tang shi chao</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1841,7 +1841,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>三審齋文集</t>
+          <t>霞汀詩餘</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>san shen zhai wen ji</t>
+          <t>xia ting shi yu</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1901,7 +1901,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -1941,12 +1941,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>白雲集</t>
+          <t>太素脈訣經驗方</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>bai yun ji</t>
+          <t>tai su mai jue jing yan fang</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1961,7 +1961,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1988,12 +1988,4452 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20250117</t>
+          <t>20250124</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>67731</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>外科祕要</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>wai ke mi yao</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>67732</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>脈證治方</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>mai zheng zhi fang</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>67733</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>養生類要</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>yang sheng lei yao</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>67734</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>虛車錄</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>xu che lu</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>67735</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>活人心鑑</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>huo ren xin jian</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>67736</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>傷寒便覽</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>shang han bian lan</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>67737</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>醫驗錄</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>yi yan lu</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>67738</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>傷寒翼</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>shang han yi</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>67739</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>醫方考</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>yi fang kao</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>67740</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>保嬰全書</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>bao ying quan shu</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>67741</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>醫薈</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>yi hui</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>67742</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>醫學理論</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>yi xue li lun</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>67743</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>傷寒辨論</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>shang han bian lun</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>67744</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>傷寒考證</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>shang han kao zheng</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>67745</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>（萬曆）祁門縣志</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>（ wan li ） qi men xian zhi</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>67746</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>北山文集</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>bei shan wen ji</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>67747</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>讀史纂要</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>du shi zuan yao</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>67748</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>理學精義解</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>li xue jing yi jie</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>67749</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>崇仁堂奏疏</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>chong ren tang zou shu</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>67750</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>偶吟</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ou yin</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>67751</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>知姚問答</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>zhi yao wen da</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>67752</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>悟道詩</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>wu dao shi</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>67753</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>問古節烈集</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>wen gu jie lie ji</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>67754</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>蘭臺疏稿</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>lan tai shu gao</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>67755</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>督撫奏議</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>du fu zou yi</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>67756</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>編垣圖記</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>bian yuan tu ji</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>67757</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>王學類禪臆斷</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>wang xue lei chan yi duan</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>67758</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>四書正義</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>si shu zheng yi</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>67759</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>黄白山樵文集</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>huang bai shan qiao wen ji</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>67760</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>投湘草</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>tou xiang cao</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>67761</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>梁園遊草</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>liang yuan you cao</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>67762</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>易頌</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>yi song</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>67763</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>易疑</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>yi yi</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>67764</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>易指要繹</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>yi zhi yao yi</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>67765</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>易引</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>yi yin</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>67766</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>易學述談</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>yi xue shu tan</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>67767</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>易通圖説</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>yi tong tu shuo</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>67768</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>大定數</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>da ding shu</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>67769</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>太素脈訣</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>tai su mai jue</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>67770</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>醫學心悟: 四卷</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>yi xue xin wu</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>67771</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>外科十法: 一卷</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>wai ke shi fa</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67772</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>時疫類方: 四卷</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>shi yi lei fang</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67773</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>證治闡微: 四卷</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>zheng zhi chan wei</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67774</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>痲證全編: 二卷</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ma zheng quan bian</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>67775</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>金鏡錄注釋: 三卷</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>jin jing lu zhu shi</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>67776</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>痘決: 三卷</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>dou jue</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>67777</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>小兒諸症辨: 一卷</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>xiao er zhu zheng bian</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>67778</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>橡村治驗: 一卷</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>xiang cun zhi yan</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>67779</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>廣陵醫案</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>guang ling yi an</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>67780</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>新安醫案</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>xin an yi an</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>67781</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>瘡瘍經驗: 四卷</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>chuang yang jing yan</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>67782</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>鄭氏生生錄</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>zheng shi sheng sheng lu</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>67783</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>傷寒訣</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>shang han jue</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>67784</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>傷寒變論</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>shang han bian lun</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>67785</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>方症會要</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>fang zheng hui yao</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>67786</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>蘊齋醫案</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>yun zhai yi an</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>67787</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>樂靜詩文稿</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>le jing shi wen gao</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>67788</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>易醫格物編: 四卷</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>yi yi ge wu bian</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>67789</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>重樓玉鑰</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>zhong lou yu yao</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>67790</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>咽喉辨證</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>yan hou bian zheng</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>67791</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>白喉闡微</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>bai hou chan wei</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>67792</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>痘科秘奧</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>dou ke mi ao</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>67793</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>熟地黃論</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>shu di huang lun</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>67794</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>傷寒金匱經方</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>shang han jin gui jing fang</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>67795</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>簡易歌括醫匯</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>jian yi ge kuo yi hui</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>67796</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>簡切醫學正義</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>jian qie yi xue zheng yi</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>67797</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>痘治正名類參</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>dou zhi zheng ming lei can</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>67798</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>愚慮醫草</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>yu lv yi cao</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>67799</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>喉菌發明</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>hou jun fa ming</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>67800</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>靈素湯液溯原</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ling su tang ye su yuan</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>67801</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>喉科祕鑰</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>hou ke mi yao</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>67802</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>鄭氏先德錄</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>zheng shi xian de lu</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>67803</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>病理藥性集韻</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>bing li yao xing ji yun</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>67804</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>叶調詳釋</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ye diao xiang shi</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67806</v>
+        <v>67809</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中国翻译家词典</t>
+          <t>抑隅堂醫案</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>zhong guo fan yi jia ci dian</t>
+          <t>yi yu tang yi an</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -588,12 +588,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250131</t>
+          <t>20250207</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67807</v>
+        <v>67810</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中国科技翻译家辞典</t>
+          <t>瘍科外治驗方</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>zhong guo ke ji fan yi jia ci dian</t>
+          <t>yang ke wai zhi yan fang</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -648,12 +648,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,12 +668,612 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250131</t>
+          <t>20250207</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>67811</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>錦囊醫話</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jin nang yi hua</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>67812</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>喉科詳略</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>hou ke xiang lve</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>67813</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>婦科闡微</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fu ke chan wei</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>67814</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>幼科簡便良方</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>you ke jian bian liang fang</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>67815</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>墨羅痧問</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mo luo sha wen</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>67816</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>星軺避暑錄</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>xing yao bi shu lu</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>67817</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>曇華書屋遺稿</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>tan hua shu wu yi gao</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>67818</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>印文輯韻</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>yin wen ji yun</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>67819</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>函齋文稿</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>han zhai wen gao</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>67820</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>茹古齋稿</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ru gu zhai gao</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67822</v>
+        <v>67824</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>明清戲曲序跋纂箋</t>
+          <t>性理正說</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ming qing xi qu xu ba zuan jian</t>
+          <t>xing li zheng shuo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -588,12 +588,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,12 +608,852 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250214</t>
+          <t>20250221</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>67825</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>尙書講義</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>shang shu jiang yi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>67826</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>四香堂摹印</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>si xiang tang mo yin</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>67827</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>名手寫隸法彙纂: 十卷</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ming shou xie li fa hui zuan</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>67828</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>伊蔚齋印譜</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>yi wei zhai yin pu</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>67829</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>黃山印冊</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>huang shan yin ce</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>67830</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>印譜</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>yin pu</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>67831</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>硯譜</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>yan pu</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>67832</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>嶺雲詞</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ling yun ci</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>67833</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>木雁齋雜著</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>mu yan zhai za zhu</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>67834</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>歙縣天文志</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>she xian tian wen zhi</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>67835</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>九千三百五十三字齋印譜</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>jiu qian san bai wu shi san zi zhai yin pu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>67836</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>金石過眼錄</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>jin shi guo yan lu</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>67837</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>抱虛室印存</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bao xu shi yin cun</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>67838</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>庸叟書畫集</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>yong sou shu hua ji</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67840</v>
+        <v>67844</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中國美術家大辭典</t>
+          <t>諫垣草疏</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>zhong guo mei shu jia da ci dian</t>
+          <t>jian yuan cao shu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -588,12 +588,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250228</t>
+          <t>20250307</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67841</v>
+        <v>67845</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>明代職官年表</t>
+          <t>經畧問奇</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ming dai zhi guan nian biao</t>
+          <t>jing lve wen qi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -648,12 +648,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250228</t>
+          <t>20250307</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67842</v>
+        <v>67846</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>明代文人結社考</t>
+          <t>輪飛陣法</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ming dai wen ren jie she kao</t>
+          <t>lun fei zhen fa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -708,12 +708,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,12 +728,1092 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250228</t>
+          <t>20250307</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>67847</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>巷語</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>xiang yu</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>67848</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>書傳刪補菉</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>shu chuan shan bu lu</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>67849</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>漪園集</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>yi yuan ji</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>67850</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>閩讞漫記</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>min yan man ji</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>67851</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>詩經講意</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>shi jing jiang yi</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>67852</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>魯瞻文集</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>lu zhan wen ji</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>67853</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>經書疑義</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>jing shu yi yi</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>67854</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>三教測</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>san jiao ce</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>67855</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>三才蠡測</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>san cai li ce</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>67856</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>潯關雜詠</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>xun guan za yong</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>67857</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>星槎集</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>xing cha ji</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>67858</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>夢莊詩草</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>meng zhuang shi cao</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>67859</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>秋水堂集</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>qiu shui tang ji</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>67860</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>汪子寐語</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>wang zi mei yu</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>67861</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>留臺疏草</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>liu tai shu cao</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>67862</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>燕邸紀聞</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>yan di ji wen</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>67863</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>四書五經述解</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>si shu wu jing shu jie</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>67864</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>唐詩類苑</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>tang shi lei yuan</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67844</v>
+        <v>67846</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>諫垣草疏</t>
+          <t>蘭藻堂集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jian yuan cao shu</t>
+          <t>lan zao tang ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,19 +581,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67845</v>
+        <v>67847</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>經畧問奇</t>
+          <t>蘊亭詩稿</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>jing lve wen qi</t>
+          <t>yun ting shi gao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,19 +641,19 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67846</v>
+        <v>67848</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>輪飛陣法</t>
+          <t>鄧尉山房集</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lun fei zhen fa</t>
+          <t>deng wei shan fang ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,19 +701,19 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67847</v>
+        <v>67849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>巷語</t>
+          <t>文選精寶</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>xiang yu</t>
+          <t>wen xuan jing bao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -768,12 +768,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>64847</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67848</v>
+        <v>67850</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>書傳刪補菉</t>
+          <t>山居雪課</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>shu chuan shan bu lu</t>
+          <t>shan ju xue ke</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67849</v>
+        <v>67851</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>漪園集</t>
+          <t>貝研齋詩集</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>yi yuan ji</t>
+          <t>bei yan zhai shi ji</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67850</v>
+        <v>67852</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>閩讞漫記</t>
+          <t>鳳皇媒傳奇</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>min yan man ji</t>
+          <t>feng huang mei chuan qi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67851</v>
+        <v>67853</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>詩經講意</t>
+          <t>羣經本義</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>shi jing jiang yi</t>
+          <t>qun jing ben yi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1008,12 +1008,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67852</v>
+        <v>67854</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>魯瞻文集</t>
+          <t>史類編年</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>lu zhan wen ji</t>
+          <t>shi lei bian nian</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1061,19 +1061,19 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67853</v>
+        <v>67855</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>經書疑義</t>
+          <t>洪範皇極內篇解</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>jing shu yi yi</t>
+          <t>hong fan huang ji nei pian jie</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1128,12 +1128,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67854</v>
+        <v>67856</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>三教測</t>
+          <t>河圖洛書辨</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>san jiao ce</t>
+          <t>he tu luo shu bian</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1188,12 +1188,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67855</v>
+        <v>67857</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>三才蠡測</t>
+          <t>理學淵源論</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>san cai li ce</t>
+          <t>li xue yuan yuan lun</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1248,12 +1248,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67856</v>
+        <v>67858</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>潯關雜詠</t>
+          <t>金石考</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>xun guan za yong</t>
+          <t>jin shi kao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1308,12 +1308,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1328,492 +1328,12 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250307</t>
+          <t>20250317</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>67857</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>星槎集</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>xing cha ji</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>20250307</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>67858</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>夢莊詩草</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>meng zhuang shi cao</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>20250307</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>67859</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>秋水堂集</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>qiu shui tang ji</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>20250307</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>67860</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>汪子寐語</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>wang zi mei yu</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>20250307</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>67861</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>留臺疏草</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>liu tai shu cao</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>20250307</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>67862</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>燕邸紀聞</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>yan di ji wen</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>20250307</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>67863</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>四書五經述解</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>si shu wu jing shu jie</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>20250307</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>67864</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>唐詩類苑</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>tang shi lei yuan</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>20250307</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67846</v>
+        <v>67861</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>蘭藻堂集</t>
+          <t>潭濱雜志</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lan zao tang ji</t>
+          <t>tan bin za zhi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250317</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67847</v>
+        <v>67862</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>蘊亭詩稿</t>
+          <t>納瓢吟</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>yun ting shi gao</t>
+          <t>na piao yin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250317</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67848</v>
+        <v>67863</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>鄧尉山房集</t>
+          <t>無聲集</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>deng wei shan fang ji</t>
+          <t>wu sheng ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250317</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67849</v>
+        <v>67864</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>文選精寶</t>
+          <t>且閒軒稿</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>wen xuan jing bao</t>
+          <t>qie xian xuan gao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,19 +761,19 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>64847</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250317</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67850</v>
+        <v>67865</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>山居雪課</t>
+          <t>南山樵隱詩: 二卷</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>shan ju xue ke</t>
+          <t>nan shan qiao yin shi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -828,7 +828,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250317</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67851</v>
+        <v>67866</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>貝研齋詩集</t>
+          <t>香葉草堂詩存</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bei yan zhai shi ji</t>
+          <t>xiang ye cao tang shi cun</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,14 +881,14 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250317</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67852</v>
+        <v>67867</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>鳳皇媒傳奇</t>
+          <t>巢林集</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>feng huang mei chuan qi</t>
+          <t>chao lin ji</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,14 +941,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250317</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67853</v>
+        <v>67868</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>羣經本義</t>
+          <t>聽雨樓詩稿</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>qun jing ben yi</t>
+          <t>ting yu lou shi gao</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,19 +1001,19 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250317</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67854</v>
+        <v>67869</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>史類編年</t>
+          <t>蒹浦叢書</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>shi lei bian nian</t>
+          <t>jian pu cong shu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1068,12 +1068,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250317</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67855</v>
+        <v>67870</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>洪範皇極內篇解</t>
+          <t>寒衾集: 一卷</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>hong fan huang ji nei pian jie</t>
+          <t>han qin ji</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,19 +1121,19 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,192 +1148,12 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250317</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>67856</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>河圖洛書辨</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>he tu luo shu bian</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>20250317</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>67857</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>理學淵源論</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>li xue yuan yuan lun</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>20250317</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>67858</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>金石考</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>jin shi kao</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>20250317</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67861</v>
+        <v>67872</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>潭濱雜志</t>
+          <t>諫垣草疏</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tan bin za zhi</t>
+          <t>jian yuan cao shu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -588,12 +588,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250321</t>
+          <t>20250331</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67862</v>
+        <v>67873</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>納瓢吟</t>
+          <t>經畧問奇</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>na piao yin</t>
+          <t>jing lve wen qi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -648,12 +648,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250321</t>
+          <t>20250331</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67863</v>
+        <v>67874</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>無聲集</t>
+          <t>輪飛陣法</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>wu sheng ji</t>
+          <t>lun fei zhen fa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,19 +701,19 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250321</t>
+          <t>20250331</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67864</v>
+        <v>67875</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>且閒軒稿</t>
+          <t>巷語</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>qie xian xuan gao</t>
+          <t>xiang yu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,19 +761,19 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250321</t>
+          <t>20250331</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67865</v>
+        <v>67876</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>南山樵隱詩: 二卷</t>
+          <t>書傳刪補菉</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>nan shan qiao yin shi</t>
+          <t>shu chuan shan bu lu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -828,12 +828,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250321</t>
+          <t>20250331</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67866</v>
+        <v>67877</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>香葉草堂詩存</t>
+          <t>漪園集</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>xiang ye cao tang shi cun</t>
+          <t>yi yuan ji</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,19 +881,19 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250321</t>
+          <t>20250331</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67867</v>
+        <v>67878</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>巢林集</t>
+          <t>閩讞漫記</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>chao lin ji</t>
+          <t>min yan man ji</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,19 +941,19 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250321</t>
+          <t>20250331</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67868</v>
+        <v>67879</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>聽雨樓詩稿</t>
+          <t>詩經講意</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ting yu lou shi gao</t>
+          <t>shi jing jiang yi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,19 +1001,19 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250321</t>
+          <t>20250331</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67869</v>
+        <v>67880</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>蒹浦叢書</t>
+          <t>魯瞻文集</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>jian pu cong shu</t>
+          <t>lu zhan wen ji</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1061,19 +1061,19 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250321</t>
+          <t>20250331</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67870</v>
+        <v>67881</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>寒衾集: 一卷</t>
+          <t>經書疑義</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>han qin ji</t>
+          <t>jing shu yi yi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,19 +1121,19 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,12 +1148,672 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250321</t>
+          <t>20250331</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>67882</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>三教測</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>san jiao ce</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>67883</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>三才蠡測</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>san cai li ce</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>67884</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>潯關雜詠</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>xun guan za yong</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>67885</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>星槎集</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>xing cha ji</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>67886</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>夢莊詩草</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>meng zhuang shi cao</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>67887</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>秋水堂集</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>qiu shui tang ji</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>67888</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>汪子寐語</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>wang zi mei yu</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>67889</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>留臺疏草</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>liu tai shu cao</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>67890</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>燕邸紀聞</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>yan di ji wen</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>67891</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>四書五經述解</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>si shu wu jing shu jie</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>67892</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>唐詩類苑</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>tang shi lei yuan</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67872</v>
+        <v>67895</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>諫垣草疏</t>
+          <t>宋史稿: 一百七十卷</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jian yuan cao shu</t>
+          <t>song shi gao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,19 +581,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67873</v>
+        <v>67896</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>經畧問奇</t>
+          <t>歙浦餘輝錄</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>jing lve wen qi</t>
+          <t>she pu yu hui lu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -648,12 +648,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67874</v>
+        <v>67897</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>輪飛陣法</t>
+          <t>聽秋齋詩: 二卷</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lun fei zhen fa</t>
+          <t>ting qiu zhai shi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -708,12 +708,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67875</v>
+        <v>67898</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>巷語</t>
+          <t>讀易軒詩存</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>xiang yu</t>
+          <t>du yi xuan shi cun</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -768,12 +768,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67876</v>
+        <v>67899</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>書傳刪補菉</t>
+          <t>曠盧書畫舫</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>shu chuan shan bu lu</t>
+          <t>kuang lu shu hua fang</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -828,12 +828,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67877</v>
+        <v>67900</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>漪園集</t>
+          <t>蓬壺軒稿</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>yi yuan ji</t>
+          <t>peng hu xuan gao</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67878</v>
+        <v>67901</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>閩讞漫記</t>
+          <t>汪尹子印識: 四卷</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>min yan man ji</t>
+          <t>wang yin zi yin shi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67879</v>
+        <v>67902</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>詩經講意</t>
+          <t>紅术軒印範: 一卷</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>shi jing jiang yi</t>
+          <t>hong shu xuan yin fan</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1008,12 +1008,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67880</v>
+        <v>67903</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>魯瞻文集</t>
+          <t>紅术軒山水篆冊: 四卷</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>lu zhan wen ji</t>
+          <t>hong shu xuan shan shui zhuan ce</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1061,19 +1061,19 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67881</v>
+        <v>67904</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>經書疑義</t>
+          <t>稽古堂印譜</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>jing shu yi yi</t>
+          <t>ji gu tang yin pu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1128,12 +1128,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67882</v>
+        <v>67905</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>三教測</t>
+          <t>鏡潭印賞: 十卷</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>san jiao ce</t>
+          <t>jing tan yin shang</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1188,12 +1188,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67883</v>
+        <v>67906</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>三才蠡測</t>
+          <t>臨飛鴻堂: 八卷</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>san cai li ce</t>
+          <t>lin fei hong tang</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1248,12 +1248,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67884</v>
+        <v>67907</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>潯關雜詠</t>
+          <t>十友齋印賞</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>xun guan za yong</t>
+          <t>shi you zhai yin shang</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1308,12 +1308,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67885</v>
+        <v>67908</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>星槎集</t>
+          <t>四軌園印林</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>xing cha ji</t>
+          <t>si gui yuan yin lin</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1361,19 +1361,19 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67886</v>
+        <v>67909</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>夢莊詩草</t>
+          <t>述古堂印譜: 二十四卷</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>meng zhuang shi cao</t>
+          <t>shu gu tang yin pu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,19 +1421,19 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67887</v>
+        <v>67910</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>秋水堂集</t>
+          <t>劍庵印存: 四卷</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>qiu shui tang ji</t>
+          <t>jian an yin cun</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1481,19 +1481,19 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67888</v>
+        <v>67911</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>汪子寐語</t>
+          <t>心經印譜: 一卷</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>wang zi mei yu</t>
+          <t>xin jing yin pu</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1548,12 +1548,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67889</v>
+        <v>67912</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>留臺疏草</t>
+          <t>印事所知: 一卷</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>liu tai shu cao</t>
+          <t>yin shi suo zhi</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1601,19 +1601,19 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1628,192 +1628,12 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250404</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>67890</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>燕邸紀聞</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>yan di ji wen</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>20250331</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>67891</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>四書五經述解</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>si shu wu jing shu jie</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>20250331</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>67892</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>唐詩類苑</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>tang shi lei yuan</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>20250331</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67895</v>
+        <v>67916</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>宋史稿: 一百七十卷</t>
+          <t>治齋集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>song shi gao</t>
+          <t>zhi zhai ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -588,12 +588,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67896</v>
+        <v>67917</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>歙浦餘輝錄</t>
+          <t>石癲印草</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>she pu yu hui lu</t>
+          <t>shi dian yin cao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67897</v>
+        <v>67918</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>聽秋齋詩: 二卷</t>
+          <t>頑石山房印存</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ting qiu zhai shi</t>
+          <t>wan shi shan fang yin cun</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67898</v>
+        <v>67919</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>讀易軒詩存</t>
+          <t>肖石印存</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>du yi xuan shi cun</t>
+          <t>xiao shi yin cun</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67899</v>
+        <v>67920</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>曠盧書畫舫</t>
+          <t>雲間顧氏印譜</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>kuang lu shu hua fang</t>
+          <t>yun jian gu shi yin pu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -828,7 +828,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67900</v>
+        <v>67921</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>蓬壺軒稿</t>
+          <t>海陽吳氏印譜</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>peng hu xuan gao</t>
+          <t>hai yang wu shi yin pu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,7 +881,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67901</v>
+        <v>67922</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>汪尹子印識: 四卷</t>
+          <t>程氏墨苑: 十二卷</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>wang yin zi yin shi</t>
+          <t>cheng shi mo yuan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67902</v>
+        <v>67923</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>紅术軒印範: 一卷</t>
+          <t>幼博集</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>hong shu xuan yin fan</t>
+          <t>you bo ji</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,14 +1001,14 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67903</v>
+        <v>67924</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>紅术軒山水篆冊: 四卷</t>
+          <t>圜中草</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>hong shu xuan shan shui zhuan ce</t>
+          <t>huan zhong cao</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1061,14 +1061,14 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67904</v>
+        <v>67925</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>稽古堂印譜</t>
+          <t>方氏墨譜: 六卷</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ji gu tang yin pu</t>
+          <t>fang shi mo pu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67905</v>
+        <v>67926</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>鏡潭印賞: 十卷</t>
+          <t>佳日樓詩集: 十二卷</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>jing tan yin shang</t>
+          <t>jia ri lou shi ji</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1181,14 +1181,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67906</v>
+        <v>67927</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>臨飛鴻堂: 八卷</t>
+          <t>佳日樓詩集續集: 一卷</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>lin fei hong tang</t>
+          <t>jia ri lou shi ji xu ji</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1241,14 +1241,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67907</v>
+        <v>67928</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>十友齋印賞</t>
+          <t>曹氏墨林: 二卷</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>shi you zhai yin shang</t>
+          <t>cao shi mo lin</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67908</v>
+        <v>67929</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>四軌園印林</t>
+          <t>鑑古齋墨藪</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>si gui yuan yin lin</t>
+          <t>jian gu zhai mo sou</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67909</v>
+        <v>67930</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>述古堂印譜: 二十四卷</t>
+          <t>太古遺音</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>shu gu tang yin pu</t>
+          <t>tai gu yi yin</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1428,7 +1428,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67910</v>
+        <v>67931</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>劍庵印存: 四卷</t>
+          <t>誠一堂琴譜</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>jian an yin cun</t>
+          <t>cheng yi tang qin pu</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67911</v>
+        <v>67932</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>心經印譜: 一卷</t>
+          <t>太古元音琴譜</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>xin jing yin pu</t>
+          <t>tai gu yuan yin qin pu</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67912</v>
+        <v>67933</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>印事所知: 一卷</t>
+          <t>桐園草堂琴譜</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>yin shi suo zhi</t>
+          <t>tong yuan cao tang qin pu</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1628,12 +1628,72 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20250404</t>
+          <t>20250411</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>67934</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>眉山墅隱弈譜</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>mei shan shu yin yi pu</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,12 +561,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>治齋集</t>
+          <t>不古編弈譜</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>zhi zhai ji</t>
+          <t>bu gu bian yi pu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,19 +581,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>65192</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250411</t>
+          <t>20250418</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -621,12 +621,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>石癲印草</t>
+          <t>晚香亭弈譜</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>shi dian yin cao</t>
+          <t>wan xiang ting yi pu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250411</t>
+          <t>20250418</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -681,12 +681,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>頑石山房印存</t>
+          <t>弈人傳</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>wan shi shan fang yin cun</t>
+          <t>yi ren chuan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250411</t>
+          <t>20250418</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -741,12 +741,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>肖石印存</t>
+          <t>蛀弈簃錄</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>xiao shi yin cun</t>
+          <t>zhu yi yi lu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250411</t>
+          <t>20250418</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -801,12 +801,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>雲間顧氏印譜</t>
+          <t>堪輿正論</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>yun jian gu shi yin pu</t>
+          <t>kan yu zheng lun</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -828,7 +828,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250411</t>
+          <t>20250418</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -861,12 +861,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>海陽吳氏印譜</t>
+          <t>地理舉隅</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hai yang wu shi yin pu</t>
+          <t>di li ju yu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250411</t>
+          <t>20250418</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -921,12 +921,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>程氏墨苑: 十二卷</t>
+          <t>一粒粟</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cheng shi mo yuan</t>
+          <t>yi li su</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250411</t>
+          <t>20250418</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -981,12 +981,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>幼博集</t>
+          <t>湖湘遊草</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>you bo ji</t>
+          <t>hu xiang you cao</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250411</t>
+          <t>20250418</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>圜中草</t>
+          <t>嶽麓吟</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>huan zhong cao</t>
+          <t>yue lu yin</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1061,7 +1061,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250411</t>
+          <t>20250418</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>方氏墨譜: 六卷</t>
+          <t>采藻軒稿</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>fang shi mo pu</t>
+          <t>cai zao xuan gao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1148,552 +1148,12 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250411</t>
+          <t>20250418</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>67926</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>佳日樓詩集: 十二卷</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>jia ri lou shi ji</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>20250411</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>67927</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>佳日樓詩集續集: 一卷</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>jia ri lou shi ji xu ji</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>20250411</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>67928</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>曹氏墨林: 二卷</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>cao shi mo lin</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>20250411</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>67929</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>鑑古齋墨藪</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>jian gu zhai mo sou</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>20250411</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>67930</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>太古遺音</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>tai gu yi yin</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>20250411</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>67931</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>誠一堂琴譜</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>cheng yi tang qin pu</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>20250411</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>67932</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>太古元音琴譜</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>tai gu yuan yin qin pu</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>20250411</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>67933</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>桐園草堂琴譜</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>tong yuan cao tang qin pu</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>20250411</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>67934</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>眉山墅隱弈譜</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>mei shan shu yin yi pu</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>65192</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>20250411</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,12 +561,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>不古編弈譜</t>
+          <t>治齋集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bu gu bian yi pu</t>
+          <t>zhi zhai ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,19 +581,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>65192</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250418</t>
+          <t>20250425</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -621,12 +621,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>晚香亭弈譜</t>
+          <t>石癲印草</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>wan xiang ting yi pu</t>
+          <t>shi dian yin cao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250418</t>
+          <t>20250425</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -681,12 +681,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>弈人傳</t>
+          <t>頑石山房印存</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>yi ren chuan</t>
+          <t>wan shi shan fang yin cun</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250418</t>
+          <t>20250425</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -741,12 +741,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>蛀弈簃錄</t>
+          <t>肖石印存</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>zhu yi yi lu</t>
+          <t>xiao shi yin cun</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250418</t>
+          <t>20250425</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -801,12 +801,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>堪輿正論</t>
+          <t>雲間顧氏印譜</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>kan yu zheng lun</t>
+          <t>yun jian gu shi yin pu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -828,7 +828,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250418</t>
+          <t>20250425</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -861,12 +861,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>地理舉隅</t>
+          <t>海陽吳氏印譜</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>di li ju yu</t>
+          <t>hai yang wu shi yin pu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250418</t>
+          <t>20250425</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -921,12 +921,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>一粒粟</t>
+          <t>程氏墨苑: 十二卷</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>yi li su</t>
+          <t>cheng shi mo yuan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250418</t>
+          <t>20250425</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -981,12 +981,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>湖湘遊草</t>
+          <t>幼博集</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>hu xiang you cao</t>
+          <t>you bo ji</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250418</t>
+          <t>20250425</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>嶽麓吟</t>
+          <t>圜中草</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>yue lu yin</t>
+          <t>huan zhong cao</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1061,7 +1061,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250418</t>
+          <t>20250425</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>采藻軒稿</t>
+          <t>方氏墨譜: 六卷</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cai zao xuan gao</t>
+          <t>fang shi mo pu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1148,12 +1148,2772 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250418</t>
+          <t>20250425</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>67926</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>佳日樓詩集: 十二卷</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>jia ri lou shi ji</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>67927</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>佳日樓詩集續集: 一卷</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>jia ri lou shi ji xu ji</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>67928</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>曹氏墨林: 二卷</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>cao shi mo lin</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>67929</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>鑑古齋墨藪</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>jian gu zhai mo sou</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>67930</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>太古遺音</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>tai gu yi yin</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>67931</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>誠一堂琴譜</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>cheng yi tang qin pu</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>67932</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>太古元音琴譜</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>tai gu yuan yin qin pu</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>67933</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>桐園草堂琴譜</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>tong yuan cao tang qin pu</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>67934</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>眉山墅隱弈譜</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>mei shan shu yin yi pu</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>67935</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>不古編弈譜</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>bu gu bian yi pu</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>67936</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>晚香亭弈譜</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>wan xiang ting yi pu</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>67937</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>弈人傳</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>yi ren chuan</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>67938</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>蛀弈簃錄</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>zhu yi yi lu</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>67939</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>堪輿正論</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>kan yu zheng lun</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>67940</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>地理舉隅</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>di li ju yu</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>67941</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>一粒粟</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>yi li su</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>67942</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>湖湘遊草</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>hu xiang you cao</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>67943</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>嶽麓吟</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>yue lu yin</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>67944</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>采藻軒稿</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>cai zao xuan gao</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>67945</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>史略竅言</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>shi lve qiao yan</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>38685</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>67946</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>遜志存稿</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>xun zhi cun gao</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>38685</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>67947</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>惲氏真訣</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>yun shi zhen jue</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>67948</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>雙梧小艸</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>shuang wu xiao cao</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>67949</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>學陸集</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>xue lu ji</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>67950</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>白蓮半格詩</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>bai lian ban ge shi</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>67951</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>奩餘集</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>lian yu ji</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>67952</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>古渡詩評</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>gu du shi ping</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>67953</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>瑞芝堂集</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>rui zhi tang ji</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>67954</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>椒花館詩集</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>jiao hua guan shi ji</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>67955</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>藕香館詩鈔</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ou xiang guan shi chao</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>67956</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>粵城懷古詩</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>yue cheng huai gu shi</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>67957</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>琴言閣詩錄</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>qin yan ge shi lu</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>67958</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>繡餘吟草</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>xiu yu yin cao</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>65192</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>67959</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>灌木菴詩集</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>guan mu an shi ji</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>67960</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>樊邨集</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>fan cun ji</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>67961</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>入告初編</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ru gao chu bian</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>67962</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>入告二編</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ru gao er bian</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>67963</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>入告三編</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ru gao san bian</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>67964</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>入告遺編</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ru gao yi bian</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>67965</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>退思軒詩集</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>tui si xuan shi ji</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>67966</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>從吾亭詩文集</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>cong wu ting shi wen ji</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>67967</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>黃門疏小稿</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>huang men shu xiao gao</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>67968</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>扶黔奏疏</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>fu qian zou shu</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>67969</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>政學編</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>zheng xue bian</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>67970</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>景疏樓詩文</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>jing shu lou shi wen</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>67971</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>自怡集</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>zi yi ji</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68004</v>
+        <v>68008</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>秘冊彙函</t>
+          <t>易述詩文集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mi ce hui han</t>
+          <t>yi shu shi wen ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,19 +581,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>67007</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250507</t>
+          <t>20250509</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68005</v>
+        <v>68009</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>雙清集</t>
+          <t>練濤集</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>shuang qing ji</t>
+          <t>lian tao ji</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -648,12 +648,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250507</t>
+          <t>20250509</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68006</v>
+        <v>68010</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>律解辯疑</t>
+          <t>槐署日記</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lv jie bian yi</t>
+          <t>huai shu ri ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -708,12 +708,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,12 +728,3432 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250507</t>
+          <t>20250509</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>68011</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>學山文集</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>xue shan wen ji</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>68012</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>養齋小稿: 十卷</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>yang zhai xiao gao</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>68013</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>四畱堂稿: 二十卷</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>si liu tang gao</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>68014</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>韻府補: 二十卷</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>yun fu bu</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>68015</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>忘憂草</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>wang you cao</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>68016</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>周禮纂要輯註</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>zhou li zuan yao ji zhu</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>68017</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>閩遊詩鈔</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>min you shi chao</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>68018</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>見滄山房稿</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>jian cang shan fang gao</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>68019</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>增訂小四書</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>zeng ding xiao si shu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>68020</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>驢背集</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>lv bei ji</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>68021</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>易水村集</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>yi shui cun ji</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>68022</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>潄石堂集</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>shu shi tang ji</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>68023</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>蘭友集</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>lan you ji</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>68024</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>續圖經</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>xu tu jing</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>68025</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>藝文續編</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>yi wen xu bian</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>68026</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>香樹齋集</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>xiang shu zhai ji</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>68027</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>柳堂詩話</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>liu tang shi hua</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>68028</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>詩稿四集</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>shi gao si ji</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>68029</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>益壽翁詩稿</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>yi shou weng shi gao</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>68030</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>歌風堂詩鈔</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ge feng tang shi chao</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>68031</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>粵程稿</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>yue cheng gao</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>68032</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>八銘堂詩集</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ba ming tang shi ji</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>68033</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>友于集</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>you yu ji</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>68034</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>先覺集</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>xian jue ji</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>68035</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>秋鴻草</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>qiu hong cao</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>68036</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>蘧盧草</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>qu lu cao</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>68037</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>獨居錄</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>du ju lu</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>68038</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>證學吟</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>zheng xue yin</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>68039</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>經義注釋</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>jing yi zhu shi</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>68040</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>涵虛閣草</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>han xu ge cao</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>68041</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>東江詩鈔</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>dong jiang shi chao</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>68042</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>如蘭軒詩集</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ru lan xuan shi ji</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>68043</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>笠亭詩鈔</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>li ting shi chao</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>68044</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>明人詩鈔</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ming ren shi chao</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>68045</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>傅巖集</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>fu yan ji</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>68046</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>古衡山房詩集</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>gu heng shan fang shi ji</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>68047</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>寅谷詩稿</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>yin gu shi gao</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>68048</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>春秋繁露註</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>chun qiu fan lu zhu</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>68049</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>方言考略</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>fang yan kao lve</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>68050</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>捫蝨軒詩文集</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>men shi xuan shi wen ji</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>68051</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>南垞文稿</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>nan cha wen gao</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>68052</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>松喬詩鈔</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>song qiao shi chao</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>68053</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>東岸草堂類稿</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>dong an cao tang lei gao</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>68054</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>讀史碎言</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>du shi sui yan</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>68055</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>批點檀弓孟子</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>pi dian tan gong meng zi</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>68056</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>滇南計程小草</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>dian nan ji cheng xiao cao</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>68057</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>小滄洲集</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>xiao cang zhou ji</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>68058</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>金臺集</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>jin tai ji</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>68059</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>鴛湖集</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>yuan hu ji</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>68060</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>章安集</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>zhang an ji</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>68061</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>寄吾廬詩稿</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ji wu lu shi gao</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>68062</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>春山詩存: 四卷</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>chun shan shi cun</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>68063</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>倚雲軒詩鈔</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>yi yun xuan shi chao</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>68064</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>治經堂詩文集: 四十卷</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>zhi jing tang shi wen ji</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>68065</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>日次詩: 二卷</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ri ci shi</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>68066</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>信疑隨筆: 十二卷</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>xin yi sui bi</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>68067</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>鶴天鯨海詩文稿</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>he tian jing hai shi wen gao</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68069</v>
+        <v>68097</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>蛩吟小草</t>
+          <t>靖海紀略</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>qiong yin xiao cao</t>
+          <t>jing hai ji lve</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,14 +581,14 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68070</v>
+        <v>68098</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>四餘堂課士贅言</t>
+          <t>倡和集</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>si yu tang ke shi zhui yan</t>
+          <t>chang he ji</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68071</v>
+        <v>68099</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>易解集</t>
+          <t>懷堂詩</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>yi jie ji</t>
+          <t>huai tang shi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,7 +701,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68072</v>
+        <v>68100</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>翠軒詩集</t>
+          <t>振古堂驪城雜詠</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cui xuan shi ji</t>
+          <t>zhen gu tang li cheng za yong</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,19 +761,19 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68073</v>
+        <v>68101</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>適可軒詩集</t>
+          <t>易述</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>shi ke xuan shi ji</t>
+          <t>yi shu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -821,7 +821,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68074</v>
+        <v>68102</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>敬義堂文集</t>
+          <t>詩文集</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>jing yi tang wen ji</t>
+          <t>shi wen ji</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68075</v>
+        <v>68103</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>疏稿</t>
+          <t>練濤集</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>shu gao</t>
+          <t>lian tao ji</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68076</v>
+        <v>68104</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>坦坦居詩文稿</t>
+          <t>槐署日紀</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>tan tan ju shi wen gao</t>
+          <t>huai shu ri ji</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68077</v>
+        <v>68105</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>水心雲意軒詩鈔</t>
+          <t>續表忠記</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>shui xin yun yi xuan shi chao</t>
+          <t>xu biao zhong ji</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68078</v>
+        <v>68106</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>雙桂軒詩稿一卷</t>
+          <t>徽州府志</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>shuang gui xuan shi gao yi juan</t>
+          <t>hui zhou fu zhi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68079</v>
+        <v>68107</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>文字辨正</t>
+          <t>萬青閣集</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>wen zi bian zheng</t>
+          <t>wan qing ge ji</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68080</v>
+        <v>68108</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>碎錦彙鈔</t>
+          <t>交山平寇錄</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sui jin hui chao</t>
+          <t>jiao shan ping kou lu</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68081</v>
+        <v>68109</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>雪泥鴻爪錄</t>
+          <t>受清志略</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>xue ni hong zhao lu</t>
+          <t>shou qing zhi lve</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68082</v>
+        <v>68110</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>胥溪文會堂詩鈔</t>
+          <t>蟠室集</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>xu xi wen hui tang shi chao</t>
+          <t>pan shi ji</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1361,7 +1361,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>68083</v>
+        <v>68111</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>令洺錄</t>
+          <t>海壖唱和詩: 六卷</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ling ming lu</t>
+          <t>hai ruan chang he shi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>68084</v>
+        <v>68112</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>泮宮禮樂合集</t>
+          <t>周易精解</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pan gong li le he ji</t>
+          <t>zhou yi jing jie</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68085</v>
+        <v>68113</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>從祀諸儒繫議</t>
+          <t>勿盈軒詩稿</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>cong si zhu ru xi yi</t>
+          <t>wu ying xuan shi gao</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1541,7 +1541,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>68086</v>
+        <v>68114</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>倚晴樓詩集: 十六卷</t>
+          <t>明心俚話</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>yi qing lou shi ji</t>
+          <t>ming xin li hua</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68087</v>
+        <v>68115</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>詩餘: 四卷</t>
+          <t>仁遺集</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>shi yu</t>
+          <t>ren yi ji</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1661,14 +1661,14 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1688,492 +1688,12 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20250516</t>
+          <t>20250523</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>68088</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>樂府七種選刻</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>le fu qi zhong xuan ke</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>20250516</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>68089</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>詞綜續編二十四卷</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>ci zong xu bian er shi si juan</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>20250516</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>68090</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>自得齋詩鈔</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>zi de zhai shi chao</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>20250516</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>68091</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>一漑堂詩集</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>yi gai tang shi ji</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>20250516</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>68092</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>一漑堂賦集</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>yi gai tang fu ji</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>20250516</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>68093</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>蓼花詞</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>liao hua ci</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>20250516</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>68094</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>雅曆</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>ya li</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>20250516</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>68095</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>無隱園稿</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>wu yin yuan gao</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>20250516</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68097</v>
+        <v>68117</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>靖海紀略</t>
+          <t>河芬集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jing hai ji lve</t>
+          <t>he fen ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,19 +581,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68098</v>
+        <v>68118</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>倡和集</t>
+          <t>辰六文集</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>chang he ji</t>
+          <t>chen liu wen ji</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68099</v>
+        <v>68119</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>懷堂詩</t>
+          <t>友聲集</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>huai tang shi</t>
+          <t>you sheng ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,7 +701,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68100</v>
+        <v>68120</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>振古堂驪城雜詠</t>
+          <t>宋元明正學錄</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>zhen gu tang li cheng za yong</t>
+          <t>song yuan ming zheng xue lu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -768,7 +768,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68101</v>
+        <v>68121</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>易述</t>
+          <t>南莊集</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>yi shu</t>
+          <t>nan zhuang ji</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -821,19 +821,19 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68102</v>
+        <v>68122</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>詩文集</t>
+          <t>西溪集</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>shi wen ji</t>
+          <t>xi xi ji</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -888,12 +888,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68103</v>
+        <v>68123</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>練濤集</t>
+          <t>皇明正音</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>lian tao ji</t>
+          <t>huang ming zheng yin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,19 +941,19 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68104</v>
+        <v>68124</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>槐署日紀</t>
+          <t>東谷存笥集</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>huai shu ri ji</t>
+          <t>dong gu cun si ji</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,19 +1001,19 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68105</v>
+        <v>68125</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>續表忠記</t>
+          <t>讀史備忘</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>xu biao zhong ji</t>
+          <t>du shi bei wang</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1068,12 +1068,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68106</v>
+        <v>68126</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>徽州府志</t>
+          <t>拙齋漫稿</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>hui zhou fu zhi</t>
+          <t>zhuo zhai man gao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,19 +1121,19 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68107</v>
+        <v>68127</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>萬青閣集</t>
+          <t>雲谷集</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>wan qing ge ji</t>
+          <t>yun gu ji</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1188,12 +1188,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68108</v>
+        <v>68128</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>交山平寇錄</t>
+          <t>聖學全書</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>jiao shan ping kou lu</t>
+          <t>sheng xue quan shu</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1248,12 +1248,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68109</v>
+        <v>68129</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>受清志略</t>
+          <t>眞儒藎語</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>shou qing zhi lve</t>
+          <t>zhen ru jin yu</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1308,12 +1308,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68110</v>
+        <v>68130</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>蟠室集</t>
+          <t>紫陽正脈</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>pan shi ji</t>
+          <t>zi yang zheng mai</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1361,19 +1361,19 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>68111</v>
+        <v>68131</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>海壖唱和詩: 六卷</t>
+          <t>玉池稿</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>hai ruan chang he shi</t>
+          <t>yu chi gao</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,14 +1421,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>68112</v>
+        <v>68132</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>周易精解</t>
+          <t>玉池談屑</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>zhou yi jing jie</t>
+          <t>yu chi tan xie</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1488,12 +1488,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68113</v>
+        <v>68133</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>勿盈軒詩稿</t>
+          <t>春秋鄙見</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>wu ying xuan shi gao</t>
+          <t>chun qiu bi jian</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1541,19 +1541,19 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>68114</v>
+        <v>68134</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>明心俚話</t>
+          <t>皇明風雅</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ming xin li hua</t>
+          <t>huang ming feng ya</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1608,12 +1608,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68115</v>
+        <v>68135</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>仁遺集</t>
+          <t>詩談</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ren yi ji</t>
+          <t>shi tan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1661,7 +1661,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1688,12 +1688,972 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20250523</t>
+          <t>20250529</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>68136</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>女學</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>nv xue</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>68137</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>近代名臣言行錄</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>jin dai ming chen yan xing lu</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>68138</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>澤山野錄</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ze shan ye lu</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>68139</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>四明聞見錄</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>si ming wen jian lu</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>68140</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>西園雜記</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>xi yuan za ji</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>68141</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>東濱三稿</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>dong bin san gao</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>68142</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>從吾道人詩稾</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>cong wu dao ren shi gao</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>68143</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>續澉水誌</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>xu gan shui zhi</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>68144</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>石閒草學錄</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>shi xian cao xue lu</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>68145</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>樂律</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>le lv</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>68146</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>國朝名臣錄</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>guo chao ming chen lu</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>68147</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>五經疑義</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>wu jing yi yi</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>68148</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>瀛仙集</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ying xian ji</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>68149</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>通史</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>tong shi</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>68150</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>它石</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ta shi</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>68151</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>易經微言</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>yi jing wei yan</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>20250529</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68154</v>
+        <v>68168</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>方塘稿略</t>
+          <t>靜遠集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fang tang gao lve</t>
+          <t>jing yuan ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>38685</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68155</v>
+        <v>68169</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>主靜主敬會言</t>
+          <t>梁園草</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>zhu jing zhu jing hui yan</t>
+          <t>liang yuan cao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,19 +641,19 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>38685</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68156</v>
+        <v>68170</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>履菴集</t>
+          <t>大風堂集</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lv an ji</t>
+          <t>da feng tang ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68157</v>
+        <v>68171</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>牛禁</t>
+          <t>論語講意</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>niu jin</t>
+          <t>lun yu jiang yi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>38685</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68158</v>
+        <v>68172</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>鹍化草</t>
+          <t>香雲庵集</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>kun hua cao</t>
+          <t>xiang yun an ji</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>38685</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68159</v>
+        <v>68173</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>伯子诗草</t>
+          <t>閒閒集</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bo zi shi cao</t>
+          <t>xian xian ji</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>38685</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68160</v>
+        <v>68174</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>漱玉堂集</t>
+          <t>鐵函子集</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>shu yu tang ji</t>
+          <t>tie han zi ji</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -948,12 +948,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>38685</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68161</v>
+        <v>68175</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>鐵庵集</t>
+          <t>雪漢堂集</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>tie an ji</t>
+          <t>xue han tang ji</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68162</v>
+        <v>68176</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>存笥集</t>
+          <t>聽水齋稿</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cun si ji</t>
+          <t>ting shui zhai gao</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68163</v>
+        <v>68177</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>識大編</t>
+          <t>蜀游草</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>shi da bian</t>
+          <t>shu you cao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68164</v>
+        <v>68178</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>問業紀事</t>
+          <t>江行雜咏</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>wen ye ji shi</t>
+          <t>jiang xing za yong</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68165</v>
+        <v>68179</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>聚好錄</t>
+          <t>閬風館</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ju hao lu</t>
+          <t>lang feng guan</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68166</v>
+        <v>68180</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>筆峰稿</t>
+          <t>謫仙居稿</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>bi feng gao</t>
+          <t>zhe xian ju gao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250613</t>
+          <t>20250620</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68168</v>
+        <v>68182</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>靜遠集</t>
+          <t>謫仙居稿</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jing yuan ji</t>
+          <t>zhe xian ju gao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250620</t>
+          <t>20250627</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68169</v>
+        <v>68183</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>梁園草</t>
+          <t>居喪撮要</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>liang yuan cao</t>
+          <t>ju sang cuo yao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,14 +641,14 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250620</t>
+          <t>20250627</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68170</v>
+        <v>68184</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>大風堂集</t>
+          <t>佩觿稿</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>da feng tang ji</t>
+          <t>pei xi gao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250620</t>
+          <t>20250627</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68171</v>
+        <v>68185</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>論語講意</t>
+          <t>素軒稿</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>lun yu jiang yi</t>
+          <t>su xuan gao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,7 +761,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250620</t>
+          <t>20250627</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68172</v>
+        <v>68186</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>香雲庵集</t>
+          <t>五音字書辨訛</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>xiang yun an ji</t>
+          <t>wu yin zi shu bian e</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -821,7 +821,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250620</t>
+          <t>20250627</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68173</v>
+        <v>68187</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>閒閒集</t>
+          <t>藏詩稿</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>xian xian ji</t>
+          <t>cang shi gao</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250620</t>
+          <t>20250627</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68174</v>
+        <v>68188</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>鐵函子集</t>
+          <t>咏史诗</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>tie han zi ji</t>
+          <t>yong shi shi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,14 +941,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250620</t>
+          <t>20250627</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68175</v>
+        <v>68189</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>雪漢堂集</t>
+          <t>禮翼: 四卷</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>xue han tang ji</t>
+          <t>li yi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1028,312 +1028,12 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250620</t>
+          <t>20250627</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>68176</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>聽水齋稿</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ting shui zhai gao</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>20250620</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>68177</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>蜀游草</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>shu you cao</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>20250620</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>68178</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>江行雜咏</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>jiang xing za yong</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>20250620</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>68179</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>閬風館</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>lang feng guan</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>20250620</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>68180</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>謫仙居稿</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>zhe xian ju gao</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>20250620</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68182</v>
+        <v>68191</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>謫仙居稿</t>
+          <t>續文選: 三十二卷</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>zhe xian ju gao</t>
+          <t>xu wen xuan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250627</t>
+          <t>20250705</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68183</v>
+        <v>68192</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>居喪撮要</t>
+          <t>淸遠堂集</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ju sang cuo yao</t>
+          <t>qing yuan tang ji</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250627</t>
+          <t>20250705</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68184</v>
+        <v>68193</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>佩觿稿</t>
+          <t>論語逸編</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pei xi gao</t>
+          <t>lun yu yi bian</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,7 +701,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250627</t>
+          <t>20250705</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68185</v>
+        <v>68194</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>素軒稿</t>
+          <t>東夷事略</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>su xuan gao</t>
+          <t>dong yi shi lve</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,14 +761,14 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250627</t>
+          <t>20250705</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68186</v>
+        <v>68195</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>五音字書辨訛</t>
+          <t>海甯衞乘: 十卷</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>wu yin zi shu bian e</t>
+          <t>hai ning wei cheng</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250627</t>
+          <t>20250705</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68187</v>
+        <v>68196</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>藏詩稿</t>
+          <t>鳴吾雜著: 一卷</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cang shi gao</t>
+          <t>ming wu za zhu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,7 +881,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250627</t>
+          <t>20250705</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68188</v>
+        <v>68197</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>咏史诗</t>
+          <t>環玉山房集</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>yong shi shi</t>
+          <t>huan yu shan fang ji</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250627</t>
+          <t>20250705</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68189</v>
+        <v>68198</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>禮翼: 四卷</t>
+          <t>濩略: 十卷</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>li yi</t>
+          <t>huo lve</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1028,12 +1028,732 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250627</t>
+          <t>20250705</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>68199</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>蓬蒿園集</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>peng hao yuan ji</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>20250705</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>68200</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>蘇菴集</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>su an ji</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>20250705</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>68201</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>周易註傳</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>zhou yi zhu chuan</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20250705</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>68202</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>春秋左傳典略: 十二卷</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>chun qiu zuo chuan dian lve</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20250705</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>68203</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>洪永紀事本末</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>hong yong ji shi ben mo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>20250705</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>68204</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>漢書雋</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>han shu juan</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>20250705</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>68205</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>李義山詩牋</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>li yi shan shi jian</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>20250705</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>68206</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>八代詩牋</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ba dai shi jian</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>20250705</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>68207</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>蕭機詩牋</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>xiao ji shi jian</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>20250705</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>68208</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>思居堂集</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>si ju tang ji</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>20250705</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>68209</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>新安名族志</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>xin an ming zu zhi</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>20250705</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>68210</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>南遊集</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>nan you ji</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>20250705</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68191</v>
+        <v>68212</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>續文選: 三十二卷</t>
+          <t>竊芳集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>xu wen xuan</t>
+          <t>qie fang ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68192</v>
+        <v>68213</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>淸遠堂集</t>
+          <t>黟川八詠</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>qing yuan tang ji</t>
+          <t>yi chuan ba yong</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68193</v>
+        <v>68214</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>論語逸編</t>
+          <t>廣月令: 二卷</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lun yu yi bian</t>
+          <t>guang yue ling</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68194</v>
+        <v>68215</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>東夷事略</t>
+          <t>續廣月令: 二卷</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>dong yi shi lve</t>
+          <t>xu guang yue ling</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -768,12 +768,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68195</v>
+        <v>68216</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>海甯衞乘: 十卷</t>
+          <t>江栖閣詩集: 八卷</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hai ning wei cheng</t>
+          <t>jiang qi ge shi ji</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -821,19 +821,19 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68196</v>
+        <v>68217</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>鳴吾雜著: 一卷</t>
+          <t>嶽青堂詩文集</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ming wu za zhu</t>
+          <t>yue qing tang shi wen ji</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,19 +881,19 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68197</v>
+        <v>68218</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>環玉山房集</t>
+          <t>黃山遊草</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>huan yu shan fang ji</t>
+          <t>huang shan you cao</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -948,12 +948,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68198</v>
+        <v>68219</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>濩略: 十卷</t>
+          <t>蒼霞閣草</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>huo lve</t>
+          <t>cang xia ge cao</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,19 +1001,19 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68199</v>
+        <v>68220</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>蓬蒿園集</t>
+          <t>漁山詩選</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>peng hao yuan ji</t>
+          <t>yu shan shi xuan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1061,19 +1061,19 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68200</v>
+        <v>68221</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>蘇菴集</t>
+          <t>一枝草堂詩集</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>su an ji</t>
+          <t>yi zhi cao tang shi ji</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1128,12 +1128,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68201</v>
+        <v>68222</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>周易註傳</t>
+          <t>有律堂詩鈔</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>zhou yi zhu chuan</t>
+          <t>you lv tang shi chao</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1188,12 +1188,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68202</v>
+        <v>68223</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>春秋左傳典略: 十二卷</t>
+          <t>蜆斗集</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>chun qiu zuo chuan dian lve</t>
+          <t>xian dou ji</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1241,7 +1241,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68203</v>
+        <v>68224</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>洪永紀事本末</t>
+          <t>碧山草堂吟稿</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>hong yong ji shi ben mo</t>
+          <t>bi shan cao tang yin gao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1301,19 +1301,19 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68204</v>
+        <v>68225</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>漢書雋</t>
+          <t>吟谷制義</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>han shu juan</t>
+          <t>yin gu zhi yi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1368,12 +1368,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>68205</v>
+        <v>68226</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>李義山詩牋</t>
+          <t>芥舫集</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>li yi shan shi jian</t>
+          <t>jie fang ji</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,19 +1421,19 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>68206</v>
+        <v>68227</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>八代詩牋</t>
+          <t>樵貴谷詩選</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ba dai shi jian</t>
+          <t>qiao gui gu shi xuan</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1488,12 +1488,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68207</v>
+        <v>68228</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>蕭機詩牋</t>
+          <t>聊復爾集</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>xiao ji shi jian</t>
+          <t>liao fu er ji</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1541,19 +1541,19 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>68208</v>
+        <v>68229</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>思居堂集</t>
+          <t>望嶽樓詩集</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>si ju tang ji</t>
+          <t>wang yue lou shi ji</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1608,12 +1608,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68209</v>
+        <v>68230</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>新安名族志</t>
+          <t>經學質疑</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>xin an ming zu zhi</t>
+          <t>jing xue zhi yi</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1668,7 +1668,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>68210</v>
+        <v>68231</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南遊集</t>
+          <t>塾課存稿</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>nan you ji</t>
+          <t>shu ke cun gao</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1748,12 +1748,3252 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20250705</t>
+          <t>20250711</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>68232</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>謙山詩鈔</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>qian shan shi chao</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>68233</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>樂清集</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>le qing ji</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>68234</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>屏山集</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ping shan ji</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>68235</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>藥圃初稿</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>yao pu chu gao</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>68236</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>壺天玉瀣</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>hu tian yu xie</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>68237</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>寄傲集</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ji ao ji</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>68238</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>國朝故實</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>guo chao gu shi</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>68239</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>中書直閣記</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>zhong shu zhi ge ji</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>60745</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>68240</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>半憨子集</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ban han zi ji</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>68241</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>問業居詩文</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>wen ye ju shi wen</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>68242</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>蟬餘集</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>chan yu ji</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>68243</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>劍津集</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>jian jin ji</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>68244</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>梅花百詠</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>mei hua bai yong</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>68245</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>紀甯草</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ji ning cao</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>68246</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>燕舞堂集</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>yan wu tang ji</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>68247</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>四書旨</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>si shu zhi</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>68248</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>通鑑燦</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>tong jian can</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>68249</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>周易旨</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>zhou yi zhi</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>68250</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>昭代芳摹</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>zhao dai fang mo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>68251</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>未晚葊詩</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>wei wan an shi</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>68252</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>霞蔚軒詩稿</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>xia wei xuan shi gao</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>68253</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>澹菴自娛集</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>dan an zi yu ji</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>68254</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>左海集: 十六卷</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>zuo hai ji</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>68255</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>赤水元珠</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>chi shui yuan zhu</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>68256</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>地理星形</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>di li xing xing</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>68257</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>會一編</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>hui yi bian</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>68258</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>醫林摘粹</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>yi lin zhai cui</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>68259</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>石山吟稿</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>shi shan yin gao</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>68260</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>文章宗範</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>wen zhang zong fan</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>68261</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>傳心錄: 四卷</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>chuan xin lu</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>68262</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>傳心錄續編</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>chuan xin lu xu bian</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>68263</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>續名醫類案</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>xu ming yi lei an</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>68264</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>及闕編</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ji que bian  </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>68265</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>秋蛩音</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>qiu qiong yin</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>68266</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>竹隱</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>zhu yin</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>68267</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>江淮紀游</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>jiang huai ji you</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>68268</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>豹蔚堂集</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>bao wei tang ji</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>68269</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>五經千腋</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>wu jing qian ye</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>68270</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>半完圃集: 十三卷</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ban wan pu ji</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>68271</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>嶺南集</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ling nan ji</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>68272</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>平泉集</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ping quan ji</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>68273</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>潭溪集</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>tan xi ji</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>68274</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>讀史後</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>du shi hou</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>68275</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>聖門誌</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>sheng men zhi</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>68276</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>志學萃言</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>zhi xue cui yan</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>68277</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>傷寒論編</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>shang han lun bian</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>68278</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>孝慈備覽</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>xiao ci bei lan</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68279</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>遊秦醫案</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>you qin yi an</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68280</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>柘塘游草</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>zhe tang you cao</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>68281</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>越游草</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>yue you cao</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>68282</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>蓬廬集</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>peng lu ji</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>68283</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>金臺集</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>jin tai ji</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>68284</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>淥水集</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>lu shui ji</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>68285</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>屏山心錄</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ping shan xin lu</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>20250711</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68212</v>
+        <v>68288</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>竊芳集</t>
+          <t>硎社新書</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>qie fang ji</t>
+          <t>xing she xin shu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,19 +581,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68213</v>
+        <v>68289</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>黟川八詠</t>
+          <t>漢魏六朝百三名家選</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>yi chuan ba yong</t>
+          <t>han wei liu chao bai san ming jia xuan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -648,12 +648,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68214</v>
+        <v>68290</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>廣月令: 二卷</t>
+          <t>易學參說日省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>guang yue ling</t>
+          <t>yi xue can shuo ri sheng</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -708,12 +708,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68215</v>
+        <v>68291</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>續廣月令: 二卷</t>
+          <t>可行集</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>xu guang yue ling</t>
+          <t>ke xing ji</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,14 +761,14 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68216</v>
+        <v>68292</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>江栖閣詩集: 八卷</t>
+          <t>本草畧</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>jiang qi ge shi ji</t>
+          <t>ben cao lve</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -821,7 +821,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68217</v>
+        <v>68293</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>嶽青堂詩文集</t>
+          <t>蘭谷偶存</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>yue qing tang shi wen ji</t>
+          <t>lan gu ou cun</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,7 +881,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68218</v>
+        <v>68294</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>黃山遊草</t>
+          <t>退翁玩餘</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>huang shan you cao</t>
+          <t>tui weng wan yu</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68219</v>
+        <v>68295</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>蒼霞閣草</t>
+          <t>知問軒</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>cang xia ge cao</t>
+          <t>zhi wen xuan</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68220</v>
+        <v>68296</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>漁山詩選</t>
+          <t>飮墨齋</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>yu shan shi xuan</t>
+          <t>yin mo zhai</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68221</v>
+        <v>68297</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>一枝草堂詩集</t>
+          <t>大政廣考</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>yi zhi cao tang shi ji</t>
+          <t>da zheng guang kao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68222</v>
+        <v>68298</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>有律堂詩鈔</t>
+          <t>啄紅集</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>you lv tang shi chao</t>
+          <t>zhuo hong ji</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68223</v>
+        <v>68299</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>蜆斗集</t>
+          <t>弋獲鈔</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>xian dou ji</t>
+          <t>yi huo chao</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1241,14 +1241,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68224</v>
+        <v>68300</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>碧山草堂吟稿</t>
+          <t>通疑匏菴</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>bi shan cao tang yin gao</t>
+          <t>tong yi pao an</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1301,7 +1301,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68225</v>
+        <v>68301</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>吟谷制義</t>
+          <t>蕭瀟集</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>yin gu zhi yi</t>
+          <t>xiao xiao ji</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1361,7 +1361,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>68226</v>
+        <v>68302</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>芥舫集</t>
+          <t>魅喜篇</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>jie fang ji</t>
+          <t>mei xi pian</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>68227</v>
+        <v>68303</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>樵貴谷詩選</t>
+          <t>北游諸草</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>qiao gui gu shi xuan</t>
+          <t>bei you zhu cao</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68228</v>
+        <v>68304</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>聊復爾集</t>
+          <t>哀征集</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>liao fu er ji</t>
+          <t>ai zheng ji</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>68229</v>
+        <v>68305</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>望嶽樓詩集</t>
+          <t>八葉堂詩餘</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>wang yue lou shi ji</t>
+          <t>ba ye tang shi yu</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68230</v>
+        <v>68306</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>經學質疑</t>
+          <t>大梁文集</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>jing xue zhi yi</t>
+          <t>da liang wen ji</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1661,7 +1661,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>68231</v>
+        <v>68307</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>塾課存稿</t>
+          <t>百一編</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>shu ke cun gao</t>
+          <t>bai yi bian</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>68232</v>
+        <v>68308</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>謙山詩鈔</t>
+          <t>豐巖詩集</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>qian shan shi chao</t>
+          <t>feng yan shi ji</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>68233</v>
+        <v>68309</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>樂清集</t>
+          <t>四書講義</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>le qing ji</t>
+          <t>si shu jiang yi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1841,19 +1841,19 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>68234</v>
+        <v>68310</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>屏山集</t>
+          <t>迎暉堂集</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ping shan ji</t>
+          <t>ying hui tang ji</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1908,12 +1908,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>68235</v>
+        <v>68311</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>藥圃初稿</t>
+          <t>路草</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>yao pu chu gao</t>
+          <t>lu cao</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1968,7 +1968,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>68236</v>
+        <v>68312</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>壺天玉瀣</t>
+          <t>閒適草</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>hu tian yu xie</t>
+          <t>xian shi cao</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2021,14 +2021,14 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>68237</v>
+        <v>68313</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>寄傲集</t>
+          <t>苕上草</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ji ao ji</t>
+          <t>shao shang cao</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2088,7 +2088,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>68238</v>
+        <v>68314</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>國朝故實</t>
+          <t>三衢草</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>guo chao gu shi</t>
+          <t>san qu cao</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2141,19 +2141,19 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>68239</v>
+        <v>68315</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中書直閣記</t>
+          <t>惜餘軒集</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>zhong shu zhi ge ji</t>
+          <t>xi yu xuan ji</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2201,19 +2201,19 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>60745</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>68240</v>
+        <v>68316</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>半憨子集</t>
+          <t>詮易緖言</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ban han zi ji</t>
+          <t>quan yi xu yan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2261,19 +2261,19 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>68241</v>
+        <v>68317</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>問業居詩文</t>
+          <t>論略</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>wen ye ju shi wen</t>
+          <t>lun lve</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2321,14 +2321,14 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>68242</v>
+        <v>68318</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>蟬餘集</t>
+          <t>喻疑集</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>chan yu ji</t>
+          <t>yu yi ji</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2388,7 +2388,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>68243</v>
+        <v>68319</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>劍津集</t>
+          <t>愚公文稿</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>jian jin ji</t>
+          <t>yu gong wen gao</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2448,7 +2448,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>68244</v>
+        <v>68320</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>梅花百詠</t>
+          <t>醫論方書</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>mei hua bai yong</t>
+          <t>yi lun fang shu</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>68245</v>
+        <v>68321</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>紀甯草</t>
+          <t>四書題解: 十二卷</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ji ning cao</t>
+          <t>si shu ti jie</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2561,14 +2561,14 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>68246</v>
+        <v>68322</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>燕舞堂集</t>
+          <t>天游居稿</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>yan wu tang ji</t>
+          <t>tian you ju gao</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2628,7 +2628,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>68247</v>
+        <v>68323</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>四書旨</t>
+          <t>香霞館文集</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>si shu zhi</t>
+          <t>xiang xia guan wen ji</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2681,7 +2681,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>68248</v>
+        <v>68324</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>通鑑燦</t>
+          <t>最舊廬詩集</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>tong jian can</t>
+          <t>zui jiu lu shi ji</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2741,7 +2741,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>68249</v>
+        <v>68325</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>周易旨</t>
+          <t>建雪堂學規課九屬</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>zhou yi zhi</t>
+          <t>jian xue tang xue gui ke jiu shu</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>68250</v>
+        <v>68326</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>昭代芳摹</t>
+          <t>竹溪雜俎詩草</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>zhao dai fang mo</t>
+          <t>zhu xi za zu shi cao</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>68251</v>
+        <v>68327</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>未晚葊詩</t>
+          <t>低雲閣稿</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>wei wan an shi</t>
+          <t>di yun ge gao</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>68252</v>
+        <v>68328</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>霞蔚軒詩稿</t>
+          <t>一翠軒</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>xia wei xuan shi gao</t>
+          <t>yi cui xuan</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2981,7 +2981,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>68253</v>
+        <v>68329</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>澹菴自娛集</t>
+          <t>巢雲閣</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>dan an zi yu ji</t>
+          <t>chao yun ge</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -3041,7 +3041,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>68254</v>
+        <v>68330</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>左海集: 十六卷</t>
+          <t>求志堂集</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>zuo hai ji</t>
+          <t>qiu zhi tang ji</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>68255</v>
+        <v>68331</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>赤水元珠</t>
+          <t>毅庵筆記</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>chi shui yuan zhu</t>
+          <t>yi an bi ji</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -3168,12 +3168,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>68256</v>
+        <v>68332</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>地理星形</t>
+          <t>尙書通解</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>di li xing xing</t>
+          <t>shang shu tong jie</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -3228,12 +3228,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>68257</v>
+        <v>68333</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>會一編</t>
+          <t>醫方綱目</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>hui yi bian</t>
+          <t>yi fang gang mu</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3288,12 +3288,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>68258</v>
+        <v>68334</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>醫林摘粹</t>
+          <t>五經異同</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>yi lin zhai cui</t>
+          <t>wu jing yi tong</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3348,12 +3348,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>68259</v>
+        <v>68335</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>石山吟稿</t>
+          <t>壁經指南</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>shi shan yin gao</t>
+          <t>bi jing zhi nan</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3401,19 +3401,19 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>68260</v>
+        <v>68336</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>文章宗範</t>
+          <t>種德家訓</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>wen zhang zong fan</t>
+          <t>zhong de jia xun</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>68261</v>
+        <v>68337</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>傳心錄: 四卷</t>
+          <t>夢筆遺草</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>chuan xin lu</t>
+          <t>meng bi yi cao</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3521,7 +3521,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>68262</v>
+        <v>68338</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>傳心錄續編</t>
+          <t>雙桂軒集</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>chuan xin lu xu bian</t>
+          <t>shuang gui xuan ji</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3581,7 +3581,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>68263</v>
+        <v>68339</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>續名醫類案</t>
+          <t>淡庵集</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>xu ming yi lei an</t>
+          <t>dan an ji</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3641,7 +3641,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>68264</v>
+        <v>68340</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>及闕編</t>
+          <t>自率居詩稿</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">ji que bian  </t>
+          <t>zi lv ju shi gao</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3701,7 +3701,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>68265</v>
+        <v>68341</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>秋蛩音</t>
+          <t>滄浮子詩</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>qiu qiong yin</t>
+          <t>cang fu zi shi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>68266</v>
+        <v>68342</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>竹隱</t>
+          <t>逃庵集</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>zhu yin</t>
+          <t>tao an ji</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3821,7 +3821,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -3857,16 +3857,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>68267</v>
+        <v>68343</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>江淮紀游</t>
+          <t>怡老餘編</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>jiang huai ji you</t>
+          <t>yi lao yu bian</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -3917,16 +3917,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>68268</v>
+        <v>68344</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>豹蔚堂集</t>
+          <t>纕蕙集</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>bao wei tang ji</t>
+          <t>rang hui ji</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
@@ -3977,16 +3977,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>68269</v>
+        <v>68345</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>五經千腋</t>
+          <t>偶村集</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>wu jing qian ye</t>
+          <t>ou cun ji</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -4001,7 +4001,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -4037,16 +4037,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>68270</v>
+        <v>68346</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>半完圃集: 十三卷</t>
+          <t>尙書定業</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ban wan pu ji</t>
+          <t>shang shu ding ye</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -4097,16 +4097,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68271</v>
+        <v>68347</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>嶺南集</t>
+          <t>澹岩小稿</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ling nan ji</t>
+          <t>dan yan xiao gao</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
@@ -4157,16 +4157,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>68272</v>
+        <v>68348</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>平泉集</t>
+          <t>念園詩草</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ping quan ji</t>
+          <t>nian yuan shi cao</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -4217,16 +4217,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>68273</v>
+        <v>68349</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>潭溪集</t>
+          <t>韻類經緯: 二百卷</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>tan xi ji</t>
+          <t>yun lei jing wei</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -4241,7 +4241,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -4277,16 +4277,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>68274</v>
+        <v>68350</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>讀史後</t>
+          <t>物表亭集</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>du shi hou</t>
+          <t>wu biao ting ji</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -4301,7 +4301,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -4337,16 +4337,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>68275</v>
+        <v>68351</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>聖門誌</t>
+          <t>懿戒堂詩選</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sheng men zhi</t>
+          <t>yi jie tang shi xuan</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>68276</v>
+        <v>68352</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>志學萃言</t>
+          <t>吐鳳樓詩文全集</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>zhi xue cui yan</t>
+          <t>tu feng lou shi wen quan ji</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -4421,7 +4421,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
@@ -4457,16 +4457,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>68277</v>
+        <v>68353</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>傷寒論編</t>
+          <t>憤樂詩稿: 四卷</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>shang han lun bian</t>
+          <t>fen le shi gao</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -4481,7 +4481,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
@@ -4517,16 +4517,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>68278</v>
+        <v>68354</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>孝慈備覽</t>
+          <t>訥庵遗稿</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>xiao ci bei lan</t>
+          <t>ne an yi gao</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -4541,19 +4541,19 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
@@ -4577,16 +4577,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68279</v>
+        <v>68355</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>遊秦醫案</t>
+          <t>滋蘭詩草</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>you qin yi an</t>
+          <t>zi lan shi cao</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4601,19 +4601,19 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
@@ -4637,16 +4637,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68280</v>
+        <v>68356</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>柘塘游草</t>
+          <t>江上草</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>zhe tang you cao</t>
+          <t>jiang shang cao</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
@@ -4697,16 +4697,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>68281</v>
+        <v>68357</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>越游草</t>
+          <t>飽山樓嘯</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>yue you cao</t>
+          <t>bao shan lou xiao</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -4721,7 +4721,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
@@ -4757,16 +4757,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>68282</v>
+        <v>68358</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>蓬廬集</t>
+          <t>研吾廬稿</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>peng lu ji</t>
+          <t>yan wu lu gao</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>68283</v>
+        <v>68359</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>金臺集</t>
+          <t>萍野集</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>jin tai ji</t>
+          <t>ping ye ji</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
@@ -4877,16 +4877,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>68284</v>
+        <v>68360</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>淥水集</t>
+          <t>適我集: 二十卷</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>lu shui ji</t>
+          <t>shi wo ji</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V74" t="inlineStr"/>
@@ -4937,16 +4937,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>68285</v>
+        <v>68361</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>屏山心錄</t>
+          <t>壎箎唱和集</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ping shan xin lu</t>
+          <t>xun chi chang he ji</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -4961,7 +4961,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4988,12 +4988,612 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>20250711</t>
+          <t>20250718</t>
         </is>
       </c>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>68362</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>梅泉詩存</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>mei quan shi cun</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>20250718</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>68363</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>花巢詩草</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>hua chao shi cao</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>20250718</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>68364</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>吟香小草</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>yin xiang xiao cao</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>20250718</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>68365</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>地理求安錄</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>di li qiu an lu</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>20250718</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>68366</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>葬書註釋</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>zang shu zhu shi</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>20250718</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>68367</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>靈城精義註釋</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ling cheng jing yi zhu shi</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>20250718</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>68368</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>醫法彙要</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>yi fa hui yao</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>20250718</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>68369</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>醫學體用</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>yi xue ti yong</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>20250718</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>68370</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>傷寒醫驗</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>shang han yi yan</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>20250718</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>68371</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>斯覺堂集</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>si jue tang ji</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>20250718</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68288</v>
+        <v>68373</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>硎社新書</t>
+          <t>廢莪山房集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>xing she xin shu</t>
+          <t>fei e shan fang ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68289</v>
+        <v>68374</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>漢魏六朝百三名家選</t>
+          <t>仙潭詩集</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>han wei liu chao bai san ming jia xuan</t>
+          <t>xian tan shi ji</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68290</v>
+        <v>68375</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>易學參說日省</t>
+          <t>重津梁興南集</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>yi xue can shuo ri sheng</t>
+          <t>zhong jin liang xing nan ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,19 +701,19 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68291</v>
+        <v>68376</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>可行集</t>
+          <t>清溪卷</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ke xing ji</t>
+          <t>qing xi juan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,19 +761,19 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68292</v>
+        <v>68377</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>本草畧</t>
+          <t>橘隱遺稿</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ben cao lve</t>
+          <t>ju yin yi gao</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -821,19 +821,19 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>67084</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68293</v>
+        <v>68378</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>蘭谷偶存</t>
+          <t>芝陽詩草</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>lan gu ou cun</t>
+          <t>zhi yang shi cao</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,7 +881,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68294</v>
+        <v>68379</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>退翁玩餘</t>
+          <t>光緒亳州志: 二十卷</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>tui weng wan yu</t>
+          <t>guang xu bo zhou zhi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68295</v>
+        <v>68380</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>知問軒</t>
+          <t>石筍山房集</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>zhi wen xuan</t>
+          <t>shi sun shan fang ji</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68296</v>
+        <v>68381</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>飮墨齋</t>
+          <t>易學微言</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>yin mo zhai</t>
+          <t>yi xue wei yan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68297</v>
+        <v>68382</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>大政廣考</t>
+          <t>吟薇水亭詩稿</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>da zheng guang kao</t>
+          <t>yin wei shui ting shi gao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68298</v>
+        <v>68383</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>啄紅集</t>
+          <t>史詠懷古</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>zhuo hong ji</t>
+          <t>shi yong huai gu</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68299</v>
+        <v>68384</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>弋獲鈔</t>
+          <t>嘉樹堂詩集</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>yi huo chao</t>
+          <t>jia shu tang shi ji</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1241,7 +1241,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68300</v>
+        <v>68385</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>通疑匏菴</t>
+          <t>長吟集</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>tong yi pao an</t>
+          <t>zhang yin ji</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1301,7 +1301,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68301</v>
+        <v>68386</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>蕭瀟集</t>
+          <t>燕游小草</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>xiao xiao ji</t>
+          <t>yan you xiao cao</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>68302</v>
+        <v>68387</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>魅喜篇</t>
+          <t>懷人詩</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>mei xi pian</t>
+          <t>huai ren shi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>68303</v>
+        <v>68388</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>北游諸草</t>
+          <t>三宜軒集</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>bei you zhu cao</t>
+          <t>san yi xuan ji</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68304</v>
+        <v>68389</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>哀征集</t>
+          <t>史辨: 三十卷</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ai zheng ji</t>
+          <t>shi bian</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1541,7 +1541,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>68305</v>
+        <v>68390</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>八葉堂詩餘</t>
+          <t>藕塘詩存: 八卷</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ba ye tang shi yu</t>
+          <t>ou tang shi cun</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68306</v>
+        <v>68391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>大梁文集</t>
+          <t>夜雨對牀集: 二卷</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>da liang wen ji</t>
+          <t>ye yu dui chuang ji</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>68307</v>
+        <v>68392</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>百一編</t>
+          <t>鹿岩老人集</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>bai yi bian</t>
+          <t>lu yan lao ren ji</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>68308</v>
+        <v>68393</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>豐巖詩集</t>
+          <t>翼慶堂集</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>feng yan shi ji</t>
+          <t>yi qing tang ji</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>68309</v>
+        <v>68394</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>四書講義</t>
+          <t>蓮峰制藝</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>si shu jiang yi</t>
+          <t>lian feng zhi yi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>68310</v>
+        <v>68395</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>迎暉堂集</t>
+          <t>蜚英樓詩集</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ying hui tang ji</t>
+          <t>fei ying lou shi ji</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>68311</v>
+        <v>68396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>路草</t>
+          <t>翰沙詩稿</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>lu cao</t>
+          <t>han sha shi gao</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>68312</v>
+        <v>68397</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>閒適草</t>
+          <t>季子小品</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>xian shi cao</t>
+          <t>ji zi xiao pin</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2021,7 +2021,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>68313</v>
+        <v>68398</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>苕上草</t>
+          <t>易經闡微</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>shao shang cao</t>
+          <t>yi jing chan wei</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>68314</v>
+        <v>68399</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>三衢草</t>
+          <t>禮記全編</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>san qu cao</t>
+          <t>li ji quan bian</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2141,7 +2141,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>68315</v>
+        <v>68400</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>惜餘軒集</t>
+          <t>援朱正呂</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>xi yu xuan ji</t>
+          <t>yuan zhu zheng lv</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2201,7 +2201,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>68316</v>
+        <v>68401</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>詮易緖言</t>
+          <t>見滄詩集</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>quan yi xu yan</t>
+          <t>jian cang shi ji</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2261,7 +2261,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>68317</v>
+        <v>68402</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>論略</t>
+          <t>蟬吟集</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>lun lve</t>
+          <t>chan yin ji</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2321,7 +2321,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>68318</v>
+        <v>68403</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>喻疑集</t>
+          <t>秋畹齋草</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>yu yi ji</t>
+          <t>qiu wan zhai cao</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>68319</v>
+        <v>68404</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>愚公文稿</t>
+          <t>一經亭集</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>yu gong wen gao</t>
+          <t>yi jing ting ji</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>68320</v>
+        <v>68405</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>醫論方書</t>
+          <t>看雲草堂詩稿</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>yi lun fang shu</t>
+          <t>kan yun cao tang shi gao</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2501,7 +2501,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>68321</v>
+        <v>68406</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>四書題解: 十二卷</t>
+          <t>怡堂詩稿: 一卷</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>si shu ti jie</t>
+          <t>yi tang shi gao</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2561,7 +2561,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>68322</v>
+        <v>68407</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>天游居稿</t>
+          <t>預園詩草: 八卷</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>tian you ju gao</t>
+          <t>yu yuan shi cao</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>68323</v>
+        <v>68408</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>香霞館文集</t>
+          <t>草堂雜詠</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>xiang xia guan wen ji</t>
+          <t>cao tang za yong</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2681,7 +2681,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>68324</v>
+        <v>68409</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>最舊廬詩集</t>
+          <t>秀野堂詩</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>zui jiu lu shi ji</t>
+          <t>xiu ye tang shi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2741,7 +2741,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>68325</v>
+        <v>68410</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>建雪堂學規課九屬</t>
+          <t>景行編</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>jian xue tang xue gui ke jiu shu</t>
+          <t>jing xing bian</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>68326</v>
+        <v>68411</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>竹溪雜俎詩草</t>
+          <t>性理旨要</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>zhu xi za zu shi cao</t>
+          <t>xing li zhi yao</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>68286</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>68327</v>
+        <v>68412</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>低雲閣稿</t>
+          <t>夢花館纂錄</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>di yun ge gao</t>
+          <t>meng hua guan zuan lu</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2921,14 +2921,14 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>68328</v>
+        <v>68413</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>一翠軒</t>
+          <t>綱目性理</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>yi cui xuan</t>
+          <t>gang mu xing li</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2988,7 +2988,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>68329</v>
+        <v>68414</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>巢雲閣</t>
+          <t>耕烟詩稿</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>chao yun ge</t>
+          <t>geng yan shi gao</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -3041,7 +3041,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>68330</v>
+        <v>68415</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>求志堂集</t>
+          <t>片雲詞</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>qiu zhi tang ji</t>
+          <t>pian yun ci</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -3101,7 +3101,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>68331</v>
+        <v>68416</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>毅庵筆記</t>
+          <t>自賞集</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>yi an bi ji</t>
+          <t>zi shang ji</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -3161,7 +3161,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>68332</v>
+        <v>68417</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>尙書通解</t>
+          <t>調鍾集</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>shang shu tong jie</t>
+          <t>diao zhong ji</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -3221,7 +3221,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>68333</v>
+        <v>68418</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>醫方綱目</t>
+          <t>師嚴堂遺稿</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>yi fang gang mu</t>
+          <t>shi yan tang yi gao</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3281,7 +3281,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>68334</v>
+        <v>68419</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>五經異同</t>
+          <t>三禮考: 一百卷</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>wu jing yi tong</t>
+          <t>san li kao</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>68335</v>
+        <v>68420</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>壁經指南</t>
+          <t>刈園稿: 六十卷</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>bi jing zhi nan</t>
+          <t>yi yuan gao</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3401,7 +3401,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>68336</v>
+        <v>68421</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>種德家訓</t>
+          <t>埽雁齋集</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>zhong de jia xun</t>
+          <t>sao yan zhai ji</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3461,7 +3461,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>68337</v>
+        <v>68422</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>夢筆遺草</t>
+          <t>復庵心在錄</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>meng bi yi cao</t>
+          <t>fu an xin zai lu</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3521,7 +3521,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>68338</v>
+        <v>68423</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>雙桂軒集</t>
+          <t>燈庵詩鈔: 三卷</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>shuang gui xuan ji</t>
+          <t>deng an shi chao</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3581,7 +3581,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>68339</v>
+        <v>68424</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>淡庵集</t>
+          <t>澉浦詩話: 二卷</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>dan an ji</t>
+          <t>gan pu shi hua</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3641,7 +3641,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>68340</v>
+        <v>68425</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>自率居詩稿</t>
+          <t>補蘿書屋日記: 一卷</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>zi lv ju shi gao</t>
+          <t>bu luo shu wu ri ji</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3701,7 +3701,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>68341</v>
+        <v>68426</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>滄浮子詩</t>
+          <t>標榭詩鈔</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>cang fu zi shi</t>
+          <t>biao xie shi chao</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>68342</v>
+        <v>68427</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>逃庵集</t>
+          <t>希齋詩鈔</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>tao an ji</t>
+          <t>xi zhai shi chao</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3821,7 +3821,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -3857,16 +3857,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>68343</v>
+        <v>68428</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>怡老餘編</t>
+          <t>半硯冷雲集</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>yi lao yu bian</t>
+          <t>ban yan leng yun ji</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3881,7 +3881,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -3917,16 +3917,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>68344</v>
+        <v>68429</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>纕蕙集</t>
+          <t>金臺集</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>rang hui ji</t>
+          <t>jin tai ji</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3948,7 +3948,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
@@ -3977,16 +3977,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>68345</v>
+        <v>68430</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>偶村集</t>
+          <t>白下集</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ou cun ji</t>
+          <t>bai xia ji</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -4008,7 +4008,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -4037,16 +4037,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>68346</v>
+        <v>68431</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>尙書定業</t>
+          <t>邇綠軒詩集</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>shang shu ding ye</t>
+          <t>er lv xuan shi ji</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -4097,16 +4097,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68347</v>
+        <v>68432</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>澹岩小稿</t>
+          <t>湖廣省志</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>dan yan xiao gao</t>
+          <t>hu guang sheng zhi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -4121,7 +4121,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
@@ -4157,16 +4157,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>68348</v>
+        <v>68433</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>念園詩草</t>
+          <t>鶴園詩集</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>nian yuan shi cao</t>
+          <t>he yuan shi ji</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -4217,16 +4217,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>68349</v>
+        <v>68434</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>韻類經緯: 二百卷</t>
+          <t>攓雲樓詩稿</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>yun lei jing wei</t>
+          <t>qian yun lou shi gao</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -4241,7 +4241,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -4277,16 +4277,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>68350</v>
+        <v>68435</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>物表亭集</t>
+          <t>太沖集</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>wu biao ting ji</t>
+          <t>tai chong ji</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -4337,16 +4337,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>68351</v>
+        <v>68436</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>懿戒堂詩選</t>
+          <t>粟阜詩鈔</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>yi jie tang shi xuan</t>
+          <t>su fu shi chao</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>68352</v>
+        <v>68437</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>吐鳳樓詩文全集</t>
+          <t>蒙齋叢稿</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>tu feng lou shi wen quan ji</t>
+          <t>meng zhai cong gao</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
@@ -4457,16 +4457,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>68353</v>
+        <v>68438</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>憤樂詩稿: 四卷</t>
+          <t>諸史拾遺</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>fen le shi gao</t>
+          <t>zhu shi shi yi</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -4481,7 +4481,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
@@ -4517,16 +4517,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>68354</v>
+        <v>68439</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>訥庵遗稿</t>
+          <t>再續澉水志</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ne an yi gao</t>
+          <t>zai xu gan shui zhi</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -4541,19 +4541,19 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
@@ -4577,16 +4577,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68355</v>
+        <v>68440</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>滋蘭詩草</t>
+          <t>樹萱軒詩文集</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>zi lan shi cao</t>
+          <t>shu xuan xuan shi wen ji</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4608,12 +4608,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
@@ -4637,16 +4637,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68356</v>
+        <v>68441</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>江上草</t>
+          <t>寒坪詩鈔</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>jiang shang cao</t>
+          <t>han ping shi chao</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -4661,7 +4661,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
@@ -4697,16 +4697,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>68357</v>
+        <v>68442</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>飽山樓嘯</t>
+          <t>已晚亭詩集: 二十八卷</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>bao shan lou xiao</t>
+          <t>yi wan ting shi ji</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -4721,7 +4721,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
@@ -4757,16 +4757,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>68358</v>
+        <v>68443</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>研吾廬稿</t>
+          <t>種書田稿一卷</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>yan wu lu gao</t>
+          <t>zhong shu tian gao yi juan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -4781,7 +4781,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>68359</v>
+        <v>68444</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>萍野集</t>
+          <t>杜詩注</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ping ye ji</t>
+          <t>du shi zhu</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -4841,7 +4841,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
@@ -4877,16 +4877,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>68360</v>
+        <v>68445</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>適我集: 二十卷</t>
+          <t>經說纂錄</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>shi wo ji</t>
+          <t>jing shuo zuan lu</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -4901,7 +4901,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4928,672 +4928,12 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>20250718</t>
+          <t>20250725</t>
         </is>
       </c>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>68361</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>壎箎唱和集</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>xun chi chang he ji</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>20250718</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>68362</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>梅泉詩存</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>mei quan shi cun</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>68286</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>20250718</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>68363</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>花巢詩草</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>hua chao shi cao</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>68286</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>20250718</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>68364</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>吟香小草</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>yin xiang xiao cao</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>68286</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>20250718</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>68365</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>地理求安錄</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>di li qiu an lu</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>68286</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>20250718</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>68366</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>葬書註釋</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>zang shu zhu shi</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>68286</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>20250718</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>68367</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>靈城精義註釋</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>ling cheng jing yi zhu shi</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>68286</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>20250718</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>68368</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>醫法彙要</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>yi fa hui yao</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>68286</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>20250718</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>68369</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>醫學體用</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>yi xue ti yong</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>68286</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>20250718</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>68370</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>傷寒醫驗</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>shang han yi yan</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>68286</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>20250718</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>68371</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>斯覺堂集</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>si jue tang ji</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>20250718</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68373</v>
+        <v>68448</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>廢莪山房集</t>
+          <t>春秋傳義</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fei e shan fang ji</t>
+          <t>chun qiu chuan yi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68374</v>
+        <v>68449</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>仙潭詩集</t>
+          <t>周易註</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>xian tan shi ji</t>
+          <t>zhou yi zhu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68375</v>
+        <v>68450</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>重津梁興南集</t>
+          <t>本草從新</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>zhong jin liang xing nan ji</t>
+          <t>ben cao cong xin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,19 +701,19 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68376</v>
+        <v>68451</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>清溪卷</t>
+          <t>成方切用</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>qing xi juan</t>
+          <t>cheng fang qie yong</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -768,12 +768,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68377</v>
+        <v>68452</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>橘隱遺稿</t>
+          <t>抱山詩鈔: 四卷</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ju yin yi gao</t>
+          <t>bao shan shi chao</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -821,19 +821,19 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>67084</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68378</v>
+        <v>68453</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>芝陽詩草</t>
+          <t>南唐書補註</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>zhi yang shi cao</t>
+          <t>nan tang shu bu zhu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,7 +881,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>68286</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68379</v>
+        <v>68454</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>光緒亳州志: 二十卷</t>
+          <t>蒙齋詩稿</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>guang xu bo zhou zhi</t>
+          <t>meng zhai shi gao</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>68286</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68380</v>
+        <v>68455</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>石筍山房集</t>
+          <t>雜錄</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>shi sun shan fang ji</t>
+          <t>za lu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68381</v>
+        <v>68456</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>易學微言</t>
+          <t>長吟閣集</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>yi xue wei yan</t>
+          <t>zhang yin ge ji</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1061,7 +1061,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68382</v>
+        <v>68457</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>吟薇水亭詩稿</t>
+          <t>筠亭詩稿</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>yin wei shui ting shi gao</t>
+          <t>yun ting shi gao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68383</v>
+        <v>68458</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>史詠懷古</t>
+          <t>晴江小草</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>shi yong huai gu</t>
+          <t>qing jiang xiao cao</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68384</v>
+        <v>68459</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>嘉樹堂詩集</t>
+          <t>江峯詩文集</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>jia shu tang shi ji</t>
+          <t>jiang feng shi wen ji</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68385</v>
+        <v>68460</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>長吟集</t>
+          <t>築巖詩鈔</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>zhang yin ji</t>
+          <t>zhu yan shi chao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1301,7 +1301,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68386</v>
+        <v>68461</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>燕游小草</t>
+          <t>可與詩鈔</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>yan you xiao cao</t>
+          <t>ke yu shi chao</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1361,7 +1361,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>68387</v>
+        <v>68462</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>懷人詩</t>
+          <t>適廬詩稿</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>huai ren shi</t>
+          <t>shi lu shi gao</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,14 +1421,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>68388</v>
+        <v>68463</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>三宜軒集</t>
+          <t>初白庵詩評</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>san yi xuan ji</t>
+          <t>chu bai an shi ping</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68389</v>
+        <v>68464</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>史辨: 三十卷</t>
+          <t>春星草堂詩稿</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>shi bian</t>
+          <t>chun xing cao tang shi gao</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1541,7 +1541,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>68390</v>
+        <v>68465</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>藕塘詩存: 八卷</t>
+          <t>澹遠堂集</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ou tang shi cun</t>
+          <t>dan yuan tang ji</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68391</v>
+        <v>68466</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>夜雨對牀集: 二卷</t>
+          <t>竹村集</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ye yu dui chuang ji</t>
+          <t>zhu cun ji</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>68392</v>
+        <v>68467</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>鹿岩老人集</t>
+          <t>栽桑訣: 一卷</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>lu yan lao ren ji</t>
+          <t>zai sang jue</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>68393</v>
+        <v>68468</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>翼慶堂集</t>
+          <t>楝園集</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>yi qing tang ji</t>
+          <t>lian yuan ji</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>68394</v>
+        <v>68469</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>蓮峰制藝</t>
+          <t>石壑詩草</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>lian feng zhi yi</t>
+          <t>shi he shi cao</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1841,7 +1841,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>68395</v>
+        <v>68470</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>蜚英樓詩集</t>
+          <t>易學續</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>fei ying lou shi ji</t>
+          <t>yi xue xu</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1901,7 +1901,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>68396</v>
+        <v>68471</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>翰沙詩稿</t>
+          <t>羣經字攷</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>han sha shi gao</t>
+          <t>qun jing zi kao</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1961,7 +1961,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>68397</v>
+        <v>68472</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>季子小品</t>
+          <t>讀書筆記</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ji zi xiao pin</t>
+          <t>du shu bi ji</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>68398</v>
+        <v>68473</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>易經闡微</t>
+          <t>尊道堂詩文集</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>yi jing chan wei</t>
+          <t>zun dao tang shi wen ji</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>68399</v>
+        <v>68474</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>禮記全編</t>
+          <t>書序鏡</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>li ji quan bian</t>
+          <t>shu xu jing</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>68400</v>
+        <v>68475</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>援朱正呂</t>
+          <t>鐘鼎款識釋文</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>yuan zhu zheng lv</t>
+          <t>zhong ding kuan shi shi wen</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>68401</v>
+        <v>68476</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>見滄詩集</t>
+          <t>商周文拾遺</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>jian cang shi ji</t>
+          <t>shang zhou wen shi yi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2261,7 +2261,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>68402</v>
+        <v>68477</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>蟬吟集</t>
+          <t>尙書後案</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>chan yin ji</t>
+          <t>shang shu hou an</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2321,7 +2321,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>68403</v>
+        <v>68478</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>秋畹齋草</t>
+          <t>六書述</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>qiu wan zhai cao</t>
+          <t>liu shu shu</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2381,7 +2381,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>68404</v>
+        <v>68479</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>一經亭集</t>
+          <t>質疑</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>yi jing ting ji</t>
+          <t>zhi yi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2441,7 +2441,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>68405</v>
+        <v>68480</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>看雲草堂詩稿</t>
+          <t>經韻</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>kan yun cao tang shi gao</t>
+          <t>jing yun</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2501,7 +2501,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>68406</v>
+        <v>68481</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>怡堂詩稿: 一卷</t>
+          <t>揖靑樓稿</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>yi tang shi gao</t>
+          <t>yi qing lou gao</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>68407</v>
+        <v>68482</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>預園詩草: 八卷</t>
+          <t>水陽詩鈔</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>yu yuan shi cao</t>
+          <t>shui yang shi chao</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2621,7 +2621,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>68286</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>68408</v>
+        <v>68483</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>草堂雜詠</t>
+          <t>授經草堂詩文稿</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>cao tang za yong</t>
+          <t>shou jing cao tang shi wen gao</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2681,7 +2681,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>68409</v>
+        <v>68484</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>秀野堂詩</t>
+          <t>鹽邑藝林: 二十五卷</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>xiu ye tang shi</t>
+          <t>yan yi yi lin</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>68410</v>
+        <v>68485</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>景行編</t>
+          <t>圖經參攷初編</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>jing xing bian</t>
+          <t>tu jing can kao chu bian</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>68411</v>
+        <v>68486</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>性理旨要</t>
+          <t>圖經參攷二編</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>xing li zhi yao</t>
+          <t>tu jing can kao er bian</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>68412</v>
+        <v>68487</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>夢花館纂錄</t>
+          <t>勿齋詩文集: 六卷</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>meng hua guan zuan lu</t>
+          <t>wu zhai shi wen ji</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2921,14 +2921,14 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>68413</v>
+        <v>68488</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>綱目性理</t>
+          <t>夏小正註</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gang mu xing li</t>
+          <t>xia xiao zheng zhu</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2988,7 +2988,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>68414</v>
+        <v>68489</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>耕烟詩稿</t>
+          <t>後漢書儒林傳補</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>geng yan shi gao</t>
+          <t>hou han shu ru lin chuan bu</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -3041,7 +3041,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>68415</v>
+        <v>68490</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>片雲詞</t>
+          <t>桑志</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>pian yun ci</t>
+          <t>sang zhi</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>68416</v>
+        <v>68491</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>自賞集</t>
+          <t>眞珠船: 四卷</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>zi shang ji</t>
+          <t>zhen zhu chuan</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -3161,7 +3161,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>68417</v>
+        <v>68492</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>調鍾集</t>
+          <t>健初詩稿: 六卷</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>diao zhong ji</t>
+          <t>jian chu shi gao</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>68418</v>
+        <v>68493</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>師嚴堂遺稿</t>
+          <t>復惠堂稿: 二卷</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>shi yan tang yi gao</t>
+          <t>fu hui tang gao</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>68419</v>
+        <v>68494</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>三禮考: 一百卷</t>
+          <t>毛詩草木鳥獸本旨: 十三卷</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>san li kao</t>
+          <t>mao shi cao mu niao shou ben zhi</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>68420</v>
+        <v>68495</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>刈園稿: 六十卷</t>
+          <t>廣李西涯擬古樂府: 二卷</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>yi yuan gao</t>
+          <t>guang li xi ya ni gu le fu</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3401,7 +3401,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>68421</v>
+        <v>68496</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>埽雁齋集</t>
+          <t>讀水經注詩</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>sao yan zhai ji</t>
+          <t>du shui jing zhu shi</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3461,7 +3461,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>68422</v>
+        <v>68497</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>復庵心在錄</t>
+          <t>和仲詩集</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>fu an xin zai lu</t>
+          <t>he zhong shi ji</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3521,7 +3521,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>68423</v>
+        <v>68498</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>燈庵詩鈔: 三卷</t>
+          <t>詠史</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>deng an shi chao</t>
+          <t>yong shi</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>68424</v>
+        <v>68499</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>澉浦詩話: 二卷</t>
+          <t>小樂府</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>gan pu shi hua</t>
+          <t>xiao le fu</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>68425</v>
+        <v>68500</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>補蘿書屋日記: 一卷</t>
+          <t>小雅文鈔</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>bu luo shu wu ri ji</t>
+          <t>xiao ya wen chao</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>68426</v>
+        <v>68501</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>標榭詩鈔</t>
+          <t>麟趾堂集</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>biao xie shi chao</t>
+          <t>lin zhi tang ji</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3761,7 +3761,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>68427</v>
+        <v>68502</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>希齋詩鈔</t>
+          <t>小信天巢詩鈔: 十八卷</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>xi zhai shi chao</t>
+          <t>xiao xin tian chao shi chao</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -3857,16 +3857,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>68428</v>
+        <v>68503</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>半硯冷雲集</t>
+          <t>小信天巢文集: 四卷</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ban yan leng yun ji</t>
+          <t>xiao xin tian chao wen ji</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -3917,16 +3917,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>68429</v>
+        <v>68504</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>金臺集</t>
+          <t>西園詩稿: 八卷</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>jin tai ji</t>
+          <t>xi yuan shi gao</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3948,7 +3948,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
@@ -3977,16 +3977,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>68430</v>
+        <v>68505</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>白下集</t>
+          <t>懷眞自言: 四卷</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>bai xia ji</t>
+          <t>huai zhen zi yan</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -4001,14 +4001,14 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -4037,16 +4037,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>68431</v>
+        <v>68506</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>邇綠軒詩集</t>
+          <t>杜詩選註: 十卷</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>er lv xuan shi ji</t>
+          <t>du shi xuan zhu</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -4097,16 +4097,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68432</v>
+        <v>68507</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>湖廣省志</t>
+          <t>醫學辨僞: 十卷</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>hu guang sheng zhi</t>
+          <t>yi xue bian wei</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
@@ -4157,16 +4157,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>68433</v>
+        <v>68508</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>鶴園詩集</t>
+          <t>四書解</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>he yuan shi ji</t>
+          <t>si shu jie</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -4181,7 +4181,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -4217,16 +4217,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>68434</v>
+        <v>68509</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>攓雲樓詩稿</t>
+          <t>尙書集說</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>qian yun lou shi gao</t>
+          <t>shang shu ji shuo</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -4241,7 +4241,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -4277,16 +4277,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>68435</v>
+        <v>68510</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>太沖集</t>
+          <t>史論綱鑑</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>tai chong ji</t>
+          <t>shi lun gang jian</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -4301,7 +4301,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -4337,16 +4337,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>68436</v>
+        <v>68511</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>粟阜詩鈔</t>
+          <t>厯朝世系考</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>su fu shi chao</t>
+          <t>li chao shi xi kao</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>68437</v>
+        <v>68512</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>蒙齋叢稿</t>
+          <t>標題策要</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>meng zhai cong gao</t>
+          <t>biao ti ce yao</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -4421,7 +4421,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
@@ -4457,16 +4457,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>68438</v>
+        <v>68513</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>諸史拾遺</t>
+          <t>稽古緖餘: 十卷</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>zhu shi shi yi</t>
+          <t>ji gu xu yu</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
@@ -4517,16 +4517,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>68439</v>
+        <v>68514</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>再續澉水志</t>
+          <t>廉讓居詩文鈔</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>zai xu gan shui zhi</t>
+          <t>lian rang ju shi wen chao</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
@@ -4577,16 +4577,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68440</v>
+        <v>68515</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>樹萱軒詩文集</t>
+          <t>花溪詩鈔</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>shu xuan xuan shi wen ji</t>
+          <t>hua xi shi chao</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4601,7 +4601,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
@@ -4637,16 +4637,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68441</v>
+        <v>68516</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>寒坪詩鈔</t>
+          <t>篁雨詩鈔</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>han ping shi chao</t>
+          <t>huang yu shi chao</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
@@ -4697,16 +4697,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>68442</v>
+        <v>68517</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>已晚亭詩集: 二十八卷</t>
+          <t>臺洋集</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>yi wan ting shi ji</t>
+          <t>tai yang ji</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
@@ -4757,16 +4757,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>68443</v>
+        <v>68518</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>種書田稿一卷</t>
+          <t>紀堂詩存</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>zhong shu tian gao yi juan</t>
+          <t>ji tang shi cun</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>68444</v>
+        <v>68519</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>杜詩注</t>
+          <t>玉樹齋詩</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>du shi zhu</t>
+          <t>yu shu zhai shi</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -4868,72 +4868,12 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>20250725</t>
+          <t>20250801</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>68445</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>經說纂錄</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>jing shuo zuan lu</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>20250725</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68448</v>
+        <v>68521</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>春秋傳義</t>
+          <t>易緯: 四卷</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>chun qiu chuan yi</t>
+          <t>yi wei</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68449</v>
+        <v>68522</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>周易註</t>
+          <t>桂巖詩文詞稿</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>zhou yi zhu</t>
+          <t>gui yan shi wen ci gao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68450</v>
+        <v>68523</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>本草從新</t>
+          <t>醫宗便覽</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ben cao cong xin</t>
+          <t>yi zong bian lan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68451</v>
+        <v>68524</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>成方切用</t>
+          <t>會心約編</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cheng fang qie yong</t>
+          <t>hui xin yue bian</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68452</v>
+        <v>68525</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>抱山詩鈔: 四卷</t>
+          <t>祭物祭器攷略</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bao shan shi chao</t>
+          <t>ji wu ji qi kao lve</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68453</v>
+        <v>68526</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南唐書補註</t>
+          <t>姓氏源流攷</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nan tang shu bu zhu</t>
+          <t>xing shi yuan liu kao</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68454</v>
+        <v>68527</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>蒙齋詩稿</t>
+          <t>毛詩纂詁</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>meng zhai shi gao</t>
+          <t>mao shi zuan gu</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68455</v>
+        <v>68528</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>雜錄</t>
+          <t>榕園詞韻</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>za lu</t>
+          <t>rong yuan ci yun</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68456</v>
+        <v>68529</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>長吟閣集</t>
+          <t>榕園吟稿</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>zhang yin ge ji</t>
+          <t>rong yuan yin gao</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68457</v>
+        <v>68530</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>筠亭詩稿</t>
+          <t>榕園文鈔</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>yun ting shi gao</t>
+          <t>rong yuan wen chao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68458</v>
+        <v>68531</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>晴江小草</t>
+          <t>江海連珠</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>qing jiang xiao cao</t>
+          <t>jiang hai lian zhu</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68459</v>
+        <v>68532</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>江峯詩文集</t>
+          <t>靑霞館帖</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>jiang feng shi wen ji</t>
+          <t>qing xia guan tie</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1241,7 +1241,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68460</v>
+        <v>68533</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>築巖詩鈔</t>
+          <t>國朝名人尺牘</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>zhu yan shi chao</t>
+          <t>guo chao ming ren chi du</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68461</v>
+        <v>68534</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>可與詩鈔</t>
+          <t>所著有尺牘小傳二十四卷</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ke yu shi chao</t>
+          <t>suo zhu you chi du xiao chuan er shi si juan</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>68462</v>
+        <v>68535</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>適廬詩稿</t>
+          <t>續疑年錄</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>shi lu shi gao</t>
+          <t>xu yi nian lu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,14 +1421,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>68463</v>
+        <v>68536</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>初白庵詩評</t>
+          <t>吉祥居稿</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>chu bai an shi ping</t>
+          <t>ji xiang ju gao</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68464</v>
+        <v>68537</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>春星草堂詩稿</t>
+          <t>思亭近稿</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>chun xing cao tang shi gao</t>
+          <t>si ting jin gao</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>68465</v>
+        <v>68538</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>澹遠堂集</t>
+          <t>湖山吟嘯集</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>dan yuan tang ji</t>
+          <t>hu shan yin xiao ji</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68466</v>
+        <v>68539</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>竹村集</t>
+          <t>居易居小草</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>zhu cun ji</t>
+          <t>ju yi ju xiao cao</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>68467</v>
+        <v>68540</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>栽桑訣: 一卷</t>
+          <t>杏花春雨樓詩稿</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>zai sang jue</t>
+          <t>xing hua chun yu lou shi gao</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>68468</v>
+        <v>68541</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>楝園集</t>
+          <t>萊峰駢體文</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>lian yuan ji</t>
+          <t>lai feng pian ti wen</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>68469</v>
+        <v>68542</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>石壑詩草</t>
+          <t>四書參解</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>shi he shi cao</t>
+          <t>si shu can jie</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1841,7 +1841,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>68470</v>
+        <v>68543</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>易學續</t>
+          <t>文選逸珠</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>yi xue xu</t>
+          <t>wen xuan yi zhu</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>68471</v>
+        <v>68544</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>羣經字攷</t>
+          <t>積石山房詩稿</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>qun jing zi kao</t>
+          <t>ji shi shan fang shi gao</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1961,7 +1961,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>68472</v>
+        <v>68545</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>讀書筆記</t>
+          <t>榆關治畧</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>du shu bi ji</t>
+          <t>yu guan zhi lve</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>68473</v>
+        <v>68546</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>尊道堂詩文集</t>
+          <t>南巡詩藻</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>zun dao tang shi wen ji</t>
+          <t>nan xun shi zao</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>68474</v>
+        <v>68547</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>書序鏡</t>
+          <t>四書辨義</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>shu xu jing</t>
+          <t>si shu bian yi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>68475</v>
+        <v>68548</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>鐘鼎款識釋文</t>
+          <t>長安吟</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>zhong ding kuan shi shi wen</t>
+          <t>zhang an yin</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>68476</v>
+        <v>68549</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>商周文拾遺</t>
+          <t>紫山文集</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>shang zhou wen shi yi</t>
+          <t>zi shan wen ji</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2261,7 +2261,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>68477</v>
+        <v>68550</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>尙書後案</t>
+          <t>四書經義</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>shang shu hou an</t>
+          <t>si shu jing yi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>68478</v>
+        <v>68551</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>六書述</t>
+          <t>一笑詩集</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>liu shu shu</t>
+          <t>yi xiao shi ji</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2381,7 +2381,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>68479</v>
+        <v>68552</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>質疑</t>
+          <t>六書通摭遺</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>zhi yi</t>
+          <t>liu shu tong zhi yi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>68480</v>
+        <v>68553</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>經韻</t>
+          <t>秦溪詩稿</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>jing yun</t>
+          <t>qin xi shi gao</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2501,7 +2501,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>68481</v>
+        <v>68554</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>揖靑樓稿</t>
+          <t>賁湖詩稿</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>yi qing lou gao</t>
+          <t>bi hu shi gao</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>68482</v>
+        <v>68555</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>水陽詩鈔</t>
+          <t>吳趨詩稿</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>shui yang shi chao</t>
+          <t>wu qu shi gao</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2621,7 +2621,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>68483</v>
+        <v>68556</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>授經草堂詩文稿</t>
+          <t>北遊詩稿</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>shou jing cao tang shi wen gao</t>
+          <t>bei you shi gao</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>68484</v>
+        <v>68557</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>鹽邑藝林: 二十五卷</t>
+          <t>寒氊詩稿</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>yan yi yi lin</t>
+          <t>han zhan shi gao</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2741,7 +2741,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>68485</v>
+        <v>68558</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>圖經參攷初編</t>
+          <t>甬東詩稿</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>tu jing can kao chu bian</t>
+          <t>yong dong shi gao</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2801,7 +2801,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>68486</v>
+        <v>68559</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>圖經參攷二編</t>
+          <t>五經問答</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>tu jing can kao er bian</t>
+          <t>wu jing wen da</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>68487</v>
+        <v>68560</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>勿齋詩文集: 六卷</t>
+          <t>芸香草堂詩詞鈔</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>wu zhai shi wen ji</t>
+          <t>yun xiang cao tang shi ci chao</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>68488</v>
+        <v>68561</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>夏小正註</t>
+          <t>寄閒詩詞鈔</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>xia xiao zheng zhu</t>
+          <t>ji xian shi ci chao</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>68489</v>
+        <v>68562</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>後漢書儒林傳補</t>
+          <t>宜圃劄記</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>hou han shu ru lin chuan bu</t>
+          <t>yi pu zha ji</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>68490</v>
+        <v>68563</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>桑志</t>
+          <t>挹翠樓詩草</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sang zhi</t>
+          <t>yi cui lou shi cao</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -3101,7 +3101,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>68491</v>
+        <v>68564</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>眞珠船: 四卷</t>
+          <t>意釣山房詩鈔</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>zhen zhu chuan</t>
+          <t>yi diao shan fang shi chao</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>68492</v>
+        <v>68565</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>健初詩稿: 六卷</t>
+          <t>二南訓女解: 四卷</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>jian chu shi gao</t>
+          <t>er nan xun nv jie</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -3221,7 +3221,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>68493</v>
+        <v>68566</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>復惠堂稿: 二卷</t>
+          <t>屮園吟稿</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>fu hui tang gao</t>
+          <t>che yuan yin gao</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>68494</v>
+        <v>68567</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>毛詩草木鳥獸本旨: 十三卷</t>
+          <t>覲鄕記: 四卷</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>mao shi cao mu niao shou ben zhi</t>
+          <t>jin xiang ji</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>68495</v>
+        <v>68568</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>廣李西涯擬古樂府: 二卷</t>
+          <t>秦望詩稿</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>guang li xi ya ni gu le fu</t>
+          <t>qin wang shi gao</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3401,7 +3401,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>68496</v>
+        <v>68569</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>讀水經注詩</t>
+          <t>問靑軒詩稿</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>du shui jing zhu shi</t>
+          <t>wen qing xuan shi gao</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3461,7 +3461,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>68497</v>
+        <v>68570</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>和仲詩集</t>
+          <t>纔是編</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>he zhong shi ji</t>
+          <t>cai shi bian</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3521,7 +3521,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>68498</v>
+        <v>68571</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>詠史</t>
+          <t>豈匏文集</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>yong shi</t>
+          <t>qi pao wen ji</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3581,7 +3581,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>68499</v>
+        <v>68572</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>小樂府</t>
+          <t>豈匏雜著</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>xiao le fu</t>
+          <t>qi pao za zhu</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>68500</v>
+        <v>68573</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>小雅文鈔</t>
+          <t>吳門補乘</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>xiao ya wen chao</t>
+          <t>wu men bu cheng</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>68501</v>
+        <v>68574</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>麟趾堂集</t>
+          <t>歷代人物氏族志</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>lin zhi tang ji</t>
+          <t>li dai ren wu shi zu zhi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3761,7 +3761,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>68502</v>
+        <v>68575</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>小信天巢詩鈔: 十八卷</t>
+          <t>消寒集: 一卷</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>xiao xin tian chao shi chao</t>
+          <t>xiao han ji</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3821,7 +3821,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -3857,16 +3857,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>68503</v>
+        <v>68576</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>小信天巢文集: 四卷</t>
+          <t>吾亦廬稿</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>xiao xin tian chao wen ji</t>
+          <t>wu yi lu gao</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -3917,16 +3917,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>68504</v>
+        <v>68577</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>西園詩稿: 八卷</t>
+          <t>殷水遺聞</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>xi yuan shi gao</t>
+          <t>yin shui yi wen</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3941,7 +3941,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
@@ -3977,16 +3977,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>68505</v>
+        <v>68578</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>懷眞自言: 四卷</t>
+          <t>橫山紀略</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>huai zhen zi yan</t>
+          <t>heng shan ji lve</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -4037,16 +4037,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>68506</v>
+        <v>68579</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>杜詩選註: 十卷</t>
+          <t>歲時藻</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>du shi xuan zhu</t>
+          <t>sui shi zao</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -4097,16 +4097,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68507</v>
+        <v>68580</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>醫學辨僞: 十卷</t>
+          <t>玉廣孝編</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>yi xue bian wei</t>
+          <t>yu guang xiao bian</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
@@ -4157,16 +4157,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>68508</v>
+        <v>68581</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>四書解</t>
+          <t>廣慈編</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>si shu jie</t>
+          <t>guang ci bian</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -4217,16 +4217,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>68509</v>
+        <v>68582</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>尙書集說</t>
+          <t>吾亦廬詩文集</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>shang shu ji shuo</t>
+          <t>wu yi lu shi wen ji</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -4241,7 +4241,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -4277,16 +4277,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>68510</v>
+        <v>68583</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>史論綱鑑</t>
+          <t>秋聲山館詩鈔</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>shi lun gang jian</t>
+          <t>qiu sheng shan guan shi chao</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -4337,16 +4337,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>68511</v>
+        <v>68584</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>厯朝世系考</t>
+          <t>桐石山房詩: 一卷</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>li chao shi xi kao</t>
+          <t>tong shi shan fang shi</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>68512</v>
+        <v>68585</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>標題策要</t>
+          <t>疑年錄質疑</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>biao ti ce yao</t>
+          <t>yi nian lu zhi yi</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
@@ -4457,16 +4457,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>68513</v>
+        <v>68586</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>稽古緖餘: 十卷</t>
+          <t>續疑年錄質疑</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ji gu xu yu</t>
+          <t>xu yi nian lu zhi yi</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
@@ -4517,16 +4517,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>68514</v>
+        <v>68587</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>廉讓居詩文鈔</t>
+          <t>書屏近語</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>lian rang ju shi wen chao</t>
+          <t>shu ping jin yu</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
@@ -4577,16 +4577,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68515</v>
+        <v>68588</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>花溪詩鈔</t>
+          <t>穰園詩稿</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>hua xi shi chao</t>
+          <t>rang yuan shi gao</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4601,7 +4601,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
@@ -4637,16 +4637,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68516</v>
+        <v>68589</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>篁雨詩鈔</t>
+          <t>備荒先政</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>huang yu shi chao</t>
+          <t>bei huang xian zheng</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
@@ -4697,16 +4697,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>68517</v>
+        <v>68590</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>臺洋集</t>
+          <t>壺隱詩集: 二十卷</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>tai yang ji</t>
+          <t>hu yin shi ji</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
@@ -4757,16 +4757,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>68518</v>
+        <v>68591</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>紀堂詩存</t>
+          <t>詩故攷異: 三十二卷</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ji tang shi cun</t>
+          <t>shi gu kao yi</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>68519</v>
+        <v>68592</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>玉樹齋詩</t>
+          <t>妙吉祥室文鈔: 二卷</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>yu shu zhai shi</t>
+          <t>miao ji xiang shi wen chao</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -4868,12 +4868,1872 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>20250801</t>
+          <t>20250808</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>68593</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>妙吉祥室詩鈔: 二十二卷</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>miao ji xiang shi shi chao</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>68594</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>妙吉祥室詞鈔: 一卷</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>miao ji xiang shi ci chao</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>68595</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>妙吉祥室雜著: 一卷</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>miao ji xiang shi za zhu</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>68596</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>桐華鳳閣詩文稿</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>tong hua feng ge shi wen gao</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>68597</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>鴻雪詞</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>hong xue ci</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>68598</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>禹貢分箋</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>yu gong fen jian</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>68599</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>澉水新誌: 十二卷</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>gan shui xin zhi</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>68600</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>金石攷</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>jin shi kao</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>68601</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>海上竹枝詞百首</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>hai shang zhu zhi ci bai shou</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>68602</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>湘友詩稿</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>xiang you shi gao</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>68603</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>答閒吟稿</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>da xian yin gao</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>68604</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>周易集說</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>zhou yi ji shuo</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>68605</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>良方集腋</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>liang fang ji ye</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>68606</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>聽秋館吟稿</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ting qiu guan yin gao</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>68607</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>夢梅軒詩草</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>meng mei xuan shi cao</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>68608</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>嘯居吟稿</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>xiao ju yin gao</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>68609</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>味吾味室吟稿</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>wei wu wei shi yin gao</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>68610</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>小桃源室聯吟詩存</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>xiao tao yuan shi lian yin shi cun</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>68611</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>四書地理考</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>si shu di li kao</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>68612</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>毛詩多識編</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>mao shi duo shi bian</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>68613</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>聖學入門演義</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>sheng xue ru men yan yi</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>68614</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>壑舟園文稿</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>he zhou yuan wen gao</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>68615</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>鈔幣芻言</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>chao bi chu yan</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>68616</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>瀆川耆舊詩集</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>du chuan qi jiu shi ji</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>68617</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>海月堂詩文集</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>hai yue tang shi wen ji</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>68618</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>塔影樓詩稿: 十六卷</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ta ying lou shi gao</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>68619</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>塔影樓駢體文: 一卷</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ta ying lou pian ti wen</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>68620</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>吟窗揮塵錄: 六卷</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>yin chuang hui chen lu</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>68621</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>鏡湖珠㝛山房駢體文稿</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>jing hu zhu su shan fang pian ti wen gao</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>68622</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>稽古日鈔</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ji gu ri chao</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>68623</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>春士小草</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>chun shi xiao cao</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>20250808</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X104"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68521</v>
+        <v>68625</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>易緯: 四卷</t>
+          <t>枝江公牘</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>yi wei</t>
+          <t>zhi jiang gong du</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68522</v>
+        <v>68626</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>桂巖詩文詞稿</t>
+          <t>堊室錄感</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gui yan shi wen ci gao</t>
+          <t>e shi lu gan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68523</v>
+        <v>68627</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>醫宗便覽</t>
+          <t>汗漫吟</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>yi zong bian lan</t>
+          <t>han man yin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68524</v>
+        <v>68628</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>會心約編</t>
+          <t>官滇畧存</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hui xin yue bian</t>
+          <t>guan dian lve cun</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68525</v>
+        <v>68629</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>祭物祭器攷略</t>
+          <t>讀書敏求續記</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ji wu ji qi kao lve</t>
+          <t>du shu min qiu xu ji</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68526</v>
+        <v>68630</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>姓氏源流攷</t>
+          <t>十國春秋補</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>xing shi yuan liu kao</t>
+          <t>shi guo chun qiu bu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68527</v>
+        <v>68631</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>毛詩纂詁</t>
+          <t>感應篇</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>mao shi zuan gu</t>
+          <t>gan ying pian</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68528</v>
+        <v>68632</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>榕園詞韻</t>
+          <t>經義豹窺</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>rong yuan ci yun</t>
+          <t>jing yi bao kui</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68529</v>
+        <v>68633</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>榕園吟稿</t>
+          <t>退思堂集</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>rong yuan yin gao</t>
+          <t>tui si tang ji</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68530</v>
+        <v>68634</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>榕園文鈔</t>
+          <t>醫理防微</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>rong yuan wen chao</t>
+          <t>yi li fang wei</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68531</v>
+        <v>68635</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>江海連珠</t>
+          <t>黃海紀遊</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>jiang hai lian zhu</t>
+          <t>huang hai ji you</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68532</v>
+        <v>68636</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>靑霞館帖</t>
+          <t>雪舫吟</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>qing xia guan tie</t>
+          <t>xue fang yin</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68533</v>
+        <v>68637</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>國朝名人尺牘</t>
+          <t>經學辨疑</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>guo chao ming ren chi du</t>
+          <t>jing xue bian yi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68534</v>
+        <v>68638</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>所著有尺牘小傳二十四卷</t>
+          <t>勤庵就正錄</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>suo zhu you chi du xiao chuan er shi si juan</t>
+          <t>qin an jiu zheng lu</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>68535</v>
+        <v>68639</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>續疑年錄</t>
+          <t>得石軒集</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>xu yi nian lu</t>
+          <t>de shi xuan ji</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>68536</v>
+        <v>68640</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>吉祥居稿</t>
+          <t>春明浙中</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ji xiang ju gao</t>
+          <t>chun ming zhe zhong</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68537</v>
+        <v>68641</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>思亭近稿</t>
+          <t>南工詩集</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>si ting jin gao</t>
+          <t>nan gong shi ji</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>68538</v>
+        <v>68642</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>湖山吟嘯集</t>
+          <t>奏議年譜</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>hu shan yin xiao ji</t>
+          <t>zou yi nian pu</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68539</v>
+        <v>68643</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>居易居小草</t>
+          <t>全唐詩補</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ju yi ju xiao cao</t>
+          <t>quan tang shi bu</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1661,7 +1661,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>68540</v>
+        <v>68644</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>杏花春雨樓詩稿</t>
+          <t>意林詩話</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>xing hua chun yu lou shi gao</t>
+          <t>yi lin shi hua</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>68541</v>
+        <v>68645</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>萊峰駢體文</t>
+          <t>半樹齋集</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>lai feng pian ti wen</t>
+          <t>ban shu zhai ji</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>68542</v>
+        <v>68646</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>四書參解</t>
+          <t>感逝集</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>si shu can jie</t>
+          <t>gan shi ji</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1841,7 +1841,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>68543</v>
+        <v>68647</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>文選逸珠</t>
+          <t>綠蕉館詩鈔</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>wen xuan yi zhu</t>
+          <t>lv jiao guan shi chao</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>68544</v>
+        <v>68648</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>積石山房詩稿</t>
+          <t>倜生文集</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ji shi shan fang shi gao</t>
+          <t>ti sheng wen ji</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>68545</v>
+        <v>68649</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>榆關治畧</t>
+          <t>疏影山莊吟稿</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>yu guan zhi lve</t>
+          <t>shu ying shan zhuang yin gao</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2021,7 +2021,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>68546</v>
+        <v>68650</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>南巡詩藻</t>
+          <t>香禪詩草</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>nan xun shi zao</t>
+          <t>xiang chan shi cao</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>68547</v>
+        <v>68651</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>四書辨義</t>
+          <t>士林密約</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>si shu bian yi</t>
+          <t>shi lin mi yue</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2148,12 +2148,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>68548</v>
+        <v>68652</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>長安吟</t>
+          <t>敬道會編</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>zhang an yin</t>
+          <t>jing dao hui bian</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2208,12 +2208,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>68549</v>
+        <v>68653</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>紫山文集</t>
+          <t>禮記通註</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>zi shan wen ji</t>
+          <t>li ji tong zhu</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2261,19 +2261,19 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>68550</v>
+        <v>68654</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>四書經義</t>
+          <t>猶及編</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>si shu jing yi</t>
+          <t>you ji bian</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2328,12 +2328,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>68551</v>
+        <v>68655</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>一笑詩集</t>
+          <t>好古堂書目</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>yi xiao shi ji</t>
+          <t>hao gu tang shu mu</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2381,19 +2381,19 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>68552</v>
+        <v>68656</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>六書通摭遺</t>
+          <t>茗香書屋詩文集</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>liu shu tong zhi yi</t>
+          <t>ming xiang shu wu shi wen ji</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2441,7 +2441,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>68553</v>
+        <v>68657</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>秦溪詩稿</t>
+          <t>就正詩草: 二卷</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>qin xi shi gao</t>
+          <t>jiu zheng shi cao</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>68554</v>
+        <v>68658</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>賁湖詩稿</t>
+          <t>羅經簡易解: 一卷</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>bi hu shi gao</t>
+          <t>luo jing jian yi jie</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2561,7 +2561,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>68555</v>
+        <v>68659</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>吳趨詩稿</t>
+          <t>抑齋記聞</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>wu qu shi gao</t>
+          <t>yi zhai ji wen</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2621,7 +2621,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>68556</v>
+        <v>68660</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>北遊詩稿</t>
+          <t>緯仁遺書: 三卷</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>bei you shi gao</t>
+          <t>wei ren yi shu</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2681,7 +2681,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>68557</v>
+        <v>68661</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>寒氊詩稿</t>
+          <t>求放心齋經解: 十二卷</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>han zhan shi gao</t>
+          <t>qiu fang xin zhai jing jie</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2741,7 +2741,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>68558</v>
+        <v>68662</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>甬東詩稿</t>
+          <t>一笑草</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>yong dong shi gao</t>
+          <t>yi xiao cao</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>68559</v>
+        <v>68663</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>五經問答</t>
+          <t>四書解疑: 八卷</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>wu jing wen da</t>
+          <t>si shu jie yi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>68560</v>
+        <v>68664</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>芸香草堂詩詞鈔</t>
+          <t>叢桂庭穀貽文集: 四卷</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>yun xiang cao tang shi ci chao</t>
+          <t>cong gui ting gu yi wen ji</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>68561</v>
+        <v>68665</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>寄閒詩詞鈔</t>
+          <t>敬修堂詩</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ji xian shi ci chao</t>
+          <t>jing xiu tang shi</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>68562</v>
+        <v>68666</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>宜圃劄記</t>
+          <t>性理集說</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>yi pu zha ji</t>
+          <t>xing li ji shuo</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>68563</v>
+        <v>68667</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>挹翠樓詩草</t>
+          <t>吟香詩集</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>yi cui lou shi cao</t>
+          <t>yin xiang shi ji</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>68564</v>
+        <v>68668</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>意釣山房詩鈔</t>
+          <t>儀禮先易</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>yi diao shan fang shi chao</t>
+          <t>yi li xian yi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>68565</v>
+        <v>68669</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>二南訓女解: 四卷</t>
+          <t>營舊西陲</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>er nan xun nv jie</t>
+          <t>ying jiu xi chui</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>68566</v>
+        <v>68670</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>屮園吟稿</t>
+          <t>依雲軒詩集</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>che yuan yin gao</t>
+          <t>yi yun xuan shi ji</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>68567</v>
+        <v>68671</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>覲鄕記: 四卷</t>
+          <t>秋山草堂文藳</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>jin xiang ji</t>
+          <t>qiu shan cao tang wen gao</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>68568</v>
+        <v>68672</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>秦望詩稿</t>
+          <t>黃山遊草</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>qin wang shi gao</t>
+          <t>huang shan you cao</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>68569</v>
+        <v>68673</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>問靑軒詩稿</t>
+          <t>北遊草</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>wen qing xuan shi gao</t>
+          <t>bei you cao</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>68570</v>
+        <v>68674</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>纔是編</t>
+          <t>南廬詩文集: 十卷</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>cai shi bian</t>
+          <t>nan lu shi wen ji</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3521,7 +3521,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>68571</v>
+        <v>68675</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>豈匏文集</t>
+          <t>玉尺軒詩集</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>qi pao wen ji</t>
+          <t>yu chi xuan shi ji</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>68572</v>
+        <v>68676</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>豈匏雜著</t>
+          <t>事親通論</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>qi pao za zhu</t>
+          <t>shi qin tong lun</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>68573</v>
+        <v>68677</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>吳門補乘</t>
+          <t>敦倫實學</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>wu men bu cheng</t>
+          <t>dun lun shi xue</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>68574</v>
+        <v>68678</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>歷代人物氏族志</t>
+          <t>四書述評</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>li dai ren wu shi zu zhi</t>
+          <t>si shu shu ping</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>68575</v>
+        <v>68679</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>消寒集: 一卷</t>
+          <t>半舫詩集</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>xiao han ji</t>
+          <t>ban fang shi ji</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -3857,16 +3857,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>68576</v>
+        <v>68680</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>吾亦廬稿</t>
+          <t>秋鳴詩文集</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>wu yi lu gao</t>
+          <t>qiu ming shi wen ji</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -3917,16 +3917,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>68577</v>
+        <v>68681</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>殷水遺聞</t>
+          <t>芝玉山房詩草</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>yin shui yi wen</t>
+          <t>zhi yu shan fang shi cao</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3941,7 +3941,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
@@ -3977,16 +3977,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>68578</v>
+        <v>68682</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>橫山紀略</t>
+          <t>培壘錄</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>heng shan ji lve</t>
+          <t>pei lei lu</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -4008,7 +4008,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4028,2712 +4028,12 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>20250808</t>
+          <t>20250815</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>68579</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>歲時藻</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>sui shi zao</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>68580</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>玉廣孝編</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>yu guang xiao bian</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>68581</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>廣慈編</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>guang ci bian</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>68582</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>吾亦廬詩文集</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>wu yi lu shi wen ji</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>68583</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>秋聲山館詩鈔</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>qiu sheng shan guan shi chao</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>68584</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>桐石山房詩: 一卷</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>tong shi shan fang shi</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>68585</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>疑年錄質疑</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>yi nian lu zhi yi</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>68586</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>續疑年錄質疑</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>xu yi nian lu zhi yi</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>68587</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>書屏近語</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>shu ping jin yu</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68588</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>穰園詩稿</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>rang yuan shi gao</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>68589</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>備荒先政</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>bei huang xian zheng</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>68590</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>壺隱詩集: 二十卷</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>hu yin shi ji</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>68591</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>詩故攷異: 三十二卷</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>shi gu kao yi</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>68592</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>妙吉祥室文鈔: 二卷</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>miao ji xiang shi wen chao</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>68593</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>妙吉祥室詩鈔: 二十二卷</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>miao ji xiang shi shi chao</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>68594</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>妙吉祥室詞鈔: 一卷</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>miao ji xiang shi ci chao</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>68595</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>妙吉祥室雜著: 一卷</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>miao ji xiang shi za zhu</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>68596</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>桐華鳳閣詩文稿</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>tong hua feng ge shi wen gao</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>68597</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>鴻雪詞</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>hong xue ci</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>68598</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>禹貢分箋</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>yu gong fen jian</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>68599</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>澉水新誌: 十二卷</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>gan shui xin zhi</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>68600</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>金石攷</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>jin shi kao</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>68601</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>海上竹枝詞百首</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>hai shang zhu zhi ci bai shou</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>68602</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>湘友詩稿</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>xiang you shi gao</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>68603</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>答閒吟稿</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>da xian yin gao</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>68604</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>周易集說</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>zhou yi ji shuo</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>68605</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>良方集腋</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>liang fang ji ye</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>68606</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>聽秋館吟稿</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>ting qiu guan yin gao</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>68607</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>夢梅軒詩草</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>meng mei xuan shi cao</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>68608</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>嘯居吟稿</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>xiao ju yin gao</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>68609</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>味吾味室吟稿</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>wei wu wei shi yin gao</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>68610</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>小桃源室聯吟詩存</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>xiao tao yuan shi lian yin shi cun</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>68611</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>四書地理考</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>si shu di li kao</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>68612</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>毛詩多識編</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>mao shi duo shi bian</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>68613</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>聖學入門演義</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>sheng xue ru men yan yi</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>68614</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>壑舟園文稿</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>he zhou yuan wen gao</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>68615</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>鈔幣芻言</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>chao bi chu yan</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>68616</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>瀆川耆舊詩集</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>du chuan qi jiu shi ji</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>68617</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>海月堂詩文集</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>hai yue tang shi wen ji</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>68618</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>塔影樓詩稿: 十六卷</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>ta ying lou shi gao</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>68619</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>塔影樓駢體文: 一卷</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>ta ying lou pian ti wen</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>68620</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>吟窗揮塵錄: 六卷</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>yin chuang hui chen lu</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>68621</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>鏡湖珠㝛山房駢體文稿</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>jing hu zhu su shan fang pian ti wen gao</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>68622</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>稽古日鈔</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>ji gu ri chao</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>68623</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>春士小草</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>chun shi xiao cao</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>20250808</t>
-        </is>
-      </c>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68684</v>
+        <v>68696</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>闡皇極義</t>
+          <t>幽蘭集</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>chan huang ji yi</t>
+          <t>you lan ji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250822</t>
+          <t>20250829</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68685</v>
+        <v>68697</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>澹園詩草: 一卷</t>
+          <t>朱子小學補義</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dan yuan shi cao</t>
+          <t>zhu zi xiao xue bu yi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,19 +641,19 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4763</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250822</t>
+          <t>20250829</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68686</v>
+        <v>68698</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>金川會課集</t>
+          <t>輯注先人韻言</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>jin chuan hui ke ji</t>
+          <t>ji zhu xian ren yun yan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,19 +701,19 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>4763</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250822</t>
+          <t>20250829</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68687</v>
+        <v>68699</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>西湖偶吟</t>
+          <t>致曲編</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>xi hu ou yin</t>
+          <t>zhi qu bian</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4763</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250822</t>
+          <t>20250829</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68688</v>
+        <v>68700</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>樊圃詩存</t>
+          <t>思問編</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>fan pu shi cun</t>
+          <t>si wen bian</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4763</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250822</t>
+          <t>20250829</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68689</v>
+        <v>68701</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>閩游草</t>
+          <t>南征集</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>min you cao</t>
+          <t>nan zheng ji</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250822</t>
+          <t>20250829</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68690</v>
+        <v>68702</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>樊圃集</t>
+          <t>南歸集</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>fan pu ji</t>
+          <t>nan gui ji</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250822</t>
+          <t>20250829</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68691</v>
+        <v>68703</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>燮菴詩集</t>
+          <t>松園災楮編</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>xie an shi ji</t>
+          <t>song yuan zai chu bian</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250822</t>
+          <t>20250829</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68692</v>
+        <v>68704</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>聽雨齋詩鈔</t>
+          <t>獅子林紀勝</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ting yu zhai shi chao</t>
+          <t>shi zi lin ji sheng</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>57941</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250822</t>
+          <t>20250829</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68693</v>
+        <v>68705</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>理學薪傳集</t>
+          <t>枌社賸觚</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>li xue xin chuan ji</t>
+          <t>fen she sheng gu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>4763</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250822</t>
+          <t>20250829</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68694</v>
+        <v>68706</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>槃阿集</t>
+          <t>佩言我娛初錄</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>pan a ji</t>
+          <t>pei yan wo yu chu lu</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1181,19 +1181,19 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1208,12 +1208,972 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250822</t>
+          <t>20250829</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>68707</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>闡理編</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>chan li bian</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>68708</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>澹逸齋詩草</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>dan yi zhai shi cao</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>68709</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>閒吟集</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>xian yin ji</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>68710</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>荒政摘要</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>huang zheng zhai yao</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>68711</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>淸音閣集</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>qing yin ge ji</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>68712</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>曲臺約旨</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>qu tai yue zhi</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>68713</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>葦讀齋初問</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>wei du zhai chu wen</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>68714</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>小坡詩集</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>xiao po shi ji</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>68715</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>三桂堂文集</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>san gui tang wen ji</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>68716</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>三省齋詩鈔</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>san sheng zhai shi chao</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>68717</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>茶園詩稿</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>cha yuan shi gao</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>68718</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>解經錄</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>jie jing lu</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>68719</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>樸學齋文鈔</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>pu xue zhai wen chao</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>68720</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>北遊賸語</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>bei you sheng yu</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>68721</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>靜安詩稿</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>jing an shi gao</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>68722</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>四書彙解</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>si shu hui jie</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>20250829</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68696</v>
+        <v>68724</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>幽蘭集</t>
+          <t>自鏡錄</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>you lan ji</t>
+          <t>zi jing lu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,14 +581,14 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68697</v>
+        <v>68725</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>朱子小學補義</t>
+          <t>撫松居集</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>zhu zi xiao xue bu yi</t>
+          <t>fu song ju ji</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68698</v>
+        <v>68726</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>輯注先人韻言</t>
+          <t>學庸解</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ji zhu xian ren yun yan</t>
+          <t>xue yong jie</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68699</v>
+        <v>68727</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>致曲編</t>
+          <t>錄生集</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>zhi qu bian</t>
+          <t>lu sheng ji</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -761,7 +761,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68700</v>
+        <v>68728</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>思問編</t>
+          <t>蒙養正要</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>si wen bian</t>
+          <t>meng yang zheng yao</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68701</v>
+        <v>68729</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南征集</t>
+          <t>性理管見</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nan zheng ji</t>
+          <t>xing li guan jian</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,7 +881,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68702</v>
+        <v>68730</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南歸集</t>
+          <t>小學便蒙</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>nan gui ji</t>
+          <t>xiao xue bian meng</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68703</v>
+        <v>68731</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>松園災楮編</t>
+          <t>季時大辨</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>song yuan zai chu bian</t>
+          <t>ji shi da bian</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1008,12 +1008,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68704</v>
+        <v>68732</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>獅子林紀勝</t>
+          <t>禮樂考</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>shi zi lin ji sheng</t>
+          <t>li le kao</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1068,12 +1068,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68705</v>
+        <v>68733</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>枌社賸觚</t>
+          <t>蚓吟詩集</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>fen she sheng gu</t>
+          <t>yin yin shi ji</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68706</v>
+        <v>68734</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>佩言我娛初錄</t>
+          <t>友芝吟稿</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>pei yan wo yu chu lu</t>
+          <t>you zhi yin gao</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68707</v>
+        <v>68735</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>闡理編</t>
+          <t>愼終錄</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>chan li bian</t>
+          <t>shen zhong lu</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68708</v>
+        <v>68736</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>澹逸齋詩草</t>
+          <t>四書異議: 十六卷</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>dan yi zhai shi cao</t>
+          <t>si shu yi yi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1301,7 +1301,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68709</v>
+        <v>68737</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>閒吟集</t>
+          <t>善雅堂集</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>xian yin ji</t>
+          <t>shan ya tang ji</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1388,792 +1388,12 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250829</t>
+          <t>20250905</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>68710</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>荒政摘要</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>huang zheng zhai yao</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2067</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>68711</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>淸音閣集</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>qing yin ge ji</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>68712</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>曲臺約旨</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>qu tai yue zhi</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>68713</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>葦讀齋初問</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>wei du zhai chu wen</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>68714</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>小坡詩集</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>xiao po shi ji</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>68715</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>三桂堂文集</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>san gui tang wen ji</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>57941</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>68716</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>三省齋詩鈔</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>san sheng zhai shi chao</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>68286</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>68717</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>茶園詩稿</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>cha yuan shi gao</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>68718</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>解經錄</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>jie jing lu</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>4763</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>68719</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>樸學齋文鈔</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>pu xue zhai wen chao</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>4763</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>68720</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>北遊賸語</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>bei you sheng yu</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>4763</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>68721</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>靜安詩稿</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>jing an shi gao</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>68286</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>68722</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>四書彙解</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>si shu hui jie</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>68002</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>20250829</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68724</v>
+        <v>68772</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>自鏡錄</t>
+          <t>菜根香處詩草</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>zi jing lu</t>
+          <t>cai gen xiang chu shi cao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68725</v>
+        <v>68773</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>撫松居集</t>
+          <t>九葉吟</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>fu song ju ji</t>
+          <t>jiu ye yin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68726</v>
+        <v>68774</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>學庸解</t>
+          <t>香館吟草</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>xue yong jie</t>
+          <t>xiang guan yin cao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,7 +701,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -737,16 +737,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68727</v>
+        <v>68775</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>錄生集</t>
+          <t>靜齋文稿</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>lu sheng ji</t>
+          <t>jing zhai wen gao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -797,16 +797,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68728</v>
+        <v>68776</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>蒙養正要</t>
+          <t>采芝詩文集</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>meng yang zheng yao</t>
+          <t>cai zhi shi wen ji</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -821,7 +821,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -857,16 +857,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68729</v>
+        <v>68777</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>性理管見</t>
+          <t>鴻泥詩草</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>xing li guan jian</t>
+          <t>hong ni shi cao</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -881,7 +881,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -917,16 +917,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68730</v>
+        <v>68778</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>小學便蒙</t>
+          <t>守真集</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>xiao xue bian meng</t>
+          <t>shou zhen ji</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -977,16 +977,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68731</v>
+        <v>68779</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>季時大辨</t>
+          <t>羣經集證</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ji shi da bian</t>
+          <t>qun jing ji zheng</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1008,12 +1008,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68732</v>
+        <v>68780</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>禮樂考</t>
+          <t>續羣芳吟</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>li le kao</t>
+          <t>xu qun fang yin</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1068,12 +1068,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68733</v>
+        <v>68781</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>蚓吟詩集</t>
+          <t>夢軒隨筆</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>yin yin shi ji</t>
+          <t>meng xuan sui bi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68734</v>
+        <v>68782</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>友芝吟稿</t>
+          <t>黃山即景詩: 一卷</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>you zhi yin gao</t>
+          <t>huang shan ji jing shi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68735</v>
+        <v>68783</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>愼終錄</t>
+          <t>韻松詩稿</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>shen zhong lu</t>
+          <t>yun song shi gao</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1241,7 +1241,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68286</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68736</v>
+        <v>68784</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>四書異議: 十六卷</t>
+          <t>學古齋稿</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>si shu yi yi</t>
+          <t>xue gu zhai gao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1301,7 +1301,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68737</v>
+        <v>68785</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>善雅堂集</t>
+          <t>將就草堂詩集</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>shan ya tang ji</t>
+          <t>jiang jiu cao tang shi ji</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1388,12 +1388,3012 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20250905</t>
+          <t>20250919</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>68786</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>古今文腋彙編: 八卷</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>gu jin wen ye hui bian</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>68787</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>叢桂草堂詩集: 四卷</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>cong gui cao tang shi ji</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>68788</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>香盧詩鈔</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>xiang lu shi chao</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>68789</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>芸香小隱詩草</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>yun xiang xiao yin shi cao</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>68790</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>筱軒詩文稿</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>xiao xuan shi wen gao</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>68791</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>微笑庵主吟草</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>wei xiao an zhu yin cao</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>68792</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>賦學類腋</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>fu xue lei ye</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>68793</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>两湖師範受課筆記</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>liang hu shi fan shou ke bi ji</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>68794</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>景和詩草</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>jing he shi cao</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>68795</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>韓隱廬詩集</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>han yin lu shi ji</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>68796</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>晚翠樓詩集</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>wan cui lou shi ji</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>68797</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>飛鴻集</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>fei hong ji</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>68798</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>山牕偶錄</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>shan chuang ou lu</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>68799</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>佳聞手編</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>jia wen shou bian</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>68800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>鐘表圖解</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>zhong biao tu jie</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>68801</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>字拙軒印譜</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>zi zhuo xuan yin pu</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>68802</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>函齋集</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>han zhai ji</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>68803</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>居易居詩文集</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ju yi ju shi wen ji</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>68804</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>倚桂庭畫稿</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>yi gui ting hua gao</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>68805</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>書畫記</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>shu hua ji</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>68806</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>玉泉詩錄</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>yu quan shi lu</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>68807</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>韻玉軒稿</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>yun yu xuan gao</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>68808</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>抱樸居詩稿</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>bao pu ju shi gao</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>68809</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>含眞錄</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>han zhen lu</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>68810</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>小方壺仙館詩鈔</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>xiao fang hu xian guan shi chao</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>68811</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>鄂韡聯吟集</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>e wei lian yin ji</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>68812</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>西巖集</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>xi yan ji</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>68813</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>具區百咏</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ju qu bai yong</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>68814</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>太湖續編</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>tai hu xu bian</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>68815</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>佩文齋書畫譜</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>pei wen zhai shu hua pu</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>68816</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>夢草集: 四卷</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>meng cao ji</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>68817</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>銀花藤館詩集</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>yin hua teng guan shi ji</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>68818</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>麗藻堂稾</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>li zao tang gao</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>68819</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>喪葬祭雜儀: 三卷</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>sang zang ji za yi</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>68820</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>旃檀閣集</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>zhan tan ge ji</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>68821</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>西山拾翠</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>xi shan shi cui</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>68822</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>虎阜芳踪</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>hu fu fang zong</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>68823</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>洞庭紀勝</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>dong ting ji sheng</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>68824</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>吾邱五集</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>wu qiu wu ji</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>68825</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>寓黃小草</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>yu huang xiao cao</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>68826</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>山居詩</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>shan ju shi</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>68827</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>適餘堂集</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>shi yu tang ji</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>68828</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>施閏章集</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>shi run zhang ji</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>68829</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>板橋詩草</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ban qiao shi cao</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>68830</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>具區志一編</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ju qu zhi yi bian</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>68286</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>68831</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>不秋草堂詩稿</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>bu qiu cao tang shi gao</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>68832</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>禹貢註疏儀</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>yu gong zhu shu yi</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>68833</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>禮註疏</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>li zhu shu</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>68834</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>挹秀軒詩稿</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>yi xiu xuan shi gao</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>68835</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>却掃山房文集</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>que sao shan fang wen ji</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +557,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68837</v>
+        <v>68841</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>回省錄</t>
+          <t>樂庵類稿</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hui sheng lu</t>
+          <t>le an lei gao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -581,19 +581,19 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>68286</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>20250926</t>
+          <t>20251003</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68838</v>
+        <v>68842</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>四書合參</t>
+          <t>嗜泉詩存</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>si shu he can</t>
+          <t>shi quan shi cun</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -648,12 +648,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>68286</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20250926</t>
+          <t>20251003</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -677,16 +677,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68839</v>
+        <v>68843</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>耕閒偶吟</t>
+          <t>西村詩集</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>geng xian ou yin</t>
+          <t>xi cun shi ji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -701,19 +701,19 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>68286</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -728,12 +728,2352 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20250926</t>
+          <t>20251003</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>68844</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>斲冰集</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>zhuo bing ji</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>68845</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>易疑詩疑</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>yi yi shi yi</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>68846</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>个亭集</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ge ting ji</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>68847</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>莧園集</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>xian yuan ji</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>68848</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>浣筆池藏稿</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>huan bi chi cang gao</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>68849</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>侖者菑</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>lun zhe zai</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>68850</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>勿个集</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>wu ge ji</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>68851</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>寤歌室集</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>wu ge shi ji</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>68852</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>𣏌憂草</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>𣏌 you cao</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>68853</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>正氣集</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>zheng qi ji</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>68854</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>梅癡集稿</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>mei chi ji gao</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>68855</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>蘗亭鳴稿</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bo ting ming gao</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>68856</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>四書不夜篇二十卷</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>si shu bu ye pian er shi juan</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>68857</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>周易然犀五卷</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>zhou yi ran xi wu juan</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>68858</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>三才匯璧四卷</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>san cai hui bi si juan</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>68859</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>醫學指南十卷</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>yi xue zhi nan shi juan</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>68860</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>元科秘要四卷</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>yuan ke mi yao si juan</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>68861</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>經騐良方十二卷</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>jing yan liang fang shi er juan</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>68862</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>幼幼心法二卷</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>you you xin fa er juan</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>68863</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>元修最上乘二卷</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>yuan xiu zui shang cheng er juan</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>68002</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>20251003</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+   